--- a/LOG8430E_redis_results.xlsx
+++ b/LOG8430E_redis_results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thierry/Desktop/LOG8430E_TP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AA8555-651F-5040-AAB7-8EF4892574D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450985DF-5A72-5548-A406-BAAB7EE30009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tps-25" sheetId="1" r:id="rId1"/>
     <sheet name="tps-500" sheetId="2" r:id="rId2"/>
     <sheet name="tps-1000" sheetId="3" r:id="rId3"/>
+    <sheet name="results" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="58">
   <si>
     <t>##################################################################################</t>
   </si>
@@ -195,6 +196,22 @@
   <si>
     <t>Workload 3, try 3</t>
   </si>
+  <si>
+    <t>Workload 1</t>
+  </si>
+  <si>
+    <t>Workload 2</t>
+  </si>
+  <si>
+    <t>Workload 3</t>
+  </si>
+  <si>
+    <t>Throughput
+(ops/sec)</t>
+  </si>
+  <si>
+    <t>Average Throughput (ops/sec)</t>
+  </si>
 </sst>
 </file>
 
@@ -222,7 +239,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,8 +258,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -250,21 +273,156 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,37 +641,59 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:I285"/>
+  <dimension ref="A1:N285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:14" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K2" s="27"/>
+      <c r="L2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K3" s="28"/>
+      <c r="L3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -523,14 +703,26 @@
       <c r="C4" s="1">
         <v>40107</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="9">
+        <f>C16</f>
+        <v>509.637</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="10">
+        <f>C5</f>
+        <v>24.933303413369199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -540,8 +732,23 @@
       <c r="C5" s="1">
         <v>24.933303413369199</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="9">
+        <f>C43</f>
+        <v>664.84</v>
+      </c>
+      <c r="M5" s="19">
+        <f>C56</f>
+        <v>1041.1447619047599</v>
+      </c>
+      <c r="N5" s="10">
+        <f>C32</f>
+        <v>24.983760555638799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -551,8 +758,23 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="9">
+        <f>C77</f>
+        <v>691.10101010101005</v>
+      </c>
+      <c r="M6" s="19">
+        <f>C90</f>
+        <v>789.59045504994401</v>
+      </c>
+      <c r="N6" s="10">
+        <f>C66</f>
+        <v>24.980015987210201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -562,8 +784,20 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="9">
+        <f>C111</f>
+        <v>553.28099999999995</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="10">
+        <f>C100</f>
+        <v>24.9868818870093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -573,8 +807,23 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="9">
+        <f>C138</f>
+        <v>654.22044088176301</v>
+      </c>
+      <c r="M8" s="19">
+        <f>C151</f>
+        <v>1078.9281437125701</v>
+      </c>
+      <c r="N8" s="10">
+        <f>C127</f>
+        <v>24.975024975024901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -584,8 +833,23 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="9">
+        <f>C172</f>
+        <v>722.09090909090901</v>
+      </c>
+      <c r="M9" s="19">
+        <f>C185</f>
+        <v>787.06179775280896</v>
+      </c>
+      <c r="N9" s="10">
+        <f>C161</f>
+        <v>24.977520231791299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -595,8 +859,20 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="9">
+        <f>C206</f>
+        <v>482.399</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="10">
+        <f>C195</f>
+        <v>24.968165588874101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -606,8 +882,23 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="9">
+        <f>C233</f>
+        <v>678.95190380761505</v>
+      </c>
+      <c r="M11" s="19">
+        <f>C246</f>
+        <v>1002.6946107784401</v>
+      </c>
+      <c r="N11" s="10">
+        <f>C222</f>
+        <v>24.967542195146301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -617,8 +908,23 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="14">
+        <f>C267</f>
+        <v>599.04854368932001</v>
+      </c>
+      <c r="M12" s="23">
+        <f>C280</f>
+        <v>814.091415830546</v>
+      </c>
+      <c r="N12" s="22">
+        <f>C256</f>
+        <v>24.968789013732799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -628,8 +934,11 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -639,85 +948,129 @@
       <c r="C14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="K14" s="5"/>
+      <c r="L14" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="K15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="9">
+        <f>AVERAGE(L4,L7,L10)</f>
+        <v>515.10566666666671</v>
+      </c>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>509.637</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="K16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="9">
+        <f>AVERAGE(L5,L8,L11)</f>
+        <v>666.00411489645933</v>
+      </c>
+      <c r="M16" s="11">
+        <f>AVERAGE(M5,M8,M11)</f>
+        <v>1040.9225054652568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>133</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="K17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="14">
+        <f>AVERAGE(L6,L9,L12)</f>
+        <v>670.74682096041306</v>
+      </c>
+      <c r="M17" s="15">
+        <f>AVERAGE(M6,M9,M12)</f>
+        <v>796.91455621109969</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>11655</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>779</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="K19" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="26">
+        <f>AVERAGE(N4:N12)</f>
+        <v>24.971222649755209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>915</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -728,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -739,7 +1092,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -750,7 +1103,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -761,7 +1114,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -772,7 +1125,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -783,17 +1136,17 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -804,7 +1157,7 @@
         <v>40026</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -915,79 +1268,79 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>664.84</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="4" t="s">
+      <c r="A44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>16047</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="4" t="s">
+      <c r="A46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>812</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>1101</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>475</v>
       </c>
     </row>
@@ -1058,79 +1411,79 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="5" t="s">
+      <c r="A55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>525</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>1041.1447619047599</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="A57" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="5" t="s">
+      <c r="A58" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>29615</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="5" t="s">
+      <c r="A59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="4">
         <v>1256</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B60" s="5" t="s">
+      <c r="A60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <v>11711</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B61" s="5" t="s">
+      <c r="A61" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <v>525</v>
       </c>
     </row>
@@ -1266,79 +1619,79 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A76" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B76" s="4" t="s">
+      <c r="A76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A77" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B77" s="4" t="s">
+      <c r="A77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>691.10101010101005</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A78" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B78" s="4" t="s">
+      <c r="A78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" s="4" t="s">
+      <c r="A79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <v>8615</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A80" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B80" s="4" t="s">
+      <c r="A80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="3">
         <v>892</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="A81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="3">
         <v>1142</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A82" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B82" s="4" t="s">
+      <c r="A82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="3">
         <v>99</v>
       </c>
     </row>
@@ -1409,79 +1762,79 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A89" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B89" s="5" t="s">
+      <c r="A89" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="4">
         <v>901</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B90" s="5" t="s">
+      <c r="A90" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="4">
         <v>789.59045504994401</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A91" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B91" s="5" t="s">
+      <c r="A91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="4">
         <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A92" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B92" s="5" t="s">
+      <c r="A92" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="4">
         <v>13943</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A93" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B93" s="5" t="s">
+      <c r="A93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="4">
         <v>1092</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A94" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" s="5" t="s">
+      <c r="A94" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="4">
         <v>2691</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A95" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B95" s="5" t="s">
+      <c r="A95" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="4">
         <v>901</v>
       </c>
     </row>
@@ -1617,79 +1970,79 @@
       </c>
     </row>
     <row r="110" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A110" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B110" s="4" t="s">
+      <c r="A110" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A111" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B111" s="4" t="s">
+      <c r="A111" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="3">
         <v>553.28099999999995</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A112" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B112" s="4" t="s">
+      <c r="A112" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="3">
         <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A113" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B113" s="4" t="s">
+      <c r="A113" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="3">
         <v>7375</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A114" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B114" s="4" t="s">
+      <c r="A114" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="3">
         <v>793</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A115" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B115" s="4" t="s">
+      <c r="A115" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="3">
         <v>923</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A116" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B116" s="4" t="s">
+      <c r="A116" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="3">
         <v>1000</v>
       </c>
     </row>
@@ -1891,79 +2244,79 @@
       </c>
     </row>
     <row r="137" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A137" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B137" s="4" t="s">
+      <c r="A137" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="3">
         <v>499</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A138" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B138" s="4" t="s">
+      <c r="A138" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="3">
         <v>654.22044088176301</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A139" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B139" s="4" t="s">
+      <c r="A139" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="3">
         <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A140" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B140" s="4" t="s">
+      <c r="A140" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="3">
         <v>27151</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A141" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B141" s="4" t="s">
+      <c r="A141" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="3">
         <v>806</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A142" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B142" s="4" t="s">
+      <c r="A142" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="3">
         <v>7515</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A143" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B143" s="4" t="s">
+      <c r="A143" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="3">
         <v>499</v>
       </c>
     </row>
@@ -2034,79 +2387,79 @@
       </c>
     </row>
     <row r="150" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A150" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B150" s="5" t="s">
+      <c r="A150" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C150" s="4">
         <v>501</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A151" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B151" s="5" t="s">
+      <c r="A151" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C151" s="5">
+      <c r="C151" s="4">
         <v>1078.9281437125701</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A152" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B152" s="5" t="s">
+      <c r="A152" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C152" s="5">
+      <c r="C152" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A153" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B153" s="5" t="s">
+      <c r="A153" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C153" s="5">
+      <c r="C153" s="4">
         <v>75775</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A154" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B154" s="5" t="s">
+      <c r="A154" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C154" s="4">
         <v>1229</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A155" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B155" s="5" t="s">
+      <c r="A155" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C155" s="5">
+      <c r="C155" s="4">
         <v>10775</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A156" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B156" s="5" t="s">
+      <c r="A156" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C156" s="4">
         <v>501</v>
       </c>
     </row>
@@ -2242,79 +2595,79 @@
       </c>
     </row>
     <row r="171" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A171" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B171" s="4" t="s">
+      <c r="A171" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C171" s="4">
+      <c r="C171" s="3">
         <v>110</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A172" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B172" s="4" t="s">
+      <c r="A172" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C172" s="4">
+      <c r="C172" s="3">
         <v>722.09090909090901</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A173" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B173" s="4" t="s">
+      <c r="A173" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C173" s="4">
+      <c r="C173" s="3">
         <v>130</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A174" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B174" s="4" t="s">
+      <c r="A174" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C174" s="4">
+      <c r="C174" s="3">
         <v>13863</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A175" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B175" s="4" t="s">
+      <c r="A175" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C175" s="4">
+      <c r="C175" s="3">
         <v>911</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A176" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B176" s="4" t="s">
+      <c r="A176" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B176" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C176" s="4">
+      <c r="C176" s="3">
         <v>8839</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A177" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B177" s="4" t="s">
+      <c r="A177" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C177" s="4">
+      <c r="C177" s="3">
         <v>110</v>
       </c>
     </row>
@@ -2385,79 +2738,79 @@
       </c>
     </row>
     <row r="184" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A184" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B184" s="5" t="s">
+      <c r="A184" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C184" s="5">
+      <c r="C184" s="4">
         <v>890</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A185" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B185" s="5" t="s">
+      <c r="A185" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C185" s="5">
+      <c r="C185" s="4">
         <v>787.06179775280896</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A186" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B186" s="5" t="s">
+      <c r="A186" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B186" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C186" s="5">
+      <c r="C186" s="4">
         <v>151</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A187" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B187" s="5" t="s">
+      <c r="A187" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B187" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C187" s="5">
+      <c r="C187" s="4">
         <v>27423</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A188" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B188" s="5" t="s">
+      <c r="A188" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C188" s="5">
+      <c r="C188" s="4">
         <v>1046</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A189" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B189" s="5" t="s">
+      <c r="A189" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C189" s="5">
+      <c r="C189" s="4">
         <v>3597</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A190" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B190" s="5" t="s">
+      <c r="A190" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C190" s="5">
+      <c r="C190" s="4">
         <v>890</v>
       </c>
     </row>
@@ -2593,79 +2946,79 @@
       </c>
     </row>
     <row r="205" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A205" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B205" s="4" t="s">
+      <c r="A205" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B205" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C205" s="4">
+      <c r="C205" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A206" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B206" s="4" t="s">
+      <c r="A206" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B206" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C206" s="4">
+      <c r="C206" s="3">
         <v>482.399</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A207" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B207" s="4" t="s">
+      <c r="A207" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C207" s="4">
+      <c r="C207" s="3">
         <v>132</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A208" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B208" s="4" t="s">
+      <c r="A208" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B208" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C208" s="4">
+      <c r="C208" s="3">
         <v>10759</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A209" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B209" s="4" t="s">
+      <c r="A209" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B209" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C209" s="4">
+      <c r="C209" s="3">
         <v>799</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A210" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B210" s="4" t="s">
+      <c r="A210" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B210" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C210" s="4">
+      <c r="C210" s="3">
         <v>977</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A211" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B211" s="4" t="s">
+      <c r="A211" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B211" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C211" s="4">
+      <c r="C211" s="3">
         <v>1000</v>
       </c>
     </row>
@@ -2867,79 +3220,79 @@
       </c>
     </row>
     <row r="232" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A232" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B232" s="4" t="s">
+      <c r="A232" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B232" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C232" s="4">
+      <c r="C232" s="3">
         <v>499</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A233" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B233" s="4" t="s">
+      <c r="A233" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B233" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C233" s="4">
+      <c r="C233" s="3">
         <v>678.95190380761505</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A234" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B234" s="4" t="s">
+      <c r="A234" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B234" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C234" s="4">
+      <c r="C234" s="3">
         <v>157</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A235" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B235" s="4" t="s">
+      <c r="A235" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B235" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C235" s="4">
+      <c r="C235" s="3">
         <v>19631</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A236" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B236" s="4" t="s">
+      <c r="A236" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B236" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C236" s="4">
+      <c r="C236" s="3">
         <v>839</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A237" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B237" s="4" t="s">
+      <c r="A237" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B237" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C237" s="4">
+      <c r="C237" s="3">
         <v>1230</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A238" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B238" s="4" t="s">
+      <c r="A238" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B238" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C238" s="4">
+      <c r="C238" s="3">
         <v>499</v>
       </c>
     </row>
@@ -3010,79 +3363,79 @@
       </c>
     </row>
     <row r="245" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A245" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B245" s="5" t="s">
+      <c r="A245" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B245" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C245" s="5">
+      <c r="C245" s="4">
         <v>501</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A246" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B246" s="5" t="s">
+      <c r="A246" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B246" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C246" s="5">
+      <c r="C246" s="4">
         <v>1002.6946107784401</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A247" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B247" s="5" t="s">
+      <c r="A247" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B247" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C247" s="5">
+      <c r="C247" s="4">
         <v>226</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A248" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B248" s="5" t="s">
+      <c r="A248" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B248" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C248" s="5">
+      <c r="C248" s="4">
         <v>25119</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A249" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B249" s="5" t="s">
+      <c r="A249" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B249" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C249" s="5">
+      <c r="C249" s="4">
         <v>1218</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A250" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B250" s="5" t="s">
+      <c r="A250" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B250" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C250" s="5">
+      <c r="C250" s="4">
         <v>8959</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A251" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B251" s="5" t="s">
+      <c r="A251" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B251" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C251" s="5">
+      <c r="C251" s="4">
         <v>501</v>
       </c>
     </row>
@@ -3218,79 +3571,79 @@
       </c>
     </row>
     <row r="266" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A266" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B266" s="4" t="s">
+      <c r="A266" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B266" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C266" s="4">
+      <c r="C266" s="3">
         <v>103</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A267" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B267" s="4" t="s">
+      <c r="A267" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B267" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C267" s="4">
+      <c r="C267" s="3">
         <v>599.04854368932001</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A268" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B268" s="4" t="s">
+      <c r="A268" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B268" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C268" s="4">
+      <c r="C268" s="3">
         <v>180</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A269" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B269" s="4" t="s">
+      <c r="A269" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B269" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C269" s="4">
+      <c r="C269" s="3">
         <v>4091</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A270" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B270" s="4" t="s">
+      <c r="A270" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B270" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C270" s="4">
+      <c r="C270" s="3">
         <v>916</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A271" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B271" s="4" t="s">
+      <c r="A271" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B271" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C271" s="4">
+      <c r="C271" s="3">
         <v>1251</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A272" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B272" s="4" t="s">
+      <c r="A272" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B272" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C272" s="4">
+      <c r="C272" s="3">
         <v>103</v>
       </c>
     </row>
@@ -3361,83 +3714,87 @@
       </c>
     </row>
     <row r="279" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A279" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B279" s="5" t="s">
+      <c r="A279" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B279" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C279" s="5">
+      <c r="C279" s="4">
         <v>897</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A280" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B280" s="5" t="s">
+      <c r="A280" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B280" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C280" s="5">
+      <c r="C280" s="4">
         <v>814.091415830546</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A281" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B281" s="5" t="s">
+      <c r="A281" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B281" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C281" s="5">
+      <c r="C281" s="4">
         <v>168</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A282" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B282" s="5" t="s">
+      <c r="A282" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B282" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C282" s="5">
+      <c r="C282" s="4">
         <v>21455</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A283" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B283" s="5" t="s">
+      <c r="A283" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B283" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C283" s="5">
+      <c r="C283" s="4">
         <v>1198</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A284" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B284" s="5" t="s">
+      <c r="A284" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B284" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C284" s="5">
+      <c r="C284" s="4">
         <v>2293</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A285" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B285" s="5" t="s">
+      <c r="A285" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B285" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C285" s="5">
+      <c r="C285" s="4">
         <v>897</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:M2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3447,37 +3804,54 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:I285"/>
+  <dimension ref="A1:N285"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C61" sqref="A55:C61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K2" s="27"/>
+      <c r="L2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K3" s="28"/>
+      <c r="L3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3487,14 +3861,26 @@
       <c r="C4" s="1">
         <v>2020</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="9">
+        <f>C16</f>
+        <v>340.68900000000002</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="10">
+        <f>C5</f>
+        <v>495.04950495049502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3504,8 +3890,23 @@
       <c r="C5" s="1">
         <v>495.04950495049502</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="9">
+        <f>C43</f>
+        <v>296.02783725910001</v>
+      </c>
+      <c r="M5" s="19">
+        <f>C56</f>
+        <v>474.58724202626598</v>
+      </c>
+      <c r="N5" s="10">
+        <f>C32</f>
+        <v>495.29470034670601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3515,8 +3916,23 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="9">
+        <f>C77</f>
+        <v>497.67289719626098</v>
+      </c>
+      <c r="M6" s="19">
+        <f>C90</f>
+        <v>574.41993281074997</v>
+      </c>
+      <c r="N6" s="10">
+        <f>C66</f>
+        <v>493.82716049382702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -3526,8 +3942,20 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="9">
+        <f>C111</f>
+        <v>470.53100000000001</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="10">
+        <f>C100</f>
+        <v>493.58341559723499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -3537,8 +3965,23 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="9">
+        <f>C138</f>
+        <v>390.50733752620499</v>
+      </c>
+      <c r="M8" s="19">
+        <f>C151</f>
+        <v>640.86424474187299</v>
+      </c>
+      <c r="N8" s="10">
+        <f>C127</f>
+        <v>495.29470034670601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -3548,8 +3991,23 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="9">
+        <f>C172</f>
+        <v>447.4</v>
+      </c>
+      <c r="M9" s="19">
+        <f>C185</f>
+        <v>596.79337016574505</v>
+      </c>
+      <c r="N9" s="10">
+        <f>C161</f>
+        <v>495.04950495049502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -3559,8 +4017,20 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="9">
+        <f>C206</f>
+        <v>378.75799999999998</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="10">
+        <f>C195</f>
+        <v>493.58341559723499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -3570,8 +4040,23 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="9">
+        <f>C233</f>
+        <v>367.69400000000002</v>
+      </c>
+      <c r="M11" s="19">
+        <f>C246</f>
+        <v>476.71199999999999</v>
+      </c>
+      <c r="N11" s="10">
+        <f>C222</f>
+        <v>494.55984174085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3581,8 +4066,23 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="14">
+        <f>C267</f>
+        <v>439.94623655913898</v>
+      </c>
+      <c r="M12" s="23">
+        <f>C280</f>
+        <v>528.18853362734205</v>
+      </c>
+      <c r="N12" s="22">
+        <f>C256</f>
+        <v>495.54013875123798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -3592,8 +4092,11 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -3603,85 +4106,129 @@
       <c r="C14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="K14" s="5"/>
+      <c r="L14" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="K15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="9">
+        <f>AVERAGE(L4,L7,L10)</f>
+        <v>396.65933333333334</v>
+      </c>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>340.68900000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="K16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="9">
+        <f>AVERAGE(L5,L8,L11)</f>
+        <v>351.40972492843503</v>
+      </c>
+      <c r="M16" s="11">
+        <f>AVERAGE(M5,M8,M11)</f>
+        <v>530.72116225604634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="K17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="14">
+        <f>AVERAGE(L6,L9,L12)</f>
+        <v>461.67304458513331</v>
+      </c>
+      <c r="M17" s="15">
+        <f>AVERAGE(M6,M9,M12)</f>
+        <v>566.46727886794577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>8147</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>638</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="K19" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="26">
+        <f>AVERAGE(N4:N12)</f>
+        <v>494.64248697497646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>675</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -3692,7 +4239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -3703,7 +4250,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -3714,7 +4261,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -3725,7 +4272,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -3736,7 +4283,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -3747,17 +4294,17 @@
         <v>552</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -3768,7 +4315,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -3879,79 +4426,79 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>467</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>296.02783725910001</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="4" t="s">
+      <c r="A44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>4563</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="4" t="s">
+      <c r="A46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>626</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>710</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>467</v>
       </c>
     </row>
@@ -4022,79 +4569,79 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="5" t="s">
+      <c r="A55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>533</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>474.58724202626598</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="A57" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="5" t="s">
+      <c r="A58" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>29279</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="5" t="s">
+      <c r="A59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="4">
         <v>818</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B60" s="5" t="s">
+      <c r="A60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <v>961</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B61" s="5" t="s">
+      <c r="A61" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <v>533</v>
       </c>
     </row>
@@ -4230,79 +4777,79 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A76" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B76" s="4" t="s">
+      <c r="A76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A77" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B77" s="4" t="s">
+      <c r="A77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>497.67289719626098</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A78" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B78" s="4" t="s">
+      <c r="A78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" s="4" t="s">
+      <c r="A79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <v>4731</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A80" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B80" s="4" t="s">
+      <c r="A80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="3">
         <v>721</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="A81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="3">
         <v>923</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A82" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B82" s="4" t="s">
+      <c r="A82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="3">
         <v>107</v>
       </c>
     </row>
@@ -4373,79 +4920,79 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A89" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B89" s="5" t="s">
+      <c r="A89" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="4">
         <v>893</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B90" s="5" t="s">
+      <c r="A90" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="4">
         <v>574.41993281074997</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A91" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B91" s="5" t="s">
+      <c r="A91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="4">
         <v>116</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A92" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B92" s="5" t="s">
+      <c r="A92" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="4">
         <v>23215</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A93" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B93" s="5" t="s">
+      <c r="A93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="4">
         <v>855</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A94" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" s="5" t="s">
+      <c r="A94" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="4">
         <v>1161</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A95" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B95" s="5" t="s">
+      <c r="A95" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="4">
         <v>893</v>
       </c>
     </row>
@@ -4581,79 +5128,79 @@
       </c>
     </row>
     <row r="110" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A110" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B110" s="4" t="s">
+      <c r="A110" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A111" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B111" s="4" t="s">
+      <c r="A111" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="3">
         <v>470.53100000000001</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A112" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B112" s="4" t="s">
+      <c r="A112" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="3">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A113" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B113" s="4" t="s">
+      <c r="A113" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="3">
         <v>8431</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A114" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B114" s="4" t="s">
+      <c r="A114" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="3">
         <v>673</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A115" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B115" s="4" t="s">
+      <c r="A115" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="3">
         <v>777</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A116" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B116" s="4" t="s">
+      <c r="A116" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="3">
         <v>1000</v>
       </c>
     </row>
@@ -4855,79 +5402,79 @@
       </c>
     </row>
     <row r="137" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A137" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B137" s="4" t="s">
+      <c r="A137" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="3">
         <v>477</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A138" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B138" s="4" t="s">
+      <c r="A138" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="3">
         <v>390.50733752620499</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A139" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B139" s="4" t="s">
+      <c r="A139" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="3">
         <v>88</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A140" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B140" s="4" t="s">
+      <c r="A140" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="3">
         <v>4659</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A141" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B141" s="4" t="s">
+      <c r="A141" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="3">
         <v>711</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A142" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B142" s="4" t="s">
+      <c r="A142" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="3">
         <v>800</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A143" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B143" s="4" t="s">
+      <c r="A143" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="3">
         <v>477</v>
       </c>
     </row>
@@ -4998,79 +5545,79 @@
       </c>
     </row>
     <row r="150" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A150" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B150" s="5" t="s">
+      <c r="A150" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C150" s="4">
         <v>523</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A151" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B151" s="5" t="s">
+      <c r="A151" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C151" s="5">
+      <c r="C151" s="4">
         <v>640.86424474187299</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A152" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B152" s="5" t="s">
+      <c r="A152" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C152" s="5">
+      <c r="C152" s="4">
         <v>137</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A153" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B153" s="5" t="s">
+      <c r="A153" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C153" s="5">
+      <c r="C153" s="4">
         <v>32863</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A154" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B154" s="5" t="s">
+      <c r="A154" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C154" s="4">
         <v>942</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A155" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B155" s="5" t="s">
+      <c r="A155" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C155" s="5">
+      <c r="C155" s="4">
         <v>1138</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A156" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B156" s="5" t="s">
+      <c r="A156" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C156" s="4">
         <v>523</v>
       </c>
     </row>
@@ -5206,79 +5753,79 @@
       </c>
     </row>
     <row r="171" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A171" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B171" s="4" t="s">
+      <c r="A171" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C171" s="4">
+      <c r="C171" s="3">
         <v>95</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A172" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B172" s="4" t="s">
+      <c r="A172" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C172" s="4">
+      <c r="C172" s="3">
         <v>447.4</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A173" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B173" s="4" t="s">
+      <c r="A173" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C173" s="4">
+      <c r="C173" s="3">
         <v>106</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A174" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B174" s="4" t="s">
+      <c r="A174" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C174" s="4">
+      <c r="C174" s="3">
         <v>3731</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A175" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B175" s="4" t="s">
+      <c r="A175" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C175" s="4">
+      <c r="C175" s="3">
         <v>703</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A176" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B176" s="4" t="s">
+      <c r="A176" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B176" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C176" s="4">
+      <c r="C176" s="3">
         <v>754</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A177" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B177" s="4" t="s">
+      <c r="A177" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C177" s="4">
+      <c r="C177" s="3">
         <v>95</v>
       </c>
     </row>
@@ -5349,79 +5896,79 @@
       </c>
     </row>
     <row r="184" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A184" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B184" s="5" t="s">
+      <c r="A184" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C184" s="5">
+      <c r="C184" s="4">
         <v>905</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A185" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B185" s="5" t="s">
+      <c r="A185" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C185" s="5">
+      <c r="C185" s="4">
         <v>596.79337016574505</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A186" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B186" s="5" t="s">
+      <c r="A186" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B186" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C186" s="5">
+      <c r="C186" s="4">
         <v>116</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A187" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B187" s="5" t="s">
+      <c r="A187" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B187" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C187" s="5">
+      <c r="C187" s="4">
         <v>32671</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A188" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B188" s="5" t="s">
+      <c r="A188" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C188" s="5">
+      <c r="C188" s="4">
         <v>887</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A189" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B189" s="5" t="s">
+      <c r="A189" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C189" s="5">
+      <c r="C189" s="4">
         <v>1046</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A190" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B190" s="5" t="s">
+      <c r="A190" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C190" s="5">
+      <c r="C190" s="4">
         <v>905</v>
       </c>
     </row>
@@ -5557,79 +6104,79 @@
       </c>
     </row>
     <row r="205" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A205" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B205" s="4" t="s">
+      <c r="A205" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B205" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C205" s="4">
+      <c r="C205" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A206" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B206" s="4" t="s">
+      <c r="A206" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B206" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C206" s="4">
+      <c r="C206" s="3">
         <v>378.75799999999998</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A207" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B207" s="4" t="s">
+      <c r="A207" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C207" s="4">
+      <c r="C207" s="3">
         <v>101</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A208" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B208" s="4" t="s">
+      <c r="A208" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B208" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C208" s="4">
+      <c r="C208" s="3">
         <v>7119</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A209" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B209" s="4" t="s">
+      <c r="A209" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B209" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C209" s="4">
+      <c r="C209" s="3">
         <v>687</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A210" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B210" s="4" t="s">
+      <c r="A210" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B210" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C210" s="4">
+      <c r="C210" s="3">
         <v>778</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A211" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B211" s="4" t="s">
+      <c r="A211" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B211" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C211" s="4">
+      <c r="C211" s="3">
         <v>1000</v>
       </c>
     </row>
@@ -5831,79 +6378,79 @@
       </c>
     </row>
     <row r="232" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A232" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B232" s="4" t="s">
+      <c r="A232" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B232" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C232" s="4">
+      <c r="C232" s="3">
         <v>500</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A233" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B233" s="4" t="s">
+      <c r="A233" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B233" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C233" s="4">
+      <c r="C233" s="3">
         <v>367.69400000000002</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A234" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B234" s="4" t="s">
+      <c r="A234" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B234" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C234" s="4">
+      <c r="C234" s="3">
         <v>92</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A235" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B235" s="4" t="s">
+      <c r="A235" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B235" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C235" s="4">
+      <c r="C235" s="3">
         <v>9871</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A236" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B236" s="4" t="s">
+      <c r="A236" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B236" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C236" s="4">
+      <c r="C236" s="3">
         <v>681</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A237" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B237" s="4" t="s">
+      <c r="A237" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B237" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C237" s="4">
+      <c r="C237" s="3">
         <v>773</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A238" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B238" s="4" t="s">
+      <c r="A238" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B238" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C238" s="4">
+      <c r="C238" s="3">
         <v>500</v>
       </c>
     </row>
@@ -5974,79 +6521,79 @@
       </c>
     </row>
     <row r="245" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A245" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B245" s="5" t="s">
+      <c r="A245" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B245" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C245" s="5">
+      <c r="C245" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A246" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B246" s="5" t="s">
+      <c r="A246" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B246" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C246" s="5">
+      <c r="C246" s="4">
         <v>476.71199999999999</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A247" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B247" s="5" t="s">
+      <c r="A247" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B247" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C247" s="5">
+      <c r="C247" s="4">
         <v>133</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A248" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B248" s="5" t="s">
+      <c r="A248" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B248" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C248" s="5">
+      <c r="C248" s="4">
         <v>10343</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A249" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B249" s="5" t="s">
+      <c r="A249" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B249" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C249" s="5">
+      <c r="C249" s="4">
         <v>881</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A250" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B250" s="5" t="s">
+      <c r="A250" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B250" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C250" s="5">
+      <c r="C250" s="4">
         <v>1003</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A251" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B251" s="5" t="s">
+      <c r="A251" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B251" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C251" s="5">
+      <c r="C251" s="4">
         <v>500</v>
       </c>
     </row>
@@ -6182,79 +6729,79 @@
       </c>
     </row>
     <row r="266" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A266" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B266" s="4" t="s">
+      <c r="A266" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B266" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C266" s="4">
+      <c r="C266" s="3">
         <v>93</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A267" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B267" s="4" t="s">
+      <c r="A267" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B267" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C267" s="4">
+      <c r="C267" s="3">
         <v>439.94623655913898</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A268" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B268" s="4" t="s">
+      <c r="A268" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B268" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C268" s="4">
+      <c r="C268" s="3">
         <v>119</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A269" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B269" s="4" t="s">
+      <c r="A269" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B269" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C269" s="4">
+      <c r="C269" s="3">
         <v>4315</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A270" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B270" s="4" t="s">
+      <c r="A270" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B270" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C270" s="4">
+      <c r="C270" s="3">
         <v>731</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A271" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B271" s="4" t="s">
+      <c r="A271" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B271" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C271" s="4">
+      <c r="C271" s="3">
         <v>779</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A272" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B272" s="4" t="s">
+      <c r="A272" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B272" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C272" s="4">
+      <c r="C272" s="3">
         <v>93</v>
       </c>
     </row>
@@ -6325,83 +6872,87 @@
       </c>
     </row>
     <row r="279" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A279" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B279" s="5" t="s">
+      <c r="A279" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B279" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C279" s="5">
+      <c r="C279" s="4">
         <v>907</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A280" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B280" s="5" t="s">
+      <c r="A280" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B280" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C280" s="5">
+      <c r="C280" s="4">
         <v>528.18853362734205</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A281" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B281" s="5" t="s">
+      <c r="A281" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B281" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C281" s="5">
+      <c r="C281" s="4">
         <v>126</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A282" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B282" s="5" t="s">
+      <c r="A282" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B282" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C282" s="5">
+      <c r="C282" s="4">
         <v>24031</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A283" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B283" s="5" t="s">
+      <c r="A283" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B283" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C283" s="5">
+      <c r="C283" s="4">
         <v>859</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A284" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B284" s="5" t="s">
+      <c r="A284" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B284" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C284" s="5">
+      <c r="C284" s="4">
         <v>991</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A285" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B285" s="5" t="s">
+      <c r="A285" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B285" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C285" s="5">
+      <c r="C285" s="4">
         <v>907</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:M2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6411,52 +6962,61 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:N285"/>
+  <dimension ref="A1:O285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:15" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M2" s="20"/>
+      <c r="N2" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="K3" s="28"/>
+      <c r="L3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N3" s="7"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -6466,18 +7026,27 @@
       <c r="C4" s="1">
         <v>1022</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L4" s="9">
+        <f>C16</f>
+        <v>237.94</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="10">
+        <f>C5</f>
+        <v>978.47358121330706</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -6487,13 +7056,23 @@
       <c r="C5" s="1">
         <v>978.47358121330706</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L5" s="9">
+        <f>C43</f>
+        <v>260.01844262294998</v>
+      </c>
+      <c r="M5" s="19">
+        <f>C56</f>
+        <v>293.072265625</v>
+      </c>
+      <c r="N5" s="10">
+        <f>C32</f>
+        <v>976.5625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -6503,13 +7082,23 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L6" s="9">
+        <f>C77</f>
+        <v>379.56521739130397</v>
+      </c>
+      <c r="M6" s="19">
+        <f>C90</f>
+        <v>432.34691629955898</v>
+      </c>
+      <c r="N6" s="10">
+        <f>C66</f>
+        <v>962.46390760346401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -6519,12 +7108,20 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L7" s="9">
+        <f>C111</f>
+        <v>185.81399999999999</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="10">
+        <f>C100</f>
+        <v>972.76264591439599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -6534,13 +7131,23 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L8" s="9">
+        <f>C138</f>
+        <v>213.805555555555</v>
+      </c>
+      <c r="M8" s="19">
+        <f>C151</f>
+        <v>284.28260869565202</v>
+      </c>
+      <c r="N8" s="10">
+        <f>C127</f>
+        <v>968.99224806201505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -6550,13 +7157,23 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L9" s="9">
+        <f>C172</f>
+        <v>365.56521739130397</v>
+      </c>
+      <c r="M9" s="19">
+        <f>C185</f>
+        <v>402.30396475770902</v>
+      </c>
+      <c r="N9" s="10">
+        <f>C161</f>
+        <v>974.65886939571101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -6566,12 +7183,20 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L10" s="9">
+        <f>C206</f>
+        <v>276.73500000000001</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="10">
+        <f>C195</f>
+        <v>981.35426889106895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -6581,13 +7206,23 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L11" s="9">
+        <f>C233</f>
+        <v>274.86004056795099</v>
+      </c>
+      <c r="M11" s="19">
+        <f>C246</f>
+        <v>294.16173570019703</v>
+      </c>
+      <c r="N11" s="10">
+        <f>C222</f>
+        <v>974.65886939571101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -6597,13 +7232,23 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L12" s="14">
+        <f>C267</f>
+        <v>274.75555555555502</v>
+      </c>
+      <c r="M12" s="23">
+        <f>C280</f>
+        <v>328.51868131868099</v>
+      </c>
+      <c r="N12" s="22">
+        <f>C256</f>
+        <v>963.39113680154105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -6613,8 +7258,11 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -6624,85 +7272,129 @@
       <c r="C14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="K14" s="5"/>
+      <c r="L14" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="K15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="9">
+        <f>AVERAGE(L4,L7,L10)</f>
+        <v>233.49633333333335</v>
+      </c>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>237.94</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="K16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="9">
+        <f>AVERAGE(L5,L8,L11)</f>
+        <v>249.56134624881869</v>
+      </c>
+      <c r="M16" s="11">
+        <f>AVERAGE(M5,M8,M11)</f>
+        <v>290.50553667361635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="K17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="14">
+        <f>AVERAGE(L6,L9,L12)</f>
+        <v>339.96199677938768</v>
+      </c>
+      <c r="M17" s="15">
+        <f>AVERAGE(M6,M9,M12)</f>
+        <v>387.72318745864965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>11071</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>494</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="K19" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="26">
+        <f>AVERAGE(N4:N12)</f>
+        <v>972.59089191969053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>610</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -6713,7 +7405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -6724,7 +7416,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -6735,7 +7427,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -6746,7 +7438,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -6757,7 +7449,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -6768,17 +7460,17 @@
         <v>627</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -6789,7 +7481,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -6900,90 +7592,90 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>488</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>260.01844262294998</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="4" t="s">
+      <c r="A44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>17087</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="4" t="s">
+      <c r="A46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>521</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>571</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>488</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="4" t="s">
+      <c r="A49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>1</v>
       </c>
     </row>
@@ -7043,79 +7735,79 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="5" t="s">
+      <c r="A55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>512</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>293.072265625</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="A57" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="5" t="s">
+      <c r="A58" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>9831</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="5" t="s">
+      <c r="A59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="4">
         <v>684</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B60" s="5" t="s">
+      <c r="A60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <v>822</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B61" s="5" t="s">
+      <c r="A61" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <v>512</v>
       </c>
     </row>
@@ -7251,79 +7943,79 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A76" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B76" s="4" t="s">
+      <c r="A76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A77" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B77" s="4" t="s">
+      <c r="A77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>379.56521739130397</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A78" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B78" s="4" t="s">
+      <c r="A78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" s="4" t="s">
+      <c r="A79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <v>5559</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A80" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B80" s="4" t="s">
+      <c r="A80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="3">
         <v>620</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="A81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="3">
         <v>727</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A82" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B82" s="4" t="s">
+      <c r="A82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="3">
         <v>92</v>
       </c>
     </row>
@@ -7394,79 +8086,79 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A89" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B89" s="5" t="s">
+      <c r="A89" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="4">
         <v>908</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B90" s="5" t="s">
+      <c r="A90" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="4">
         <v>432.34691629955898</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A91" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B91" s="5" t="s">
+      <c r="A91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="4">
         <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A92" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B92" s="5" t="s">
+      <c r="A92" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="4">
         <v>20207</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A93" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B93" s="5" t="s">
+      <c r="A93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="4">
         <v>730</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A94" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" s="5" t="s">
+      <c r="A94" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="4">
         <v>816</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A95" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B95" s="5" t="s">
+      <c r="A95" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="4">
         <v>908</v>
       </c>
     </row>
@@ -7602,79 +8294,79 @@
       </c>
     </row>
     <row r="110" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A110" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B110" s="4" t="s">
+      <c r="A110" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A111" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B111" s="4" t="s">
+      <c r="A111" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="3">
         <v>185.81399999999999</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A112" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B112" s="4" t="s">
+      <c r="A112" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="3">
         <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A113" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B113" s="4" t="s">
+      <c r="A113" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="3">
         <v>6995</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A114" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B114" s="4" t="s">
+      <c r="A114" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="3">
         <v>444</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A115" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B115" s="4" t="s">
+      <c r="A115" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="3">
         <v>561</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A116" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B116" s="4" t="s">
+      <c r="A116" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="3">
         <v>1000</v>
       </c>
     </row>
@@ -7876,79 +8568,79 @@
       </c>
     </row>
     <row r="137" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A137" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B137" s="4" t="s">
+      <c r="A137" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="3">
         <v>540</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A138" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B138" s="4" t="s">
+      <c r="A138" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="3">
         <v>213.805555555555</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A139" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B139" s="4" t="s">
+      <c r="A139" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="3">
         <v>61</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A140" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B140" s="4" t="s">
+      <c r="A140" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="3">
         <v>9967</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A141" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B141" s="4" t="s">
+      <c r="A141" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="3">
         <v>390</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A142" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B142" s="4" t="s">
+      <c r="A142" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="3">
         <v>479</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A143" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B143" s="4" t="s">
+      <c r="A143" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="3">
         <v>540</v>
       </c>
     </row>
@@ -8019,79 +8711,79 @@
       </c>
     </row>
     <row r="150" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A150" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B150" s="5" t="s">
+      <c r="A150" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C150" s="4">
         <v>460</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A151" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B151" s="5" t="s">
+      <c r="A151" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C151" s="5">
+      <c r="C151" s="4">
         <v>284.28260869565202</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A152" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B152" s="5" t="s">
+      <c r="A152" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C152" s="5">
+      <c r="C152" s="4">
         <v>94</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A153" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B153" s="5" t="s">
+      <c r="A153" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C153" s="5">
+      <c r="C153" s="4">
         <v>21327</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A154" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B154" s="5" t="s">
+      <c r="A154" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C154" s="4">
         <v>520</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A155" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B155" s="5" t="s">
+      <c r="A155" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C155" s="5">
+      <c r="C155" s="4">
         <v>693</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A156" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B156" s="5" t="s">
+      <c r="A156" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C156" s="4">
         <v>460</v>
       </c>
     </row>
@@ -8227,79 +8919,79 @@
       </c>
     </row>
     <row r="171" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A171" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B171" s="4" t="s">
+      <c r="A171" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C171" s="4">
+      <c r="C171" s="3">
         <v>92</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A172" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B172" s="4" t="s">
+      <c r="A172" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C172" s="4">
+      <c r="C172" s="3">
         <v>365.56521739130397</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A173" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B173" s="4" t="s">
+      <c r="A173" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C173" s="4">
+      <c r="C173" s="3">
         <v>110</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A174" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B174" s="4" t="s">
+      <c r="A174" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C174" s="4">
+      <c r="C174" s="3">
         <v>4891</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A175" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B175" s="4" t="s">
+      <c r="A175" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C175" s="4">
+      <c r="C175" s="3">
         <v>627</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A176" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B176" s="4" t="s">
+      <c r="A176" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B176" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C176" s="4">
+      <c r="C176" s="3">
         <v>721</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A177" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B177" s="4" t="s">
+      <c r="A177" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C177" s="4">
+      <c r="C177" s="3">
         <v>92</v>
       </c>
     </row>
@@ -8370,79 +9062,79 @@
       </c>
     </row>
     <row r="184" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A184" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B184" s="5" t="s">
+      <c r="A184" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C184" s="5">
+      <c r="C184" s="4">
         <v>908</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A185" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B185" s="5" t="s">
+      <c r="A185" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C185" s="5">
+      <c r="C185" s="4">
         <v>402.30396475770902</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A186" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B186" s="5" t="s">
+      <c r="A186" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B186" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C186" s="5">
+      <c r="C186" s="4">
         <v>117</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A187" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B187" s="5" t="s">
+      <c r="A187" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B187" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C187" s="5">
+      <c r="C187" s="4">
         <v>25151</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A188" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B188" s="5" t="s">
+      <c r="A188" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C188" s="5">
+      <c r="C188" s="4">
         <v>685</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A189" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B189" s="5" t="s">
+      <c r="A189" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C189" s="5">
+      <c r="C189" s="4">
         <v>871</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A190" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B190" s="5" t="s">
+      <c r="A190" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C190" s="5">
+      <c r="C190" s="4">
         <v>908</v>
       </c>
     </row>
@@ -8578,79 +9270,79 @@
       </c>
     </row>
     <row r="205" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A205" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B205" s="4" t="s">
+      <c r="A205" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B205" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C205" s="4">
+      <c r="C205" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A206" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B206" s="4" t="s">
+      <c r="A206" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B206" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C206" s="4">
+      <c r="C206" s="3">
         <v>276.73500000000001</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A207" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B207" s="4" t="s">
+      <c r="A207" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C207" s="4">
+      <c r="C207" s="3">
         <v>71</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A208" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B208" s="4" t="s">
+      <c r="A208" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B208" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C208" s="4">
+      <c r="C208" s="3">
         <v>13271</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A209" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B209" s="4" t="s">
+      <c r="A209" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B209" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C209" s="4">
+      <c r="C209" s="3">
         <v>493</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A210" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B210" s="4" t="s">
+      <c r="A210" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B210" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C210" s="4">
+      <c r="C210" s="3">
         <v>570</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A211" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B211" s="4" t="s">
+      <c r="A211" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B211" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C211" s="4">
+      <c r="C211" s="3">
         <v>1000</v>
       </c>
     </row>
@@ -8852,79 +9544,79 @@
       </c>
     </row>
     <row r="232" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A232" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B232" s="4" t="s">
+      <c r="A232" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B232" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C232" s="4">
+      <c r="C232" s="3">
         <v>493</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A233" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B233" s="4" t="s">
+      <c r="A233" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B233" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C233" s="4">
+      <c r="C233" s="3">
         <v>274.86004056795099</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A234" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B234" s="4" t="s">
+      <c r="A234" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B234" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C234" s="4">
+      <c r="C234" s="3">
         <v>88</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A235" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B235" s="4" t="s">
+      <c r="A235" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B235" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C235" s="4">
+      <c r="C235" s="3">
         <v>27919</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A236" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B236" s="4" t="s">
+      <c r="A236" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B236" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C236" s="4">
+      <c r="C236" s="3">
         <v>497</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A237" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B237" s="4" t="s">
+      <c r="A237" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B237" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C237" s="4">
+      <c r="C237" s="3">
         <v>563</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A238" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B238" s="4" t="s">
+      <c r="A238" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B238" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C238" s="4">
+      <c r="C238" s="3">
         <v>493</v>
       </c>
     </row>
@@ -8995,79 +9687,79 @@
       </c>
     </row>
     <row r="245" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A245" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B245" s="5" t="s">
+      <c r="A245" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B245" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C245" s="5">
+      <c r="C245" s="4">
         <v>507</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A246" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B246" s="5" t="s">
+      <c r="A246" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B246" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C246" s="5">
+      <c r="C246" s="4">
         <v>294.16173570019703</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A247" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B247" s="5" t="s">
+      <c r="A247" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B247" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C247" s="5">
+      <c r="C247" s="4">
         <v>122</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A248" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B248" s="5" t="s">
+      <c r="A248" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B248" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C248" s="5">
+      <c r="C248" s="4">
         <v>7775</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A249" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B249" s="5" t="s">
+      <c r="A249" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B249" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C249" s="5">
+      <c r="C249" s="4">
         <v>659</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A250" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B250" s="5" t="s">
+      <c r="A250" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B250" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C250" s="5">
+      <c r="C250" s="4">
         <v>717</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A251" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B251" s="5" t="s">
+      <c r="A251" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B251" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C251" s="5">
+      <c r="C251" s="4">
         <v>507</v>
       </c>
     </row>
@@ -9203,79 +9895,79 @@
       </c>
     </row>
     <row r="266" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A266" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B266" s="4" t="s">
+      <c r="A266" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B266" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C266" s="4">
+      <c r="C266" s="3">
         <v>90</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A267" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B267" s="4" t="s">
+      <c r="A267" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B267" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C267" s="4">
+      <c r="C267" s="3">
         <v>274.75555555555502</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A268" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B268" s="4" t="s">
+      <c r="A268" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B268" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C268" s="4">
+      <c r="C268" s="3">
         <v>114</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A269" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B269" s="4" t="s">
+      <c r="A269" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B269" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C269" s="4">
+      <c r="C269" s="3">
         <v>4235</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A270" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B270" s="4" t="s">
+      <c r="A270" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B270" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C270" s="4">
+      <c r="C270" s="3">
         <v>549</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A271" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B271" s="4" t="s">
+      <c r="A271" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B271" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C271" s="4">
+      <c r="C271" s="3">
         <v>658</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A272" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B272" s="4" t="s">
+      <c r="A272" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B272" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C272" s="4">
+      <c r="C272" s="3">
         <v>90</v>
       </c>
     </row>
@@ -9346,86 +10038,101 @@
       </c>
     </row>
     <row r="279" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A279" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B279" s="5" t="s">
+      <c r="A279" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B279" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C279" s="5">
+      <c r="C279" s="4">
         <v>910</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A280" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B280" s="5" t="s">
+      <c r="A280" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B280" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C280" s="5">
+      <c r="C280" s="4">
         <v>328.51868131868099</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A281" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B281" s="5" t="s">
+      <c r="A281" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B281" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C281" s="5">
+      <c r="C281" s="4">
         <v>104</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A282" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B282" s="5" t="s">
+      <c r="A282" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B282" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C282" s="5">
+      <c r="C282" s="4">
         <v>15271</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A283" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B283" s="5" t="s">
+      <c r="A283" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B283" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C283" s="5">
+      <c r="C283" s="4">
         <v>692</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A284" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B284" s="5" t="s">
+      <c r="A284" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B284" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C284" s="5">
+      <c r="C284" s="4">
         <v>847</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A285" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B285" s="5" t="s">
+      <c r="A285" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B285" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C285" s="5">
+      <c r="C285" s="4">
         <v>910</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A30658-965C-484C-9C04-9200B800EB27}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LOG8430E_redis_results.xlsx
+++ b/LOG8430E_redis_results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thierry/Desktop/LOG8430E_TP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450985DF-5A72-5548-A406-BAAB7EE30009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B71A8A-9E05-EC48-8D73-0B2199D9F4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tps-25" sheetId="1" r:id="rId1"/>
     <sheet name="tps-500" sheetId="2" r:id="rId2"/>
     <sheet name="tps-1000" sheetId="3" r:id="rId3"/>
     <sheet name="results" sheetId="4" r:id="rId4"/>
+    <sheet name="cpuperformance" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="144">
   <si>
     <t>##################################################################################</t>
   </si>
@@ -211,17 +212,282 @@
   </si>
   <si>
     <t>Average Throughput (ops/sec)</t>
+  </si>
+  <si>
+    <t>0B / 0B</t>
+  </si>
+  <si>
+    <t>secondary2</t>
+  </si>
+  <si>
+    <t>05171fe267b1</t>
+  </si>
+  <si>
+    <t>secondary3</t>
+  </si>
+  <si>
+    <t>f9a1f9c4c25c</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>d7006a18086b</t>
+  </si>
+  <si>
+    <t>secondary1</t>
+  </si>
+  <si>
+    <t>62b9b8e9d2ef</t>
+  </si>
+  <si>
+    <t>16MB</t>
+  </si>
+  <si>
+    <t>193kB /</t>
+  </si>
+  <si>
+    <t>15.8MB / 44.8MB</t>
+  </si>
+  <si>
+    <t>6.121MiB / 15.55GiB</t>
+  </si>
+  <si>
+    <t>redis_redis-master_1</t>
+  </si>
+  <si>
+    <t>83aca997f9e0</t>
+  </si>
+  <si>
+    <t>16.2MB</t>
+  </si>
+  <si>
+    <t>12.7MB / 515kB</t>
+  </si>
+  <si>
+    <t>6.363MiB / 15.55GiB</t>
+  </si>
+  <si>
+    <t>redis_redis-replica_2</t>
+  </si>
+  <si>
+    <t>a0cabf92bf36</t>
+  </si>
+  <si>
+    <t>12.7MB / 505kB</t>
+  </si>
+  <si>
+    <t>6.355MiB / 15.55GiB</t>
+  </si>
+  <si>
+    <t>redis_redis-replica_1</t>
+  </si>
+  <si>
+    <t>91da5ba107bd</t>
+  </si>
+  <si>
+    <t>12.7MB / 529kB</t>
+  </si>
+  <si>
+    <t>6.359MiB / 15.55GiB</t>
+  </si>
+  <si>
+    <t>redis_redis-replica_3</t>
+  </si>
+  <si>
+    <t>a764c0ca7263</t>
+  </si>
+  <si>
+    <t>PIDS</t>
+  </si>
+  <si>
+    <t>/O</t>
+  </si>
+  <si>
+    <t>BLOCK I</t>
+  </si>
+  <si>
+    <t>NET I/O</t>
+  </si>
+  <si>
+    <t>MEM %</t>
+  </si>
+  <si>
+    <t>MEM USAGE / LIMIT</t>
+  </si>
+  <si>
+    <t>CPU %</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>CONTAINER ID</t>
+  </si>
+  <si>
+    <t>15MB</t>
+  </si>
+  <si>
+    <t>6.148MiB / 15.55GiB</t>
+  </si>
+  <si>
+    <t>15.2MB</t>
+  </si>
+  <si>
+    <t>6.391MiB / 15.55GiB</t>
+  </si>
+  <si>
+    <t>15.3MB</t>
+  </si>
+  <si>
+    <t>12.7MB / 504kB</t>
+  </si>
+  <si>
+    <t>6.383MiB / 15.55GiB</t>
+  </si>
+  <si>
+    <t>184kB /</t>
+  </si>
+  <si>
+    <t>11.5MB / 498kB</t>
+  </si>
+  <si>
+    <t>14.7MB</t>
+  </si>
+  <si>
+    <t>180kB /</t>
+  </si>
+  <si>
+    <t>14.2MB / 40.7MB</t>
+  </si>
+  <si>
+    <t>11.3MB / 479kB</t>
+  </si>
+  <si>
+    <t>6.055MiB / 15.55GiB</t>
+  </si>
+  <si>
+    <t>11.3MB / 469kB</t>
+  </si>
+  <si>
+    <t>6.035MiB / 15.55GiB</t>
+  </si>
+  <si>
+    <t>11.3MB / 492kB</t>
+  </si>
+  <si>
+    <t>6.062MiB / 15.55GiB</t>
+  </si>
+  <si>
+    <t>11.3MB / 468kB</t>
+  </si>
+  <si>
+    <t>14.6MB</t>
+  </si>
+  <si>
+    <t>14.1MB / 39.4MB</t>
+  </si>
+  <si>
+    <t>6.125MiB / 15.55GiB</t>
+  </si>
+  <si>
+    <t>11.3MB / 478kB</t>
+  </si>
+  <si>
+    <t>6.492MiB / 15.55GiB</t>
+  </si>
+  <si>
+    <t>6.48MiB / 15.55GiB</t>
+  </si>
+  <si>
+    <t>11.3MB / 491kB</t>
+  </si>
+  <si>
+    <t>6.414MiB / 15.55GiB</t>
+  </si>
+  <si>
+    <t>13.5MB</t>
+  </si>
+  <si>
+    <t>168kB /</t>
+  </si>
+  <si>
+    <t>12.6MB / 35.3MB</t>
+  </si>
+  <si>
+    <t>5.922MiB / 15.55GiB</t>
+  </si>
+  <si>
+    <t>13.7MB</t>
+  </si>
+  <si>
+    <t>10MB / 445kB</t>
+  </si>
+  <si>
+    <t>6.109MiB / 15.55GiB</t>
+  </si>
+  <si>
+    <t>10MB / 434kB</t>
+  </si>
+  <si>
+    <t>6.082MiB / 15.55GiB</t>
+  </si>
+  <si>
+    <t>10MB / 457kB</t>
+  </si>
+  <si>
+    <t>6.18MiB / 15.55GiB</t>
+  </si>
+  <si>
+    <t>10MB / 433kB</t>
+  </si>
+  <si>
+    <t>13.3MB</t>
+  </si>
+  <si>
+    <t>156kB /</t>
+  </si>
+  <si>
+    <t>12.2MB / 34.5MB</t>
+  </si>
+  <si>
+    <t>5.883MiB / 15.55GiB</t>
+  </si>
+  <si>
+    <t>9.82MB / 415kB</t>
+  </si>
+  <si>
+    <t>6.43MiB / 15.55GiB</t>
+  </si>
+  <si>
+    <t>9.82MB / 403kB</t>
+  </si>
+  <si>
+    <t>6.434MiB / 15.55GiB</t>
+  </si>
+  <si>
+    <t>9.82MB / 426kB</t>
+  </si>
+  <si>
+    <t>6.348MiB / 15.55GiB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,40 +646,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -423,9 +690,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{971BCF6A-2436-824B-9B86-7D5280B2B884}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10127,7 +10397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A30658-965C-484C-9C04-9200B800EB27}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -10135,4 +10405,2014 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B8D10F-DE65-A345-A543-886720C7F693}">
+  <dimension ref="A1:I72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="30">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="30">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="30">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="30">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="30">
+        <v>0</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="30">
+        <v>0</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="30">
+        <v>0</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="30">
+        <v>0</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="30">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="30">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="30">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="30">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="30">
+        <v>0</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="30">
+        <v>0</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="30">
+        <v>0</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="30">
+        <v>0</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="30">
+        <v>0</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="30">
+        <v>0</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="30">
+        <v>0</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="30">
+        <v>0</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="30">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="30">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="30">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="30">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="30">
+        <v>0</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="30">
+        <v>0</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="30">
+        <v>0</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="30">
+        <v>0</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="30">
+        <v>0</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="30">
+        <v>0</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="30">
+        <v>0</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="30">
+        <v>0</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="30">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="30">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="30">
+        <v>2E-3</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="30">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="30">
+        <v>0</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="30">
+        <v>0</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="30">
+        <v>0</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="30">
+        <v>0</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="30">
+        <v>0</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="30">
+        <v>0</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="30">
+        <v>0</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="30">
+        <v>0</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="30">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I38" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="30">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="30">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="30">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="30">
+        <v>0</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="30">
+        <v>0</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I42" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="30">
+        <v>0</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="30">
+        <v>0</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="30">
+        <v>0</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="30">
+        <v>0</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I44" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="30">
+        <v>0</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="30">
+        <v>0</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="30">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I47" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="30">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I48" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="30">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I49" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="30">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="I50" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="30">
+        <v>0</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="30">
+        <v>0</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I51" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="30">
+        <v>0</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="30">
+        <v>0</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I52" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="30">
+        <v>0</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="30">
+        <v>0</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I53" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="30">
+        <v>0</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="30">
+        <v>0</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I54" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H55" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I55" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="30">
+        <v>6.6E-3</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H56" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I56" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="30">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I57" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="30">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I58" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="30">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I59" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="30">
+        <v>0</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="30">
+        <v>0</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I60" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="30">
+        <v>0</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" s="30">
+        <v>0</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I61" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="30">
+        <v>0</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" s="30">
+        <v>0</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I62" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="30">
+        <v>0</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="30">
+        <v>0</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G63" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I63" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I64" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="30">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G65" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H65" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I65" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="30">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G66" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I66" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="30">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I67" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="30">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E68" s="30">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G68" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I68" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="30">
+        <v>0</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" s="30">
+        <v>0</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G69" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I69" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="30">
+        <v>0</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="30">
+        <v>0</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G70" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I70" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="30">
+        <v>0</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" s="30">
+        <v>0</v>
+      </c>
+      <c r="F71" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G71" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I71" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="30">
+        <v>0</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E72" s="30">
+        <v>0</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G72" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I72" s="29">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/LOG8430E_redis_results.xlsx
+++ b/LOG8430E_redis_results.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thierry/Desktop/LOG8430E_TP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B71A8A-9E05-EC48-8D73-0B2199D9F4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34013D9A-8264-6242-9EF6-3B3ACBC35134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tps-25" sheetId="1" r:id="rId1"/>
     <sheet name="tps-500" sheetId="2" r:id="rId2"/>
     <sheet name="tps-1000" sheetId="3" r:id="rId3"/>
-    <sheet name="results" sheetId="4" r:id="rId4"/>
-    <sheet name="cpuperformance" sheetId="6" r:id="rId5"/>
+    <sheet name="cpu-mem-1000" sheetId="6" r:id="rId4"/>
+    <sheet name="results" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="155">
   <si>
     <t>##################################################################################</t>
   </si>
@@ -470,6 +470,42 @@
   </si>
   <si>
     <t>6.348MiB / 15.55GiB</t>
+  </si>
+  <si>
+    <t>replicat 1</t>
+  </si>
+  <si>
+    <t>replicat 2</t>
+  </si>
+  <si>
+    <t>replicat 3</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>Memory (GiB)</t>
+  </si>
+  <si>
+    <t>Memory usage
+(MiB)</t>
+  </si>
+  <si>
+    <t>Traffic Out (MB)</t>
+  </si>
+  <si>
+    <t>Traffic In (MB)</t>
+  </si>
+  <si>
+    <t>Traffic in
+(MB)</t>
+  </si>
+  <si>
+    <t>Memory usage
+(MB)</t>
+  </si>
+  <si>
+    <t>Memory (GB)</t>
   </si>
 </sst>
 </file>
@@ -505,7 +541,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,8 +566,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -645,12 +687,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -692,6 +797,65 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10394,6 +10558,2834 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B8D10F-DE65-A345-A543-886720C7F693}">
+  <dimension ref="A1:S72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="29"/>
+    <col min="12" max="12" width="12.83203125" style="29" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" style="29" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="31">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="31">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="29">
+        <v>7</v>
+      </c>
+      <c r="L3" s="44"/>
+      <c r="M3" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="O3" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="P3" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q3" s="47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="31">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="29">
+        <v>7</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="M4" s="40">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="N4" s="41">
+        <v>9.82</v>
+      </c>
+      <c r="O4" s="41">
+        <f>S4/1024</f>
+        <v>0.416015625</v>
+      </c>
+      <c r="P4" s="41">
+        <v>6.3479999999999999</v>
+      </c>
+      <c r="Q4" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S4" s="29">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="31">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="29">
+        <v>6</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="M5" s="40">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="N5" s="41">
+        <v>9.82</v>
+      </c>
+      <c r="O5" s="41">
+        <f t="shared" ref="O5:O8" si="0">S5/1024</f>
+        <v>0.3935546875</v>
+      </c>
+      <c r="P5" s="41">
+        <v>6.4340000000000002</v>
+      </c>
+      <c r="Q5" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S5" s="29">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="30">
+        <v>0</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="29">
+        <v>0</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="M6" s="40">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="N6" s="41">
+        <v>9.82</v>
+      </c>
+      <c r="O6" s="41">
+        <f t="shared" si="0"/>
+        <v>0.4052734375</v>
+      </c>
+      <c r="P6" s="41">
+        <v>6.43</v>
+      </c>
+      <c r="Q6" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S6" s="29">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="30">
+        <v>0</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="29">
+        <v>0</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="M7" s="40">
+        <v>1.5E-3</v>
+      </c>
+      <c r="N7" s="41">
+        <v>12.2</v>
+      </c>
+      <c r="O7" s="41">
+        <v>32.5</v>
+      </c>
+      <c r="P7" s="41">
+        <v>5.883</v>
+      </c>
+      <c r="Q7" s="34">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="30">
+        <v>0</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="M8" s="40">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="N8" s="41">
+        <v>10</v>
+      </c>
+      <c r="O8" s="41">
+        <f>S8/1024</f>
+        <v>0.4462890625</v>
+      </c>
+      <c r="P8" s="41">
+        <v>6.18</v>
+      </c>
+      <c r="Q8" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S8" s="29">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="30">
+        <v>0</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="M9" s="40">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="N9" s="41">
+        <v>10</v>
+      </c>
+      <c r="O9" s="41">
+        <f t="shared" ref="O9:O10" si="1">S9/1024</f>
+        <v>0.4228515625</v>
+      </c>
+      <c r="P9" s="41">
+        <v>6.0819999999999999</v>
+      </c>
+      <c r="Q9" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S9" s="29">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="M10" s="40">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="N10" s="41">
+        <v>10</v>
+      </c>
+      <c r="O10" s="41">
+        <f t="shared" si="1"/>
+        <v>0.4345703125</v>
+      </c>
+      <c r="P10" s="41">
+        <v>6.109</v>
+      </c>
+      <c r="Q10" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S10" s="29">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="31">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="29">
+        <v>7</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="M11" s="40">
+        <v>1.5E-3</v>
+      </c>
+      <c r="N11" s="41">
+        <v>12.6</v>
+      </c>
+      <c r="O11" s="41">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="P11" s="41">
+        <v>5.9219999999999997</v>
+      </c>
+      <c r="Q11" s="34">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="31">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="29">
+        <v>7</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="M12" s="40">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="N12" s="41">
+        <v>10</v>
+      </c>
+      <c r="O12" s="41">
+        <f>S12/1024</f>
+        <v>0.4462890625</v>
+      </c>
+      <c r="P12" s="41">
+        <v>6.18</v>
+      </c>
+      <c r="Q12" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S12" s="29">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="31">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="29">
+        <v>7</v>
+      </c>
+      <c r="L13" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" s="40">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="N13" s="41">
+        <v>10</v>
+      </c>
+      <c r="O13" s="41">
+        <f t="shared" ref="O13:O14" si="2">S13/1024</f>
+        <v>0.423828125</v>
+      </c>
+      <c r="P13" s="41">
+        <v>6.0819999999999999</v>
+      </c>
+      <c r="Q13" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S13" s="29">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="31">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="29">
+        <v>6</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" s="40">
+        <v>1.5E-3</v>
+      </c>
+      <c r="N14" s="41">
+        <v>10</v>
+      </c>
+      <c r="O14" s="41">
+        <f t="shared" si="2"/>
+        <v>0.4345703125</v>
+      </c>
+      <c r="P14" s="41">
+        <v>6.109</v>
+      </c>
+      <c r="Q14" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S14" s="29">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="30">
+        <v>0</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="30">
+        <v>0</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="29">
+        <v>0</v>
+      </c>
+      <c r="L15" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" s="40">
+        <v>1.5E-3</v>
+      </c>
+      <c r="N15" s="41">
+        <v>12.6</v>
+      </c>
+      <c r="O15" s="41">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="P15" s="41">
+        <v>5.9219999999999997</v>
+      </c>
+      <c r="Q15" s="34">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="30">
+        <v>0</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="30">
+        <v>0</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0</v>
+      </c>
+      <c r="L16" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" s="40">
+        <v>1.9E-3</v>
+      </c>
+      <c r="N16" s="41">
+        <v>11.3</v>
+      </c>
+      <c r="O16" s="41">
+        <f>S16/1024</f>
+        <v>0.4794921875</v>
+      </c>
+      <c r="P16" s="41">
+        <v>6.4139999999999997</v>
+      </c>
+      <c r="Q16" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S16" s="29">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="30">
+        <v>0</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="30">
+        <v>0</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="29">
+        <v>0</v>
+      </c>
+      <c r="L17" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" s="40">
+        <v>1.9E-3</v>
+      </c>
+      <c r="N17" s="41">
+        <v>11.3</v>
+      </c>
+      <c r="O17" s="41">
+        <f t="shared" ref="O17:O18" si="3">S17/1024</f>
+        <v>0.45703125</v>
+      </c>
+      <c r="P17" s="41">
+        <v>6.48</v>
+      </c>
+      <c r="Q17" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S17" s="29">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="30">
+        <v>0</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="30">
+        <v>0</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="29">
+        <v>0</v>
+      </c>
+      <c r="L18" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" s="40">
+        <v>2E-3</v>
+      </c>
+      <c r="N18" s="41">
+        <v>11.3</v>
+      </c>
+      <c r="O18" s="41">
+        <f t="shared" si="3"/>
+        <v>0.466796875</v>
+      </c>
+      <c r="P18" s="41">
+        <v>6.492</v>
+      </c>
+      <c r="Q18" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S18" s="29">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="M19" s="40">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="N19" s="41">
+        <v>14.1</v>
+      </c>
+      <c r="O19" s="41">
+        <v>39.4</v>
+      </c>
+      <c r="P19" s="41">
+        <v>6.125</v>
+      </c>
+      <c r="Q19" s="34">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="31">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="29">
+        <v>7</v>
+      </c>
+      <c r="L20" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="M20" s="40">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N20" s="41">
+        <v>11.3</v>
+      </c>
+      <c r="O20" s="41">
+        <f>S20/1024</f>
+        <v>0.48046875</v>
+      </c>
+      <c r="P20" s="41">
+        <v>6.0620000000000003</v>
+      </c>
+      <c r="Q20" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S20" s="29">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="31">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="29">
+        <v>7</v>
+      </c>
+      <c r="L21" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="M21" s="40">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N21" s="41">
+        <v>11.3</v>
+      </c>
+      <c r="O21" s="41">
+        <f t="shared" ref="O21:O22" si="4">S21/1024</f>
+        <v>0.45703125</v>
+      </c>
+      <c r="P21" s="41">
+        <v>6.0350000000000001</v>
+      </c>
+      <c r="Q21" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S21" s="29">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="31">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" s="29">
+        <v>7</v>
+      </c>
+      <c r="L22" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="M22" s="40">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="N22" s="41">
+        <v>11.3</v>
+      </c>
+      <c r="O22" s="41">
+        <f t="shared" si="4"/>
+        <v>0.4677734375</v>
+      </c>
+      <c r="P22" s="41">
+        <v>6.0549999999999997</v>
+      </c>
+      <c r="Q22" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S22" s="29">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="31">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" s="29">
+        <v>6</v>
+      </c>
+      <c r="L23" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="M23" s="40">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="N23" s="41">
+        <v>14.2</v>
+      </c>
+      <c r="O23" s="41">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="P23" s="41">
+        <v>6.1210000000000004</v>
+      </c>
+      <c r="Q23" s="34">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="30">
+        <v>0</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="30">
+        <v>0</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="29">
+        <v>0</v>
+      </c>
+      <c r="L24" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="M24" s="40">
+        <v>1.5E-3</v>
+      </c>
+      <c r="N24" s="41">
+        <v>11.3</v>
+      </c>
+      <c r="O24" s="41">
+        <f>S24/1024</f>
+        <v>0.48046875</v>
+      </c>
+      <c r="P24" s="41">
+        <v>6.0620000000000003</v>
+      </c>
+      <c r="Q24" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S24" s="29">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="30">
+        <v>0</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="30">
+        <v>0</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="29">
+        <v>0</v>
+      </c>
+      <c r="L25" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="M25" s="40">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="N25" s="41">
+        <v>11.3</v>
+      </c>
+      <c r="O25" s="41">
+        <f t="shared" ref="O25:O26" si="5">S25/1024</f>
+        <v>0.4580078125</v>
+      </c>
+      <c r="P25" s="41">
+        <v>6.0350000000000001</v>
+      </c>
+      <c r="Q25" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S25" s="29">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="30">
+        <v>0</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="30">
+        <v>0</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="29">
+        <v>0</v>
+      </c>
+      <c r="L26" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="M26" s="40">
+        <v>1.8E-3</v>
+      </c>
+      <c r="N26" s="41">
+        <v>11.3</v>
+      </c>
+      <c r="O26" s="41">
+        <f t="shared" si="5"/>
+        <v>0.4677734375</v>
+      </c>
+      <c r="P26" s="41">
+        <v>6.0549999999999997</v>
+      </c>
+      <c r="Q26" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S26" s="29">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="30">
+        <v>0</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="30">
+        <v>0</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="29">
+        <v>0</v>
+      </c>
+      <c r="L27" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="M27" s="40">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="N27" s="41">
+        <v>14.2</v>
+      </c>
+      <c r="O27" s="41">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="P27" s="41">
+        <v>6.1210000000000004</v>
+      </c>
+      <c r="Q27" s="34">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="L28" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="M28" s="40">
+        <v>6.6E-3</v>
+      </c>
+      <c r="N28" s="41">
+        <v>12.7</v>
+      </c>
+      <c r="O28" s="41">
+        <f>S28/1024</f>
+        <v>0.486328125</v>
+      </c>
+      <c r="P28" s="41">
+        <v>6.359</v>
+      </c>
+      <c r="Q28" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S28" s="29">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="31">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" s="29">
+        <v>7</v>
+      </c>
+      <c r="L29" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="M29" s="40">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="N29" s="41">
+        <v>12.7</v>
+      </c>
+      <c r="O29" s="41">
+        <f t="shared" ref="O29:O30" si="6">S29/1024</f>
+        <v>0.4921875</v>
+      </c>
+      <c r="P29" s="41">
+        <v>6.383</v>
+      </c>
+      <c r="Q29" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S29" s="29">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="31">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="29">
+        <v>7</v>
+      </c>
+      <c r="L30" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="M30" s="40">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="N30" s="41">
+        <v>12.7</v>
+      </c>
+      <c r="O30" s="41">
+        <f t="shared" si="6"/>
+        <v>0.5029296875</v>
+      </c>
+      <c r="P30" s="41">
+        <v>6.391</v>
+      </c>
+      <c r="Q30" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S30" s="29">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="31">
+        <v>2E-3</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" s="29">
+        <v>7</v>
+      </c>
+      <c r="L31" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="M31" s="40">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="N31" s="41">
+        <v>15.58</v>
+      </c>
+      <c r="O31" s="41">
+        <v>44.8</v>
+      </c>
+      <c r="P31" s="41">
+        <v>6.1479999999999997</v>
+      </c>
+      <c r="Q31" s="34">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="31">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="29">
+        <v>6</v>
+      </c>
+      <c r="L32" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="M32" s="40">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="N32" s="41">
+        <v>12.7</v>
+      </c>
+      <c r="O32" s="41">
+        <f>S32/1024</f>
+        <v>0.5166015625</v>
+      </c>
+      <c r="P32" s="41">
+        <v>6.359</v>
+      </c>
+      <c r="Q32" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S32" s="29">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="30">
+        <v>0</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="30">
+        <v>0</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="29">
+        <v>0</v>
+      </c>
+      <c r="L33" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="M33" s="40">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="N33" s="41">
+        <v>12.7</v>
+      </c>
+      <c r="O33" s="41">
+        <f t="shared" ref="O33:O34" si="7">S33/1024</f>
+        <v>0.4931640625</v>
+      </c>
+      <c r="P33" s="41">
+        <v>6.3550000000000004</v>
+      </c>
+      <c r="Q33" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S33" s="29">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="30">
+        <v>0</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="30">
+        <v>0</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="29">
+        <v>0</v>
+      </c>
+      <c r="L34" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="M34" s="40">
+        <v>1.5E-3</v>
+      </c>
+      <c r="N34" s="41">
+        <v>12.7</v>
+      </c>
+      <c r="O34" s="41">
+        <f t="shared" si="7"/>
+        <v>0.5029296875</v>
+      </c>
+      <c r="P34" s="41">
+        <v>6.3630000000000004</v>
+      </c>
+      <c r="Q34" s="34">
+        <v>15.55</v>
+      </c>
+      <c r="S34" s="29">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="30">
+        <v>0</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="30">
+        <v>0</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="29">
+        <v>0</v>
+      </c>
+      <c r="L35" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="M35" s="42">
+        <v>1.5E-3</v>
+      </c>
+      <c r="N35" s="43">
+        <v>15.8</v>
+      </c>
+      <c r="O35" s="43">
+        <v>15.8</v>
+      </c>
+      <c r="P35" s="43">
+        <v>6.1210000000000004</v>
+      </c>
+      <c r="Q35" s="35">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="30">
+        <v>0</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="30">
+        <v>0</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="29">
+        <v>0</v>
+      </c>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+    </row>
+    <row r="37" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="L37" s="44"/>
+      <c r="M37" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="N37" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="O37" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="P37" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q37" s="47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="31">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I38" s="29">
+        <v>7</v>
+      </c>
+      <c r="L38" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="M38" s="36">
+        <f>AVERAGE(M6,M10,M14,M18,M22,M26,M30,M34)</f>
+        <v>9.0124999999999997E-3</v>
+      </c>
+      <c r="N38" s="37">
+        <f>AVERAGE(N6,N10,N14,N18,N22,N26,N30,N34)</f>
+        <v>11.14</v>
+      </c>
+      <c r="O38" s="37">
+        <f>AVERAGE(O6,O10,O14,O18,O22,O26,O30,O34)</f>
+        <v>0.4603271484375</v>
+      </c>
+      <c r="P38" s="37">
+        <f>AVERAGE(P6,P10,P14,P18,P22,P26,P30,P34) * 1.048576</f>
+        <v>6.5541242879999997</v>
+      </c>
+      <c r="Q38" s="34">
+        <f xml:space="preserve"> 15.55 * 1.073741824</f>
+        <v>16.6966853632</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="31">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" s="29">
+        <v>7</v>
+      </c>
+      <c r="L39" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="M39" s="36">
+        <f>AVERAGE(M5,M9,M13,M17,M21,M25,M29,M33)</f>
+        <v>9.4375000000000014E-3</v>
+      </c>
+      <c r="N39" s="37">
+        <f>AVERAGE(N5,N9,N13,N17,N21,N25,N29,N33)</f>
+        <v>11.14</v>
+      </c>
+      <c r="O39" s="37">
+        <f>AVERAGE(O5,O9,O13,O17,O21,O25,O29,O33)</f>
+        <v>0.44970703125</v>
+      </c>
+      <c r="P39" s="37">
+        <f>AVERAGE(P5,P9,P13,P17,P21,P25,P29,P33) * 1.048576</f>
+        <v>6.5386577919999995</v>
+      </c>
+      <c r="Q39" s="34">
+        <f xml:space="preserve"> 15.55 * 1.073741824</f>
+        <v>16.6966853632</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="31">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" s="29">
+        <v>7</v>
+      </c>
+      <c r="L40" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="M40" s="36">
+        <f>AVERAGE(M4,M8,M12,M16,M20,M24,M28,M32)</f>
+        <v>2.2875E-3</v>
+      </c>
+      <c r="N40" s="37">
+        <f>AVERAGE(N4,N8,N12,N16,N20,N24,N28,N32)</f>
+        <v>11.14</v>
+      </c>
+      <c r="O40" s="37">
+        <f>AVERAGE(O4,O8,O12,O16,O20,O24,O28,O32)</f>
+        <v>0.468994140625</v>
+      </c>
+      <c r="P40" s="37">
+        <f>AVERAGE(P4,P8,P12,P16,P20,P24,P28,P32) * 1.048576</f>
+        <v>6.5488814080000006</v>
+      </c>
+      <c r="Q40" s="34">
+        <f xml:space="preserve"> 15.55 * 1.073741824</f>
+        <v>16.6966853632</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="31">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41" s="29">
+        <v>6</v>
+      </c>
+      <c r="L41" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="M41" s="38">
+        <f>AVERAGE(M7,M11,M15,M19,M23,M27,M31,M35)</f>
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="N41" s="39">
+        <f>AVERAGE(N7,N11,N15,N19,N23,N27,N31,N35)</f>
+        <v>13.91</v>
+      </c>
+      <c r="O41" s="39">
+        <f>AVERAGE(O7,O11,O15,O19,O23,O27,O31,O35)</f>
+        <v>35.5625</v>
+      </c>
+      <c r="P41" s="39">
+        <f>AVERAGE(P7,P11,P15,P19,P23,P27,P31,P35) * 1.048576</f>
+        <v>6.3390351360000006</v>
+      </c>
+      <c r="Q41" s="35">
+        <f xml:space="preserve"> 15.55 * 1.073741824</f>
+        <v>16.6966853632</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="30">
+        <v>0</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="30">
+        <v>0</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I42" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="30">
+        <v>0</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="30">
+        <v>0</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="30">
+        <v>0</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="30">
+        <v>0</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I44" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="30">
+        <v>0</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="30">
+        <v>0</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="31">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I47" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="31">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I48" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="31">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I49" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="31">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="I50" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="30">
+        <v>0</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="30">
+        <v>0</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I51" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="30">
+        <v>0</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="30">
+        <v>0</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I52" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="30">
+        <v>0</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="30">
+        <v>0</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I53" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="30">
+        <v>0</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="30">
+        <v>0</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I54" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H55" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I55" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="31">
+        <v>6.6E-3</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H56" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I56" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="31">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I57" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="31">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I58" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="31">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I59" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="30">
+        <v>0</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="30">
+        <v>0</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I60" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="30">
+        <v>0</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" s="30">
+        <v>0</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I61" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="30">
+        <v>0</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" s="30">
+        <v>0</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I62" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="30">
+        <v>0</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="30">
+        <v>0</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G63" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I63" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I64" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="31">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F65" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G65" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H65" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I65" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="31">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F66" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G66" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I66" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="31">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F67" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I67" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="31">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E68" s="31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F68" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G68" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I68" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="30">
+        <v>0</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" s="30">
+        <v>0</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G69" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I69" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="30">
+        <v>0</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="30">
+        <v>0</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G70" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I70" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="30">
+        <v>0</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" s="30">
+        <v>0</v>
+      </c>
+      <c r="F71" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G71" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I71" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="30">
+        <v>0</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E72" s="30">
+        <v>0</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G72" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I72" s="29">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A30658-965C-484C-9C04-9200B800EB27}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10405,2014 +13397,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B8D10F-DE65-A345-A543-886720C7F693}">
-  <dimension ref="A1:I72"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="30">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="30">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="30">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="I4" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="30">
-        <v>1.5E-3</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="I5" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="30">
-        <v>0</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="30">
-        <v>0</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="30">
-        <v>0</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="30">
-        <v>0</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="30">
-        <v>0</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="30">
-        <v>0</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="30">
-        <v>0</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="30">
-        <v>0</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="30">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="I11" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="30">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="I12" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="30">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="I13" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="30">
-        <v>1.5E-3</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="I14" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="30">
-        <v>0</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="30">
-        <v>0</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="30">
-        <v>0</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="30">
-        <v>0</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="30">
-        <v>0</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="30">
-        <v>0</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="30">
-        <v>0</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="30">
-        <v>0</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="30">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="I20" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="30">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="I21" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="30">
-        <v>1.5E-3</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="I22" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="30">
-        <v>1.5E-3</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="I23" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="30">
-        <v>0</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="30">
-        <v>0</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="30">
-        <v>0</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="30">
-        <v>0</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I25" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="30">
-        <v>0</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="30">
-        <v>0</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="30">
-        <v>0</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="30">
-        <v>0</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I27" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="30">
-        <v>1.9E-3</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="I29" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="30">
-        <v>1.9E-3</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="I30" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="30">
-        <v>2E-3</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="I31" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="30">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="G32" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="I32" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="30">
-        <v>0</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="30">
-        <v>0</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I33" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="30">
-        <v>0</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="30">
-        <v>0</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I34" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="30">
-        <v>0</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="30">
-        <v>0</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I35" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="30">
-        <v>0</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="30">
-        <v>0</v>
-      </c>
-      <c r="F36" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I36" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="G37" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="I37" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="30">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="I38" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="30">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="I39" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="30">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="I40" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="30">
-        <v>7.7100000000000002E-2</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="I41" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="30">
-        <v>0</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="30">
-        <v>0</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I42" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="30">
-        <v>0</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="30">
-        <v>0</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I43" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="30">
-        <v>0</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="30">
-        <v>0</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G44" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I44" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="30">
-        <v>0</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="30">
-        <v>0</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I45" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="G46" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="I46" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="30">
-        <v>1.5E-3</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="E47" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="G47" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="I47" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="30">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G48" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="I48" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="30">
-        <v>1.8E-3</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E49" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F49" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="G49" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="I49" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="30">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="G50" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="H50" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="I50" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="30">
-        <v>0</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="30">
-        <v>0</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G51" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I51" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="30">
-        <v>0</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="30">
-        <v>0</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G52" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I52" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="30">
-        <v>0</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" s="30">
-        <v>0</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G53" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I53" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="30">
-        <v>0</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="30">
-        <v>0</v>
-      </c>
-      <c r="F54" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G54" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I54" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F55" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="G55" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="H55" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="I55" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="30">
-        <v>6.6E-3</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G56" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H56" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="I56" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="30">
-        <v>6.3200000000000006E-2</v>
-      </c>
-      <c r="D57" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E57" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="G57" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H57" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="I57" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="30">
-        <v>6.0400000000000002E-2</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E58" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="G58" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H58" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="I58" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="30">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="D59" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F59" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="G59" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H59" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="I59" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="30">
-        <v>0</v>
-      </c>
-      <c r="D60" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E60" s="30">
-        <v>0</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G60" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I60" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" s="30">
-        <v>0</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E61" s="30">
-        <v>0</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G61" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I61" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="30">
-        <v>0</v>
-      </c>
-      <c r="D62" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" s="30">
-        <v>0</v>
-      </c>
-      <c r="F62" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G62" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I62" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" s="30">
-        <v>0</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E63" s="30">
-        <v>0</v>
-      </c>
-      <c r="F63" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G63" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I63" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F64" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="G64" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="H64" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="I64" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B65" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="30">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="D65" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E65" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F65" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G65" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H65" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="I65" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B66" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" s="30">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E66" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F66" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H66" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="I66" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="30">
-        <v>1.5E-3</v>
-      </c>
-      <c r="D67" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E67" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F67" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="G67" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H67" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="I67" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C68" s="30">
-        <v>1.5E-3</v>
-      </c>
-      <c r="D68" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E68" s="30">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F68" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="G68" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H68" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I68" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="30">
-        <v>0</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E69" s="30">
-        <v>0</v>
-      </c>
-      <c r="F69" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G69" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I69" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C70" s="30">
-        <v>0</v>
-      </c>
-      <c r="D70" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E70" s="30">
-        <v>0</v>
-      </c>
-      <c r="F70" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G70" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I70" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B71" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" s="30">
-        <v>0</v>
-      </c>
-      <c r="D71" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E71" s="30">
-        <v>0</v>
-      </c>
-      <c r="F71" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G71" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I71" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B72" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C72" s="30">
-        <v>0</v>
-      </c>
-      <c r="D72" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E72" s="30">
-        <v>0</v>
-      </c>
-      <c r="F72" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G72" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I72" s="29">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/LOG8430E_redis_results.xlsx
+++ b/LOG8430E_redis_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thierry/Desktop/LOG8430E_TP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34013D9A-8264-6242-9EF6-3B3ACBC35134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF34676-4752-9B47-9229-ACFC82C4D1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:N285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4245,9 +4245,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7399,7 +7402,7 @@
   <dimension ref="A1:O285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:N19"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10562,7 +10565,7 @@
   <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/LOG8430E_redis_results.xlsx
+++ b/LOG8430E_redis_results.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thierry/Desktop/LOG8430E_TP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF34676-4752-9B47-9229-ACFC82C4D1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C44CC78-C285-9940-A4B5-E9083E39129D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tps-25" sheetId="1" r:id="rId1"/>
     <sheet name="tps-500" sheetId="2" r:id="rId2"/>
     <sheet name="tps-1000" sheetId="3" r:id="rId3"/>
     <sheet name="cpu-mem-1000" sheetId="6" r:id="rId4"/>
-    <sheet name="results" sheetId="4" r:id="rId5"/>
+    <sheet name="results" sheetId="7" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'tps-25'!$K$24</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'tps-25'!$L$15:$L$17</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'tps-25'!$M$15:$M$17</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'tps-25'!$M$16:$M$17</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'tps-25'!$K$24</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'tps-25'!$K$24</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'tps-25'!$L$15:$L$17</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'tps-25'!$M$15:$M$17</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'tps-25'!$M$16:$M$17</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -755,7 +766,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -856,6 +867,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,6 +886,1052 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Latencies of Redis Obtained With YCSB With a Throughput of 25 (ops/s)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tps-25'!$L$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>READ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tps-25'!$K$15:$K$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Workload 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Workload 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Workload 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tps-25'!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>515.10566666666671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>666.00411489645933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>670.74682096041306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E88-A34E-8E0A-96986A3DC8D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tps-25'!$M$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WRITES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tps-25'!$K$15:$K$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Workload 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Workload 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Workload 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tps-25'!$M$15:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>1040.9225054652568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>796.91455621109969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E88-A34E-8E0A-96986A3DC8D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="487141040"/>
+        <c:axId val="487142768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="487141040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="487142768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="487142768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Latency (us)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="487141040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1155700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F2605E-E4AB-F59C-775E-B85E85FA381F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1075,10 +2135,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N285"/>
+  <dimension ref="A1:S285"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1088,8 +2148,8 @@
     <col min="12" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:14" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:19" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +2168,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1127,7 +2187,7 @@
       </c>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1156,7 +2216,7 @@
         <v>24.933303413369199</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1182,7 +2242,7 @@
         <v>24.983760555638799</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1208,7 +2268,7 @@
         <v>24.980015987210201</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1231,7 +2291,7 @@
         <v>24.9868818870093</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1257,7 +2317,7 @@
         <v>24.975024975024901</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1283,7 +2343,7 @@
         <v>24.977520231791299</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1306,7 +2366,7 @@
         <v>24.968165588874101</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1332,7 +2392,7 @@
         <v>24.967542195146301</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1358,7 +2418,7 @@
         <v>24.968789013732799</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1372,7 +2432,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1390,7 +2450,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1408,8 +2468,13 @@
         <v>515.10566666666671</v>
       </c>
       <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O15" s="12"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="53"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -1430,8 +2495,13 @@
         <f>AVERAGE(M5,M8,M11)</f>
         <v>1040.9225054652568</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="6"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="53"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -1452,8 +2522,13 @@
         <f>AVERAGE(M6,M9,M12)</f>
         <v>796.91455621109969</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="6"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="53"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1464,7 +2539,7 @@
         <v>11655</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1482,7 +2557,7 @@
         <v>24.971222649755209</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -1493,7 +2568,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -1504,7 +2579,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -1515,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,7 +2601,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1537,7 +2612,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1548,7 +2623,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1559,7 +2634,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1570,17 +2645,17 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1591,7 +2666,7 @@
         <v>40026</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -4230,6 +5305,7 @@
     <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4240,8 +5316,8 @@
   </sheetPr>
   <dimension ref="A1:N285"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10564,8 +11640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B8D10F-DE65-A345-A543-886720C7F693}">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13389,11 +14465,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A30658-965C-484C-9C04-9200B800EB27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBFCAC3-55BC-944C-B7B3-C5C9963935EC}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/LOG8430E_redis_results.xlsx
+++ b/LOG8430E_redis_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thierry/Desktop/LOG8430E_TP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C44CC78-C285-9940-A4B5-E9083E39129D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9F6A5E-558E-1844-AA16-0BB266199E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tps-25" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
     <sheet name="cpu-mem-1000" sheetId="6" r:id="rId4"/>
     <sheet name="results" sheetId="7" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'tps-25'!$K$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'tps-25'!$L$15:$L$17</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'tps-25'!$M$15:$M$17</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'tps-25'!$M$16:$M$17</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'tps-25'!$K$24</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'tps-25'!$K$24</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'tps-25'!$L$15:$L$17</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'tps-25'!$M$15:$M$17</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'tps-25'!$M$16:$M$17</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -48,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="157">
   <si>
     <t>##################################################################################</t>
   </si>
@@ -518,6 +507,13 @@
   <si>
     <t>Memory (GB)</t>
   </si>
+  <si>
+    <t>WRITE</t>
+  </si>
+  <si>
+    <t>Average
+throughput</t>
+  </si>
 </sst>
 </file>
 
@@ -584,7 +580,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -699,6 +695,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -761,18 +768,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -793,6 +827,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -843,33 +878,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1350,7 +1436,701 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Impact</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> of Throughput on READ Latencies</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>workload 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>results!$F$21:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24.971222649755209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>494.64248697497646</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>972.59089191969053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>results!$F$21:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24.971222649755209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>494.64248697497646</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>972.59089191969053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE04-794B-B9CF-C2692145C8E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>workload 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>results!$F$21:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24.971222649755209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>494.64248697497646</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>972.59089191969053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>results!$D$21:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>666.00411489645933</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>351.40972492843503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>249.56134624881869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE04-794B-B9CF-C2692145C8E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>workload 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>results!$F$21:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24.971222649755209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>494.64248697497646</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>972.59089191969053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>results!$C$21:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>515.10566666666671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>396.65933333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>233.49633333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FE04-794B-B9CF-C2692145C8E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="488150128"/>
+        <c:axId val="488151856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="488150128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Throughput (ops/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488151856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="488151856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Latency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> (us)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488150128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1893,6 +2673,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1914,6 +3210,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F2605E-E4AB-F59C-775E-B85E85FA381F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6635740-CF0D-9A04-5507-2FCAA13D9E02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2137,8 +3474,8 @@
   </sheetPr>
   <dimension ref="A1:S285"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2153,18 +3490,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="20" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="22" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2172,20 +3509,20 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="7"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2197,21 +3534,21 @@
       <c r="C4" s="1">
         <v>40107</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="10">
         <f>C16</f>
         <v>509.637</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="10">
+      <c r="M4" s="13"/>
+      <c r="N4" s="11">
         <f>C5</f>
         <v>24.933303413369199</v>
       </c>
@@ -2226,18 +3563,18 @@
       <c r="C5" s="1">
         <v>24.933303413369199</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="10">
         <f>C43</f>
         <v>664.84</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="20">
         <f>C56</f>
         <v>1041.1447619047599</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="11">
         <f>C32</f>
         <v>24.983760555638799</v>
       </c>
@@ -2252,18 +3589,18 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="10">
         <f>C77</f>
         <v>691.10101010101005</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="20">
         <f>C90</f>
         <v>789.59045504994401</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="11">
         <f>C66</f>
         <v>24.980015987210201</v>
       </c>
@@ -2278,15 +3615,15 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="10">
         <f>C111</f>
         <v>553.28099999999995</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="10">
+      <c r="M7" s="13"/>
+      <c r="N7" s="11">
         <f>C100</f>
         <v>24.9868818870093</v>
       </c>
@@ -2301,18 +3638,18 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="10">
         <f>C138</f>
         <v>654.22044088176301</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="20">
         <f>C151</f>
         <v>1078.9281437125701</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="11">
         <f>C127</f>
         <v>24.975024975024901</v>
       </c>
@@ -2327,18 +3664,18 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="10">
         <f>C172</f>
         <v>722.09090909090901</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="20">
         <f>C185</f>
         <v>787.06179775280896</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="11">
         <f>C161</f>
         <v>24.977520231791299</v>
       </c>
@@ -2353,15 +3690,15 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="10">
         <f>C206</f>
         <v>482.399</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="10">
+      <c r="M10" s="13"/>
+      <c r="N10" s="11">
         <f>C195</f>
         <v>24.968165588874101</v>
       </c>
@@ -2376,18 +3713,18 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="10">
         <f>C233</f>
         <v>678.95190380761505</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="20">
         <f>C246</f>
         <v>1002.6946107784401</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="11">
         <f>C222</f>
         <v>24.967542195146301</v>
       </c>
@@ -2402,18 +3739,18 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="15">
         <f>C267</f>
         <v>599.04854368932001</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="25">
         <f>C280</f>
         <v>814.091415830546</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="24">
         <f>C256</f>
         <v>24.968789013732799</v>
       </c>
@@ -2428,9 +3765,9 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -2443,10 +3780,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2460,19 +3797,19 @@
       <c r="C15" s="3">
         <v>1000</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="10">
         <f>AVERAGE(L4,L7,L10)</f>
         <v>515.10566666666671</v>
       </c>
-      <c r="M15" s="10"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="53"/>
+      <c r="M15" s="11"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="55"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
@@ -2484,22 +3821,22 @@
       <c r="C16" s="3">
         <v>509.637</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="10">
         <f>AVERAGE(L5,L8,L11)</f>
         <v>666.00411489645933</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="12">
         <f>AVERAGE(M5,M8,M11)</f>
         <v>1040.9225054652568</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="53"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="55"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -2511,22 +3848,22 @@
       <c r="C17" s="3">
         <v>133</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="15">
         <f>AVERAGE(L6,L9,L12)</f>
         <v>670.74682096041306</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="16">
         <f>AVERAGE(M6,M9,M12)</f>
         <v>796.91455621109969</v>
       </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="53"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="55"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
@@ -2549,10 +3886,10 @@
       <c r="C19" s="3">
         <v>779</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="28">
         <f>AVERAGE(N4:N12)</f>
         <v>24.971222649755209</v>
       </c>
@@ -5316,8 +6653,8 @@
   </sheetPr>
   <dimension ref="A1:N285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5330,18 +6667,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="20" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="22" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5349,20 +6686,20 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="7"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -5374,21 +6711,21 @@
       <c r="C4" s="1">
         <v>2020</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="10">
         <f>C16</f>
         <v>340.68900000000002</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="10">
+      <c r="M4" s="13"/>
+      <c r="N4" s="11">
         <f>C5</f>
         <v>495.04950495049502</v>
       </c>
@@ -5403,18 +6740,18 @@
       <c r="C5" s="1">
         <v>495.04950495049502</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="10">
         <f>C43</f>
         <v>296.02783725910001</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="20">
         <f>C56</f>
         <v>474.58724202626598</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="11">
         <f>C32</f>
         <v>495.29470034670601</v>
       </c>
@@ -5429,18 +6766,18 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="10">
         <f>C77</f>
         <v>497.67289719626098</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="20">
         <f>C90</f>
         <v>574.41993281074997</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="11">
         <f>C66</f>
         <v>493.82716049382702</v>
       </c>
@@ -5455,15 +6792,15 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="10">
         <f>C111</f>
         <v>470.53100000000001</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="10">
+      <c r="M7" s="13"/>
+      <c r="N7" s="11">
         <f>C100</f>
         <v>493.58341559723499</v>
       </c>
@@ -5478,18 +6815,18 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="10">
         <f>C138</f>
         <v>390.50733752620499</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="20">
         <f>C151</f>
         <v>640.86424474187299</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="11">
         <f>C127</f>
         <v>495.29470034670601</v>
       </c>
@@ -5504,18 +6841,18 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="10">
         <f>C172</f>
         <v>447.4</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="20">
         <f>C185</f>
         <v>596.79337016574505</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="11">
         <f>C161</f>
         <v>495.04950495049502</v>
       </c>
@@ -5530,15 +6867,15 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="10">
         <f>C206</f>
         <v>378.75799999999998</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="10">
+      <c r="M10" s="13"/>
+      <c r="N10" s="11">
         <f>C195</f>
         <v>493.58341559723499</v>
       </c>
@@ -5553,18 +6890,18 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="10">
         <f>C233</f>
         <v>367.69400000000002</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="20">
         <f>C246</f>
         <v>476.71199999999999</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="11">
         <f>C222</f>
         <v>494.55984174085</v>
       </c>
@@ -5579,18 +6916,18 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="15">
         <f>C267</f>
         <v>439.94623655913898</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="25">
         <f>C280</f>
         <v>528.18853362734205</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="24">
         <f>C256</f>
         <v>495.54013875123798</v>
       </c>
@@ -5605,9 +6942,9 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -5620,10 +6957,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5637,14 +6974,14 @@
       <c r="C15" s="3">
         <v>1000</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="10">
         <f>AVERAGE(L4,L7,L10)</f>
         <v>396.65933333333334</v>
       </c>
-      <c r="M15" s="10"/>
+      <c r="M15" s="11"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
@@ -5656,14 +6993,14 @@
       <c r="C16" s="3">
         <v>340.68900000000002</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="10">
         <f>AVERAGE(L5,L8,L11)</f>
         <v>351.40972492843503</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="12">
         <f>AVERAGE(M5,M8,M11)</f>
         <v>530.72116225604634</v>
       </c>
@@ -5678,14 +7015,14 @@
       <c r="C17" s="3">
         <v>98</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="15">
         <f>AVERAGE(L6,L9,L12)</f>
         <v>461.67304458513331</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="16">
         <f>AVERAGE(M6,M9,M12)</f>
         <v>566.46727886794577</v>
       </c>
@@ -5711,10 +7048,10 @@
       <c r="C19" s="3">
         <v>638</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="28">
         <f>AVERAGE(N4:N12)</f>
         <v>494.64248697497646</v>
       </c>
@@ -8478,7 +9815,7 @@
   <dimension ref="A1:O285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="K14" sqref="K14:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8494,18 +9831,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="20" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="22" t="s">
         <v>56</v>
       </c>
     </row>
@@ -8513,20 +9850,20 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="7"/>
+      <c r="N3" s="8"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8539,21 +9876,21 @@
       <c r="C4" s="1">
         <v>1022</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="10">
         <f>C16</f>
         <v>237.94</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="10">
+      <c r="M4" s="13"/>
+      <c r="N4" s="11">
         <f>C5</f>
         <v>978.47358121330706</v>
       </c>
@@ -8569,18 +9906,18 @@
       <c r="C5" s="1">
         <v>978.47358121330706</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="10">
         <f>C43</f>
         <v>260.01844262294998</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="20">
         <f>C56</f>
         <v>293.072265625</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="11">
         <f>C32</f>
         <v>976.5625</v>
       </c>
@@ -8595,18 +9932,18 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="10">
         <f>C77</f>
         <v>379.56521739130397</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="20">
         <f>C90</f>
         <v>432.34691629955898</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="11">
         <f>C66</f>
         <v>962.46390760346401</v>
       </c>
@@ -8621,15 +9958,15 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="10">
         <f>C111</f>
         <v>185.81399999999999</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="10">
+      <c r="M7" s="13"/>
+      <c r="N7" s="11">
         <f>C100</f>
         <v>972.76264591439599</v>
       </c>
@@ -8644,18 +9981,18 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="10">
         <f>C138</f>
         <v>213.805555555555</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="20">
         <f>C151</f>
         <v>284.28260869565202</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="11">
         <f>C127</f>
         <v>968.99224806201505</v>
       </c>
@@ -8670,18 +10007,18 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="10">
         <f>C172</f>
         <v>365.56521739130397</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="20">
         <f>C185</f>
         <v>402.30396475770902</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="11">
         <f>C161</f>
         <v>974.65886939571101</v>
       </c>
@@ -8696,15 +10033,15 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="10">
         <f>C206</f>
         <v>276.73500000000001</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="10">
+      <c r="M10" s="13"/>
+      <c r="N10" s="11">
         <f>C195</f>
         <v>981.35426889106895</v>
       </c>
@@ -8719,18 +10056,18 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="10">
         <f>C233</f>
         <v>274.86004056795099</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="20">
         <f>C246</f>
         <v>294.16173570019703</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="11">
         <f>C222</f>
         <v>974.65886939571101</v>
       </c>
@@ -8745,18 +10082,18 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="15">
         <f>C267</f>
         <v>274.75555555555502</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="25">
         <f>C280</f>
         <v>328.51868131868099</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="24">
         <f>C256</f>
         <v>963.39113680154105</v>
       </c>
@@ -8771,9 +10108,9 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -8786,10 +10123,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8803,14 +10140,14 @@
       <c r="C15" s="3">
         <v>1000</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="10">
         <f>AVERAGE(L4,L7,L10)</f>
         <v>233.49633333333335</v>
       </c>
-      <c r="M15" s="10"/>
+      <c r="M15" s="11"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
@@ -8822,14 +10159,14 @@
       <c r="C16" s="3">
         <v>237.94</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="10">
         <f>AVERAGE(L5,L8,L11)</f>
         <v>249.56134624881869</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="12">
         <f>AVERAGE(M5,M8,M11)</f>
         <v>290.50553667361635</v>
       </c>
@@ -8844,14 +10181,14 @@
       <c r="C17" s="3">
         <v>72</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="15">
         <f>AVERAGE(L6,L9,L12)</f>
         <v>339.96199677938768</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="16">
         <f>AVERAGE(M6,M9,M12)</f>
         <v>387.72318745864965</v>
       </c>
@@ -8877,10 +10214,10 @@
       <c r="C19" s="3">
         <v>494</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="28">
         <f>AVERAGE(N4:N12)</f>
         <v>972.59089191969053</v>
       </c>
@@ -11646,2816 +12983,2816 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125" style="29"/>
-    <col min="12" max="12" width="12.83203125" style="29" customWidth="1"/>
-    <col min="13" max="13" width="8.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.83203125" style="29" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="29"/>
+    <col min="1" max="1" width="15.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="31"/>
+    <col min="12" max="12" width="12.83203125" style="31" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" style="31" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="33">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="33">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="31">
         <v>7</v>
       </c>
-      <c r="L3" s="44"/>
-      <c r="M3" s="45" t="s">
+      <c r="L3" s="46"/>
+      <c r="M3" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="N3" s="46" t="s">
+      <c r="N3" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="O3" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="P3" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="Q3" s="47" t="s">
+      <c r="Q3" s="49" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="33">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="31">
         <v>7</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="42">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="N4" s="41">
+      <c r="N4" s="43">
         <v>9.82</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="43">
         <f>S4/1024</f>
         <v>0.416015625</v>
       </c>
-      <c r="P4" s="41">
+      <c r="P4" s="43">
         <v>6.3479999999999999</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="36">
         <v>15.55</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4" s="31">
         <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="33">
         <v>1.5E-3</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="31">
         <v>6</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="42">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N5" s="41">
+      <c r="N5" s="43">
         <v>9.82</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="43">
         <f t="shared" ref="O5:O8" si="0">S5/1024</f>
         <v>0.3935546875</v>
       </c>
-      <c r="P5" s="41">
+      <c r="P5" s="43">
         <v>6.4340000000000002</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="36">
         <v>15.55</v>
       </c>
-      <c r="S5" s="29">
+      <c r="S5" s="31">
         <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="30">
-        <v>0</v>
-      </c>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="32">
+        <v>0</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="30">
-        <v>0</v>
-      </c>
-      <c r="F6" s="29" t="s">
+      <c r="E6" s="32">
+        <v>0</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="29">
-        <v>0</v>
-      </c>
-      <c r="L6" s="48" t="s">
+      <c r="I6" s="31">
+        <v>0</v>
+      </c>
+      <c r="L6" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="M6" s="40">
+      <c r="M6" s="42">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="43">
         <v>9.82</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="43">
         <f t="shared" si="0"/>
         <v>0.4052734375</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="43">
         <v>6.43</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="36">
         <v>15.55</v>
       </c>
-      <c r="S6" s="29">
+      <c r="S6" s="31">
         <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="30">
-        <v>0</v>
-      </c>
-      <c r="D7" s="29" t="s">
+      <c r="C7" s="32">
+        <v>0</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="30">
-        <v>0</v>
-      </c>
-      <c r="F7" s="29" t="s">
+      <c r="E7" s="32">
+        <v>0</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="29">
-        <v>0</v>
-      </c>
-      <c r="L7" s="48" t="s">
+      <c r="I7" s="31">
+        <v>0</v>
+      </c>
+      <c r="L7" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="42">
         <v>1.5E-3</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N7" s="43">
         <v>12.2</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="43">
         <v>32.5</v>
       </c>
-      <c r="P7" s="41">
+      <c r="P7" s="43">
         <v>5.883</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="36">
         <v>15.55</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="30">
-        <v>0</v>
-      </c>
-      <c r="D8" s="29" t="s">
+      <c r="C8" s="32">
+        <v>0</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="30">
-        <v>0</v>
-      </c>
-      <c r="F8" s="29" t="s">
+      <c r="E8" s="32">
+        <v>0</v>
+      </c>
+      <c r="F8" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="29">
-        <v>0</v>
-      </c>
-      <c r="L8" s="48" t="s">
+      <c r="I8" s="31">
+        <v>0</v>
+      </c>
+      <c r="L8" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="M8" s="40">
+      <c r="M8" s="42">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="43">
         <v>10</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="43">
         <f>S8/1024</f>
         <v>0.4462890625</v>
       </c>
-      <c r="P8" s="41">
+      <c r="P8" s="43">
         <v>6.18</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="36">
         <v>15.55</v>
       </c>
-      <c r="S8" s="29">
+      <c r="S8" s="31">
         <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="30">
-        <v>0</v>
-      </c>
-      <c r="D9" s="29" t="s">
+      <c r="C9" s="32">
+        <v>0</v>
+      </c>
+      <c r="D9" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="30">
-        <v>0</v>
-      </c>
-      <c r="F9" s="29" t="s">
+      <c r="E9" s="32">
+        <v>0</v>
+      </c>
+      <c r="F9" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="29">
-        <v>0</v>
-      </c>
-      <c r="L9" s="48" t="s">
+      <c r="I9" s="31">
+        <v>0</v>
+      </c>
+      <c r="L9" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="M9" s="40">
+      <c r="M9" s="42">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="43">
         <v>10</v>
       </c>
-      <c r="O9" s="41">
+      <c r="O9" s="43">
         <f t="shared" ref="O9:O10" si="1">S9/1024</f>
         <v>0.4228515625</v>
       </c>
-      <c r="P9" s="41">
+      <c r="P9" s="43">
         <v>6.0819999999999999</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="36">
         <v>15.55</v>
       </c>
-      <c r="S9" s="29">
+      <c r="S9" s="31">
         <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="48" t="s">
+      <c r="L10" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="M10" s="40">
+      <c r="M10" s="42">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="43">
         <v>10</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="43">
         <f t="shared" si="1"/>
         <v>0.4345703125</v>
       </c>
-      <c r="P10" s="41">
+      <c r="P10" s="43">
         <v>6.109</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="36">
         <v>15.55</v>
       </c>
-      <c r="S10" s="29">
+      <c r="S10" s="31">
         <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="33">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="31">
         <v>7</v>
       </c>
-      <c r="L11" s="48" t="s">
+      <c r="L11" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="M11" s="40">
+      <c r="M11" s="42">
         <v>1.5E-3</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="43">
         <v>12.6</v>
       </c>
-      <c r="O11" s="41">
+      <c r="O11" s="43">
         <v>35.299999999999997</v>
       </c>
-      <c r="P11" s="41">
+      <c r="P11" s="43">
         <v>5.9219999999999997</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="36">
         <v>15.55</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="33">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="31">
         <v>7</v>
       </c>
-      <c r="L12" s="48" t="s">
+      <c r="L12" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="M12" s="40">
+      <c r="M12" s="42">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="43">
         <v>10</v>
       </c>
-      <c r="O12" s="41">
+      <c r="O12" s="43">
         <f>S12/1024</f>
         <v>0.4462890625</v>
       </c>
-      <c r="P12" s="41">
+      <c r="P12" s="43">
         <v>6.18</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12" s="36">
         <v>15.55</v>
       </c>
-      <c r="S12" s="29">
+      <c r="S12" s="31">
         <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="33">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="31">
         <v>7</v>
       </c>
-      <c r="L13" s="48" t="s">
+      <c r="L13" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="M13" s="40">
+      <c r="M13" s="42">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N13" s="41">
+      <c r="N13" s="43">
         <v>10</v>
       </c>
-      <c r="O13" s="41">
+      <c r="O13" s="43">
         <f t="shared" ref="O13:O14" si="2">S13/1024</f>
         <v>0.423828125</v>
       </c>
-      <c r="P13" s="41">
+      <c r="P13" s="43">
         <v>6.0819999999999999</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="36">
         <v>15.55</v>
       </c>
-      <c r="S13" s="29">
+      <c r="S13" s="31">
         <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="33">
         <v>1.5E-3</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="31">
         <v>6</v>
       </c>
-      <c r="L14" s="48" t="s">
+      <c r="L14" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="M14" s="40">
+      <c r="M14" s="42">
         <v>1.5E-3</v>
       </c>
-      <c r="N14" s="41">
+      <c r="N14" s="43">
         <v>10</v>
       </c>
-      <c r="O14" s="41">
+      <c r="O14" s="43">
         <f t="shared" si="2"/>
         <v>0.4345703125</v>
       </c>
-      <c r="P14" s="41">
+      <c r="P14" s="43">
         <v>6.109</v>
       </c>
-      <c r="Q14" s="34">
+      <c r="Q14" s="36">
         <v>15.55</v>
       </c>
-      <c r="S14" s="29">
+      <c r="S14" s="31">
         <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="30">
-        <v>0</v>
-      </c>
-      <c r="D15" s="29" t="s">
+      <c r="C15" s="32">
+        <v>0</v>
+      </c>
+      <c r="D15" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="30">
-        <v>0</v>
-      </c>
-      <c r="F15" s="29" t="s">
+      <c r="E15" s="32">
+        <v>0</v>
+      </c>
+      <c r="F15" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="29">
-        <v>0</v>
-      </c>
-      <c r="L15" s="48" t="s">
+      <c r="I15" s="31">
+        <v>0</v>
+      </c>
+      <c r="L15" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="M15" s="40">
+      <c r="M15" s="42">
         <v>1.5E-3</v>
       </c>
-      <c r="N15" s="41">
+      <c r="N15" s="43">
         <v>12.6</v>
       </c>
-      <c r="O15" s="41">
+      <c r="O15" s="43">
         <v>35.299999999999997</v>
       </c>
-      <c r="P15" s="41">
+      <c r="P15" s="43">
         <v>5.9219999999999997</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="36">
         <v>15.55</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="30">
-        <v>0</v>
-      </c>
-      <c r="D16" s="29" t="s">
+      <c r="C16" s="32">
+        <v>0</v>
+      </c>
+      <c r="D16" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="30">
-        <v>0</v>
-      </c>
-      <c r="F16" s="29" t="s">
+      <c r="E16" s="32">
+        <v>0</v>
+      </c>
+      <c r="F16" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="29">
-        <v>0</v>
-      </c>
-      <c r="L16" s="48" t="s">
+      <c r="I16" s="31">
+        <v>0</v>
+      </c>
+      <c r="L16" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="M16" s="40">
+      <c r="M16" s="42">
         <v>1.9E-3</v>
       </c>
-      <c r="N16" s="41">
+      <c r="N16" s="43">
         <v>11.3</v>
       </c>
-      <c r="O16" s="41">
+      <c r="O16" s="43">
         <f>S16/1024</f>
         <v>0.4794921875</v>
       </c>
-      <c r="P16" s="41">
+      <c r="P16" s="43">
         <v>6.4139999999999997</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16" s="36">
         <v>15.55</v>
       </c>
-      <c r="S16" s="29">
+      <c r="S16" s="31">
         <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="30">
-        <v>0</v>
-      </c>
-      <c r="D17" s="29" t="s">
+      <c r="C17" s="32">
+        <v>0</v>
+      </c>
+      <c r="D17" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="30">
-        <v>0</v>
-      </c>
-      <c r="F17" s="29" t="s">
+      <c r="E17" s="32">
+        <v>0</v>
+      </c>
+      <c r="F17" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="29">
-        <v>0</v>
-      </c>
-      <c r="L17" s="48" t="s">
+      <c r="I17" s="31">
+        <v>0</v>
+      </c>
+      <c r="L17" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="M17" s="40">
+      <c r="M17" s="42">
         <v>1.9E-3</v>
       </c>
-      <c r="N17" s="41">
+      <c r="N17" s="43">
         <v>11.3</v>
       </c>
-      <c r="O17" s="41">
+      <c r="O17" s="43">
         <f t="shared" ref="O17:O18" si="3">S17/1024</f>
         <v>0.45703125</v>
       </c>
-      <c r="P17" s="41">
+      <c r="P17" s="43">
         <v>6.48</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17" s="36">
         <v>15.55</v>
       </c>
-      <c r="S17" s="29">
+      <c r="S17" s="31">
         <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="30">
-        <v>0</v>
-      </c>
-      <c r="D18" s="29" t="s">
+      <c r="C18" s="32">
+        <v>0</v>
+      </c>
+      <c r="D18" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="30">
-        <v>0</v>
-      </c>
-      <c r="F18" s="29" t="s">
+      <c r="E18" s="32">
+        <v>0</v>
+      </c>
+      <c r="F18" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="29">
-        <v>0</v>
-      </c>
-      <c r="L18" s="48" t="s">
+      <c r="I18" s="31">
+        <v>0</v>
+      </c>
+      <c r="L18" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="M18" s="40">
+      <c r="M18" s="42">
         <v>2E-3</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="43">
         <v>11.3</v>
       </c>
-      <c r="O18" s="41">
+      <c r="O18" s="43">
         <f t="shared" si="3"/>
         <v>0.466796875</v>
       </c>
-      <c r="P18" s="41">
+      <c r="P18" s="43">
         <v>6.492</v>
       </c>
-      <c r="Q18" s="34">
+      <c r="Q18" s="36">
         <v>15.55</v>
       </c>
-      <c r="S18" s="29">
+      <c r="S18" s="31">
         <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="48" t="s">
+      <c r="L19" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="M19" s="40">
+      <c r="M19" s="42">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N19" s="43">
         <v>14.1</v>
       </c>
-      <c r="O19" s="41">
+      <c r="O19" s="43">
         <v>39.4</v>
       </c>
-      <c r="P19" s="41">
+      <c r="P19" s="43">
         <v>6.125</v>
       </c>
-      <c r="Q19" s="34">
+      <c r="Q19" s="36">
         <v>15.55</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="33">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="31">
         <v>7</v>
       </c>
-      <c r="L20" s="48" t="s">
+      <c r="L20" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="M20" s="40">
+      <c r="M20" s="42">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="43">
         <v>11.3</v>
       </c>
-      <c r="O20" s="41">
+      <c r="O20" s="43">
         <f>S20/1024</f>
         <v>0.48046875</v>
       </c>
-      <c r="P20" s="41">
+      <c r="P20" s="43">
         <v>6.0620000000000003</v>
       </c>
-      <c r="Q20" s="34">
+      <c r="Q20" s="36">
         <v>15.55</v>
       </c>
-      <c r="S20" s="29">
+      <c r="S20" s="31">
         <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="33">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="31">
         <v>7</v>
       </c>
-      <c r="L21" s="48" t="s">
+      <c r="L21" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="M21" s="40">
+      <c r="M21" s="42">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="N21" s="41">
+      <c r="N21" s="43">
         <v>11.3</v>
       </c>
-      <c r="O21" s="41">
+      <c r="O21" s="43">
         <f t="shared" ref="O21:O22" si="4">S21/1024</f>
         <v>0.45703125</v>
       </c>
-      <c r="P21" s="41">
+      <c r="P21" s="43">
         <v>6.0350000000000001</v>
       </c>
-      <c r="Q21" s="34">
+      <c r="Q21" s="36">
         <v>15.55</v>
       </c>
-      <c r="S21" s="29">
+      <c r="S21" s="31">
         <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="33">
         <v>1.5E-3</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="31">
         <v>7</v>
       </c>
-      <c r="L22" s="48" t="s">
+      <c r="L22" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="M22" s="40">
+      <c r="M22" s="42">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N22" s="41">
+      <c r="N22" s="43">
         <v>11.3</v>
       </c>
-      <c r="O22" s="41">
+      <c r="O22" s="43">
         <f t="shared" si="4"/>
         <v>0.4677734375</v>
       </c>
-      <c r="P22" s="41">
+      <c r="P22" s="43">
         <v>6.0549999999999997</v>
       </c>
-      <c r="Q22" s="34">
+      <c r="Q22" s="36">
         <v>15.55</v>
       </c>
-      <c r="S22" s="29">
+      <c r="S22" s="31">
         <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="33">
         <v>1.5E-3</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="31">
         <v>6</v>
       </c>
-      <c r="L23" s="48" t="s">
+      <c r="L23" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="M23" s="40">
+      <c r="M23" s="42">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="N23" s="41">
+      <c r="N23" s="43">
         <v>14.2</v>
       </c>
-      <c r="O23" s="41">
+      <c r="O23" s="43">
         <v>40.700000000000003</v>
       </c>
-      <c r="P23" s="41">
+      <c r="P23" s="43">
         <v>6.1210000000000004</v>
       </c>
-      <c r="Q23" s="34">
+      <c r="Q23" s="36">
         <v>15.55</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="30">
-        <v>0</v>
-      </c>
-      <c r="D24" s="29" t="s">
+      <c r="C24" s="32">
+        <v>0</v>
+      </c>
+      <c r="D24" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="30">
-        <v>0</v>
-      </c>
-      <c r="F24" s="29" t="s">
+      <c r="E24" s="32">
+        <v>0</v>
+      </c>
+      <c r="F24" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="29">
-        <v>0</v>
-      </c>
-      <c r="L24" s="48" t="s">
+      <c r="I24" s="31">
+        <v>0</v>
+      </c>
+      <c r="L24" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="M24" s="40">
+      <c r="M24" s="42">
         <v>1.5E-3</v>
       </c>
-      <c r="N24" s="41">
+      <c r="N24" s="43">
         <v>11.3</v>
       </c>
-      <c r="O24" s="41">
+      <c r="O24" s="43">
         <f>S24/1024</f>
         <v>0.48046875</v>
       </c>
-      <c r="P24" s="41">
+      <c r="P24" s="43">
         <v>6.0620000000000003</v>
       </c>
-      <c r="Q24" s="34">
+      <c r="Q24" s="36">
         <v>15.55</v>
       </c>
-      <c r="S24" s="29">
+      <c r="S24" s="31">
         <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="30">
-        <v>0</v>
-      </c>
-      <c r="D25" s="29" t="s">
+      <c r="C25" s="32">
+        <v>0</v>
+      </c>
+      <c r="D25" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="30">
-        <v>0</v>
-      </c>
-      <c r="F25" s="29" t="s">
+      <c r="E25" s="32">
+        <v>0</v>
+      </c>
+      <c r="F25" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="29">
-        <v>0</v>
-      </c>
-      <c r="L25" s="48" t="s">
+      <c r="I25" s="31">
+        <v>0</v>
+      </c>
+      <c r="L25" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="M25" s="40">
+      <c r="M25" s="42">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N25" s="41">
+      <c r="N25" s="43">
         <v>11.3</v>
       </c>
-      <c r="O25" s="41">
+      <c r="O25" s="43">
         <f t="shared" ref="O25:O26" si="5">S25/1024</f>
         <v>0.4580078125</v>
       </c>
-      <c r="P25" s="41">
+      <c r="P25" s="43">
         <v>6.0350000000000001</v>
       </c>
-      <c r="Q25" s="34">
+      <c r="Q25" s="36">
         <v>15.55</v>
       </c>
-      <c r="S25" s="29">
+      <c r="S25" s="31">
         <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="30">
-        <v>0</v>
-      </c>
-      <c r="D26" s="29" t="s">
+      <c r="C26" s="32">
+        <v>0</v>
+      </c>
+      <c r="D26" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="30">
-        <v>0</v>
-      </c>
-      <c r="F26" s="29" t="s">
+      <c r="E26" s="32">
+        <v>0</v>
+      </c>
+      <c r="F26" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="29">
-        <v>0</v>
-      </c>
-      <c r="L26" s="48" t="s">
+      <c r="I26" s="31">
+        <v>0</v>
+      </c>
+      <c r="L26" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="M26" s="40">
+      <c r="M26" s="42">
         <v>1.8E-3</v>
       </c>
-      <c r="N26" s="41">
+      <c r="N26" s="43">
         <v>11.3</v>
       </c>
-      <c r="O26" s="41">
+      <c r="O26" s="43">
         <f t="shared" si="5"/>
         <v>0.4677734375</v>
       </c>
-      <c r="P26" s="41">
+      <c r="P26" s="43">
         <v>6.0549999999999997</v>
       </c>
-      <c r="Q26" s="34">
+      <c r="Q26" s="36">
         <v>15.55</v>
       </c>
-      <c r="S26" s="29">
+      <c r="S26" s="31">
         <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="30">
-        <v>0</v>
-      </c>
-      <c r="D27" s="29" t="s">
+      <c r="C27" s="32">
+        <v>0</v>
+      </c>
+      <c r="D27" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="30">
-        <v>0</v>
-      </c>
-      <c r="F27" s="29" t="s">
+      <c r="E27" s="32">
+        <v>0</v>
+      </c>
+      <c r="F27" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="29">
-        <v>0</v>
-      </c>
-      <c r="L27" s="48" t="s">
+      <c r="I27" s="31">
+        <v>0</v>
+      </c>
+      <c r="L27" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="M27" s="40">
+      <c r="M27" s="42">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N27" s="41">
+      <c r="N27" s="43">
         <v>14.2</v>
       </c>
-      <c r="O27" s="41">
+      <c r="O27" s="43">
         <v>40.700000000000003</v>
       </c>
-      <c r="P27" s="41">
+      <c r="P27" s="43">
         <v>6.1210000000000004</v>
       </c>
-      <c r="Q27" s="34">
+      <c r="Q27" s="36">
         <v>15.55</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="I28" s="29" t="s">
+      <c r="I28" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="48" t="s">
+      <c r="L28" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="M28" s="40">
+      <c r="M28" s="42">
         <v>6.6E-3</v>
       </c>
-      <c r="N28" s="41">
+      <c r="N28" s="43">
         <v>12.7</v>
       </c>
-      <c r="O28" s="41">
+      <c r="O28" s="43">
         <f>S28/1024</f>
         <v>0.486328125</v>
       </c>
-      <c r="P28" s="41">
+      <c r="P28" s="43">
         <v>6.359</v>
       </c>
-      <c r="Q28" s="34">
+      <c r="Q28" s="36">
         <v>15.55</v>
       </c>
-      <c r="S28" s="29">
+      <c r="S28" s="31">
         <v>498</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="33">
         <v>1.9E-3</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="29" t="s">
+      <c r="H29" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="31">
         <v>7</v>
       </c>
-      <c r="L29" s="48" t="s">
+      <c r="L29" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="M29" s="40">
+      <c r="M29" s="42">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="N29" s="41">
+      <c r="N29" s="43">
         <v>12.7</v>
       </c>
-      <c r="O29" s="41">
+      <c r="O29" s="43">
         <f t="shared" ref="O29:O30" si="6">S29/1024</f>
         <v>0.4921875</v>
       </c>
-      <c r="P29" s="41">
+      <c r="P29" s="43">
         <v>6.383</v>
       </c>
-      <c r="Q29" s="34">
+      <c r="Q29" s="36">
         <v>15.55</v>
       </c>
-      <c r="S29" s="29">
+      <c r="S29" s="31">
         <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="33">
         <v>1.9E-3</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F30" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="31">
         <v>7</v>
       </c>
-      <c r="L30" s="48" t="s">
+      <c r="L30" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="M30" s="40">
+      <c r="M30" s="42">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="N30" s="41">
+      <c r="N30" s="43">
         <v>12.7</v>
       </c>
-      <c r="O30" s="41">
+      <c r="O30" s="43">
         <f t="shared" si="6"/>
         <v>0.5029296875</v>
       </c>
-      <c r="P30" s="41">
+      <c r="P30" s="43">
         <v>6.391</v>
       </c>
-      <c r="Q30" s="34">
+      <c r="Q30" s="36">
         <v>15.55</v>
       </c>
-      <c r="S30" s="29">
+      <c r="S30" s="31">
         <v>515</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="33">
         <v>2E-3</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H31" s="29" t="s">
+      <c r="H31" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="31">
         <v>7</v>
       </c>
-      <c r="L31" s="48" t="s">
+      <c r="L31" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="M31" s="40">
+      <c r="M31" s="42">
         <v>0.14399999999999999</v>
       </c>
-      <c r="N31" s="41">
+      <c r="N31" s="43">
         <v>15.58</v>
       </c>
-      <c r="O31" s="41">
+      <c r="O31" s="43">
         <v>44.8</v>
       </c>
-      <c r="P31" s="41">
+      <c r="P31" s="43">
         <v>6.1479999999999997</v>
       </c>
-      <c r="Q31" s="34">
+      <c r="Q31" s="36">
         <v>15.55</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="33">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H32" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="31">
         <v>6</v>
       </c>
-      <c r="L32" s="48" t="s">
+      <c r="L32" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="M32" s="40">
+      <c r="M32" s="42">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N32" s="41">
+      <c r="N32" s="43">
         <v>12.7</v>
       </c>
-      <c r="O32" s="41">
+      <c r="O32" s="43">
         <f>S32/1024</f>
         <v>0.5166015625</v>
       </c>
-      <c r="P32" s="41">
+      <c r="P32" s="43">
         <v>6.359</v>
       </c>
-      <c r="Q32" s="34">
+      <c r="Q32" s="36">
         <v>15.55</v>
       </c>
-      <c r="S32" s="29">
+      <c r="S32" s="31">
         <v>529</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="30">
-        <v>0</v>
-      </c>
-      <c r="D33" s="29" t="s">
+      <c r="C33" s="32">
+        <v>0</v>
+      </c>
+      <c r="D33" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="30">
-        <v>0</v>
-      </c>
-      <c r="F33" s="29" t="s">
+      <c r="E33" s="32">
+        <v>0</v>
+      </c>
+      <c r="F33" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G33" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I33" s="29">
-        <v>0</v>
-      </c>
-      <c r="L33" s="48" t="s">
+      <c r="I33" s="31">
+        <v>0</v>
+      </c>
+      <c r="L33" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="M33" s="40">
+      <c r="M33" s="42">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N33" s="41">
+      <c r="N33" s="43">
         <v>12.7</v>
       </c>
-      <c r="O33" s="41">
+      <c r="O33" s="43">
         <f t="shared" ref="O33:O34" si="7">S33/1024</f>
         <v>0.4931640625</v>
       </c>
-      <c r="P33" s="41">
+      <c r="P33" s="43">
         <v>6.3550000000000004</v>
       </c>
-      <c r="Q33" s="34">
+      <c r="Q33" s="36">
         <v>15.55</v>
       </c>
-      <c r="S33" s="29">
+      <c r="S33" s="31">
         <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="30">
-        <v>0</v>
-      </c>
-      <c r="D34" s="29" t="s">
+      <c r="C34" s="32">
+        <v>0</v>
+      </c>
+      <c r="D34" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="30">
-        <v>0</v>
-      </c>
-      <c r="F34" s="29" t="s">
+      <c r="E34" s="32">
+        <v>0</v>
+      </c>
+      <c r="F34" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="29">
-        <v>0</v>
-      </c>
-      <c r="L34" s="48" t="s">
+      <c r="I34" s="31">
+        <v>0</v>
+      </c>
+      <c r="L34" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="M34" s="40">
+      <c r="M34" s="42">
         <v>1.5E-3</v>
       </c>
-      <c r="N34" s="41">
+      <c r="N34" s="43">
         <v>12.7</v>
       </c>
-      <c r="O34" s="41">
+      <c r="O34" s="43">
         <f t="shared" si="7"/>
         <v>0.5029296875</v>
       </c>
-      <c r="P34" s="41">
+      <c r="P34" s="43">
         <v>6.3630000000000004</v>
       </c>
-      <c r="Q34" s="34">
+      <c r="Q34" s="36">
         <v>15.55</v>
       </c>
-      <c r="S34" s="29">
+      <c r="S34" s="31">
         <v>515</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="30">
-        <v>0</v>
-      </c>
-      <c r="D35" s="29" t="s">
+      <c r="C35" s="32">
+        <v>0</v>
+      </c>
+      <c r="D35" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="30">
-        <v>0</v>
-      </c>
-      <c r="F35" s="29" t="s">
+      <c r="E35" s="32">
+        <v>0</v>
+      </c>
+      <c r="F35" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I35" s="29">
-        <v>0</v>
-      </c>
-      <c r="L35" s="49" t="s">
+      <c r="I35" s="31">
+        <v>0</v>
+      </c>
+      <c r="L35" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="M35" s="42">
+      <c r="M35" s="44">
         <v>1.5E-3</v>
       </c>
-      <c r="N35" s="43">
+      <c r="N35" s="45">
         <v>15.8</v>
       </c>
-      <c r="O35" s="43">
+      <c r="O35" s="45">
         <v>15.8</v>
       </c>
-      <c r="P35" s="43">
+      <c r="P35" s="45">
         <v>6.1210000000000004</v>
       </c>
-      <c r="Q35" s="35">
+      <c r="Q35" s="37">
         <v>15.55</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="30">
-        <v>0</v>
-      </c>
-      <c r="D36" s="29" t="s">
+      <c r="C36" s="32">
+        <v>0</v>
+      </c>
+      <c r="D36" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="30">
-        <v>0</v>
-      </c>
-      <c r="F36" s="29" t="s">
+      <c r="E36" s="32">
+        <v>0</v>
+      </c>
+      <c r="F36" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G36" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I36" s="29">
-        <v>0</v>
-      </c>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
+      <c r="I36" s="31">
+        <v>0</v>
+      </c>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
     </row>
     <row r="37" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F37" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="29" t="s">
+      <c r="G37" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="29" t="s">
+      <c r="H37" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="I37" s="29" t="s">
+      <c r="I37" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="L37" s="44"/>
-      <c r="M37" s="45" t="s">
+      <c r="L37" s="46"/>
+      <c r="M37" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="N37" s="46" t="s">
+      <c r="N37" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="O37" s="46" t="s">
+      <c r="O37" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="P37" s="46" t="s">
+      <c r="P37" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="Q37" s="47" t="s">
+      <c r="Q37" s="49" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="33">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F38" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G38" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H38" s="29" t="s">
+      <c r="H38" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="I38" s="29">
+      <c r="I38" s="31">
         <v>7</v>
       </c>
-      <c r="L38" s="50" t="s">
+      <c r="L38" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="M38" s="36">
+      <c r="M38" s="38">
         <f>AVERAGE(M6,M10,M14,M18,M22,M26,M30,M34)</f>
         <v>9.0124999999999997E-3</v>
       </c>
-      <c r="N38" s="37">
+      <c r="N38" s="39">
         <f>AVERAGE(N6,N10,N14,N18,N22,N26,N30,N34)</f>
         <v>11.14</v>
       </c>
-      <c r="O38" s="37">
+      <c r="O38" s="39">
         <f>AVERAGE(O6,O10,O14,O18,O22,O26,O30,O34)</f>
         <v>0.4603271484375</v>
       </c>
-      <c r="P38" s="37">
+      <c r="P38" s="39">
         <f>AVERAGE(P6,P10,P14,P18,P22,P26,P30,P34) * 1.048576</f>
         <v>6.5541242879999997</v>
       </c>
-      <c r="Q38" s="34">
+      <c r="Q38" s="36">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="33">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G39" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H39" s="29" t="s">
+      <c r="H39" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="I39" s="29">
+      <c r="I39" s="31">
         <v>7</v>
       </c>
-      <c r="L39" s="50" t="s">
+      <c r="L39" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="M39" s="36">
+      <c r="M39" s="38">
         <f>AVERAGE(M5,M9,M13,M17,M21,M25,M29,M33)</f>
         <v>9.4375000000000014E-3</v>
       </c>
-      <c r="N39" s="37">
+      <c r="N39" s="39">
         <f>AVERAGE(N5,N9,N13,N17,N21,N25,N29,N33)</f>
         <v>11.14</v>
       </c>
-      <c r="O39" s="37">
+      <c r="O39" s="39">
         <f>AVERAGE(O5,O9,O13,O17,O21,O25,O29,O33)</f>
         <v>0.44970703125</v>
       </c>
-      <c r="P39" s="37">
+      <c r="P39" s="39">
         <f>AVERAGE(P5,P9,P13,P17,P21,P25,P29,P33) * 1.048576</f>
         <v>6.5386577919999995</v>
       </c>
-      <c r="Q39" s="34">
+      <c r="Q39" s="36">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="33">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="F40" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G40" s="29" t="s">
+      <c r="G40" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H40" s="29" t="s">
+      <c r="H40" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="I40" s="29">
+      <c r="I40" s="31">
         <v>7</v>
       </c>
-      <c r="L40" s="50" t="s">
+      <c r="L40" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="M40" s="36">
+      <c r="M40" s="38">
         <f>AVERAGE(M4,M8,M12,M16,M20,M24,M28,M32)</f>
         <v>2.2875E-3</v>
       </c>
-      <c r="N40" s="37">
+      <c r="N40" s="39">
         <f>AVERAGE(N4,N8,N12,N16,N20,N24,N28,N32)</f>
         <v>11.14</v>
       </c>
-      <c r="O40" s="37">
+      <c r="O40" s="39">
         <f>AVERAGE(O4,O8,O12,O16,O20,O24,O28,O32)</f>
         <v>0.468994140625</v>
       </c>
-      <c r="P40" s="37">
+      <c r="P40" s="39">
         <f>AVERAGE(P4,P8,P12,P16,P20,P24,P28,P32) * 1.048576</f>
         <v>6.5488814080000006</v>
       </c>
-      <c r="Q40" s="34">
+      <c r="Q40" s="36">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="33">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="F41" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="G41" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H41" s="29" t="s">
+      <c r="H41" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="I41" s="29">
+      <c r="I41" s="31">
         <v>6</v>
       </c>
-      <c r="L41" s="51" t="s">
+      <c r="L41" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="M41" s="38">
+      <c r="M41" s="40">
         <f>AVERAGE(M7,M11,M15,M19,M23,M27,M31,M35)</f>
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="N41" s="39">
+      <c r="N41" s="41">
         <f>AVERAGE(N7,N11,N15,N19,N23,N27,N31,N35)</f>
         <v>13.91</v>
       </c>
-      <c r="O41" s="39">
+      <c r="O41" s="41">
         <f>AVERAGE(O7,O11,O15,O19,O23,O27,O31,O35)</f>
         <v>35.5625</v>
       </c>
-      <c r="P41" s="39">
+      <c r="P41" s="41">
         <f>AVERAGE(P7,P11,P15,P19,P23,P27,P31,P35) * 1.048576</f>
         <v>6.3390351360000006</v>
       </c>
-      <c r="Q41" s="35">
+      <c r="Q41" s="37">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="30">
-        <v>0</v>
-      </c>
-      <c r="D42" s="29" t="s">
+      <c r="C42" s="32">
+        <v>0</v>
+      </c>
+      <c r="D42" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="30">
-        <v>0</v>
-      </c>
-      <c r="F42" s="29" t="s">
+      <c r="E42" s="32">
+        <v>0</v>
+      </c>
+      <c r="F42" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="G42" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I42" s="29">
+      <c r="I42" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="30">
-        <v>0</v>
-      </c>
-      <c r="D43" s="29" t="s">
+      <c r="C43" s="32">
+        <v>0</v>
+      </c>
+      <c r="D43" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="30">
-        <v>0</v>
-      </c>
-      <c r="F43" s="29" t="s">
+      <c r="E43" s="32">
+        <v>0</v>
+      </c>
+      <c r="F43" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G43" s="29" t="s">
+      <c r="G43" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I43" s="29">
+      <c r="I43" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="30">
-        <v>0</v>
-      </c>
-      <c r="D44" s="29" t="s">
+      <c r="C44" s="32">
+        <v>0</v>
+      </c>
+      <c r="D44" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="30">
-        <v>0</v>
-      </c>
-      <c r="F44" s="29" t="s">
+      <c r="E44" s="32">
+        <v>0</v>
+      </c>
+      <c r="F44" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="29">
+      <c r="I44" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="30">
-        <v>0</v>
-      </c>
-      <c r="D45" s="29" t="s">
+      <c r="C45" s="32">
+        <v>0</v>
+      </c>
+      <c r="D45" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="30">
-        <v>0</v>
-      </c>
-      <c r="F45" s="29" t="s">
+      <c r="E45" s="32">
+        <v>0</v>
+      </c>
+      <c r="F45" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G45" s="29" t="s">
+      <c r="G45" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I45" s="29">
+      <c r="I45" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E46" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F46" s="29" t="s">
+      <c r="F46" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="G46" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="H46" s="29" t="s">
+      <c r="H46" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="I46" s="29" t="s">
+      <c r="I46" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="33">
         <v>1.5E-3</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F47" s="32" t="s">
+      <c r="F47" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="G47" s="29" t="s">
+      <c r="G47" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="29" t="s">
+      <c r="H47" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="I47" s="29">
+      <c r="I47" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="33">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F48" s="32" t="s">
+      <c r="F48" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G48" s="29" t="s">
+      <c r="G48" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H48" s="29" t="s">
+      <c r="H48" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="I48" s="29">
+      <c r="I48" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="33">
         <v>1.8E-3</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="D49" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F49" s="32" t="s">
+      <c r="F49" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="29" t="s">
+      <c r="G49" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H49" s="29" t="s">
+      <c r="H49" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="I49" s="29">
+      <c r="I49" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="31">
+      <c r="C50" s="33">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D50" s="32" t="s">
+      <c r="D50" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F50" s="32" t="s">
+      <c r="F50" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G50" s="29" t="s">
+      <c r="G50" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H50" s="29" t="s">
+      <c r="H50" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="I50" s="29">
+      <c r="I50" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="30">
-        <v>0</v>
-      </c>
-      <c r="D51" s="29" t="s">
+      <c r="C51" s="32">
+        <v>0</v>
+      </c>
+      <c r="D51" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E51" s="30">
-        <v>0</v>
-      </c>
-      <c r="F51" s="29" t="s">
+      <c r="E51" s="32">
+        <v>0</v>
+      </c>
+      <c r="F51" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G51" s="29" t="s">
+      <c r="G51" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I51" s="29">
+      <c r="I51" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="30">
-        <v>0</v>
-      </c>
-      <c r="D52" s="29" t="s">
+      <c r="C52" s="32">
+        <v>0</v>
+      </c>
+      <c r="D52" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E52" s="30">
-        <v>0</v>
-      </c>
-      <c r="F52" s="29" t="s">
+      <c r="E52" s="32">
+        <v>0</v>
+      </c>
+      <c r="F52" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G52" s="29" t="s">
+      <c r="G52" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I52" s="29">
+      <c r="I52" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="30">
-        <v>0</v>
-      </c>
-      <c r="D53" s="29" t="s">
+      <c r="C53" s="32">
+        <v>0</v>
+      </c>
+      <c r="D53" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="30">
-        <v>0</v>
-      </c>
-      <c r="F53" s="29" t="s">
+      <c r="E53" s="32">
+        <v>0</v>
+      </c>
+      <c r="F53" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G53" s="29" t="s">
+      <c r="G53" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I53" s="29">
+      <c r="I53" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="30">
-        <v>0</v>
-      </c>
-      <c r="D54" s="29" t="s">
+      <c r="C54" s="32">
+        <v>0</v>
+      </c>
+      <c r="D54" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="30">
-        <v>0</v>
-      </c>
-      <c r="F54" s="29" t="s">
+      <c r="E54" s="32">
+        <v>0</v>
+      </c>
+      <c r="F54" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G54" s="29" t="s">
+      <c r="G54" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I54" s="29">
+      <c r="I54" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D55" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="29" t="s">
+      <c r="E55" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F55" s="29" t="s">
+      <c r="F55" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="G55" s="29" t="s">
+      <c r="G55" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="H55" s="29" t="s">
+      <c r="H55" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="I55" s="29" t="s">
+      <c r="I55" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="31">
+      <c r="C56" s="33">
         <v>6.6E-3</v>
       </c>
-      <c r="D56" s="32" t="s">
+      <c r="D56" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="31">
+      <c r="E56" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F56" s="32" t="s">
+      <c r="F56" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="G56" s="29" t="s">
+      <c r="G56" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="H56" s="29" t="s">
+      <c r="H56" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="I56" s="29">
+      <c r="I56" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="31">
+      <c r="C57" s="33">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="D57" s="32" t="s">
+      <c r="D57" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="E57" s="31">
+      <c r="E57" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="F57" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="G57" s="29" t="s">
+      <c r="G57" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="H57" s="29" t="s">
+      <c r="H57" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="I57" s="29">
+      <c r="I57" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="31">
+      <c r="C58" s="33">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="D58" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="E58" s="31">
+      <c r="E58" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="F58" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="G58" s="29" t="s">
+      <c r="G58" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="H58" s="29" t="s">
+      <c r="H58" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="I58" s="29">
+      <c r="I58" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="31">
+      <c r="C59" s="33">
         <v>0.14399999999999999</v>
       </c>
-      <c r="D59" s="32" t="s">
+      <c r="D59" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="E59" s="31">
+      <c r="E59" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F59" s="32" t="s">
+      <c r="F59" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G59" s="29" t="s">
+      <c r="G59" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="H59" s="29" t="s">
+      <c r="H59" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="I59" s="29">
+      <c r="I59" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="30">
-        <v>0</v>
-      </c>
-      <c r="D60" s="29" t="s">
+      <c r="C60" s="32">
+        <v>0</v>
+      </c>
+      <c r="D60" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="30">
-        <v>0</v>
-      </c>
-      <c r="F60" s="29" t="s">
+      <c r="E60" s="32">
+        <v>0</v>
+      </c>
+      <c r="F60" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G60" s="29" t="s">
+      <c r="G60" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I60" s="29">
+      <c r="I60" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="30">
-        <v>0</v>
-      </c>
-      <c r="D61" s="29" t="s">
+      <c r="C61" s="32">
+        <v>0</v>
+      </c>
+      <c r="D61" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E61" s="30">
-        <v>0</v>
-      </c>
-      <c r="F61" s="29" t="s">
+      <c r="E61" s="32">
+        <v>0</v>
+      </c>
+      <c r="F61" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G61" s="29" t="s">
+      <c r="G61" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I61" s="29">
+      <c r="I61" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="30">
-        <v>0</v>
-      </c>
-      <c r="D62" s="29" t="s">
+      <c r="C62" s="32">
+        <v>0</v>
+      </c>
+      <c r="D62" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E62" s="30">
-        <v>0</v>
-      </c>
-      <c r="F62" s="29" t="s">
+      <c r="E62" s="32">
+        <v>0</v>
+      </c>
+      <c r="F62" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G62" s="29" t="s">
+      <c r="G62" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I62" s="29">
+      <c r="I62" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="30">
-        <v>0</v>
-      </c>
-      <c r="D63" s="29" t="s">
+      <c r="C63" s="32">
+        <v>0</v>
+      </c>
+      <c r="D63" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E63" s="30">
-        <v>0</v>
-      </c>
-      <c r="F63" s="29" t="s">
+      <c r="E63" s="32">
+        <v>0</v>
+      </c>
+      <c r="F63" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G63" s="29" t="s">
+      <c r="G63" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I63" s="29">
+      <c r="I63" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="E64" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="F64" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="G64" s="29" t="s">
+      <c r="G64" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="H64" s="29" t="s">
+      <c r="H64" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="I64" s="29" t="s">
+      <c r="I64" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="31">
+      <c r="C65" s="33">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D65" s="32" t="s">
+      <c r="D65" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="E65" s="31">
+      <c r="E65" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F65" s="32" t="s">
+      <c r="F65" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="G65" s="29" t="s">
+      <c r="G65" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="H65" s="29" t="s">
+      <c r="H65" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I65" s="29">
+      <c r="I65" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="31">
+      <c r="C66" s="33">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D66" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="E66" s="31">
+      <c r="E66" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F66" s="32" t="s">
+      <c r="F66" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="G66" s="29" t="s">
+      <c r="G66" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="H66" s="29" t="s">
+      <c r="H66" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I66" s="29">
+      <c r="I66" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C67" s="31">
+      <c r="C67" s="33">
         <v>1.5E-3</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="D67" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="E67" s="31">
+      <c r="E67" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F67" s="32" t="s">
+      <c r="F67" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="29" t="s">
+      <c r="G67" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="H67" s="29" t="s">
+      <c r="H67" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I67" s="29">
+      <c r="I67" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="31">
+      <c r="C68" s="33">
         <v>1.5E-3</v>
       </c>
-      <c r="D68" s="32" t="s">
+      <c r="D68" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E68" s="31">
+      <c r="E68" s="33">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F68" s="32" t="s">
+      <c r="F68" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G68" s="29" t="s">
+      <c r="G68" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="H68" s="29" t="s">
+      <c r="H68" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="I68" s="29">
+      <c r="I68" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="30">
-        <v>0</v>
-      </c>
-      <c r="D69" s="29" t="s">
+      <c r="C69" s="32">
+        <v>0</v>
+      </c>
+      <c r="D69" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E69" s="30">
-        <v>0</v>
-      </c>
-      <c r="F69" s="29" t="s">
+      <c r="E69" s="32">
+        <v>0</v>
+      </c>
+      <c r="F69" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G69" s="29" t="s">
+      <c r="G69" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I69" s="29">
+      <c r="I69" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="30">
-        <v>0</v>
-      </c>
-      <c r="D70" s="29" t="s">
+      <c r="C70" s="32">
+        <v>0</v>
+      </c>
+      <c r="D70" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E70" s="30">
-        <v>0</v>
-      </c>
-      <c r="F70" s="29" t="s">
+      <c r="E70" s="32">
+        <v>0</v>
+      </c>
+      <c r="F70" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G70" s="29" t="s">
+      <c r="G70" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I70" s="29">
+      <c r="I70" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C71" s="30">
-        <v>0</v>
-      </c>
-      <c r="D71" s="29" t="s">
+      <c r="C71" s="32">
+        <v>0</v>
+      </c>
+      <c r="D71" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E71" s="30">
-        <v>0</v>
-      </c>
-      <c r="F71" s="29" t="s">
+      <c r="E71" s="32">
+        <v>0</v>
+      </c>
+      <c r="F71" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G71" s="29" t="s">
+      <c r="G71" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I71" s="29">
+      <c r="I71" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="29" t="s">
+      <c r="A72" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B72" s="29" t="s">
+      <c r="B72" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="30">
-        <v>0</v>
-      </c>
-      <c r="D72" s="29" t="s">
+      <c r="C72" s="32">
+        <v>0</v>
+      </c>
+      <c r="D72" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E72" s="30">
-        <v>0</v>
-      </c>
-      <c r="F72" s="29" t="s">
+      <c r="E72" s="32">
+        <v>0</v>
+      </c>
+      <c r="F72" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G72" s="29" t="s">
+      <c r="G72" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I72" s="29">
+      <c r="I72" s="31">
         <v>0</v>
       </c>
     </row>
@@ -14466,14 +15803,307 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBFCAC3-55BC-944C-B7B3-C5C9963935EC}">
-  <dimension ref="A1"/>
+  <dimension ref="C6:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="3:13" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C7" s="5"/>
+      <c r="D7" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="13">
+        <v>515.10566666666671</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="G8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="13">
+        <v>396.65933333333334</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="K8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="13">
+        <v>233.49633333333335</v>
+      </c>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="13">
+        <v>666.00411489645933</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1040.9225054652568</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="13">
+        <v>351.40972492843503</v>
+      </c>
+      <c r="I9" s="11">
+        <v>530.72116225604634</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="13">
+        <v>249.56134624881869</v>
+      </c>
+      <c r="M9" s="11">
+        <v>290.50553667361635</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="13">
+        <v>670.74682096041306</v>
+      </c>
+      <c r="E10" s="11">
+        <v>796.91455621109969</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="13">
+        <v>461.67304458513331</v>
+      </c>
+      <c r="I10" s="11">
+        <v>566.46727886794577</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="13">
+        <v>339.96199677938768</v>
+      </c>
+      <c r="M10" s="11">
+        <v>387.72318745864965</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C11" s="6"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="11"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="11"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="3:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="23">
+        <v>24.971222649755209</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="G12" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="23">
+        <v>494.64248697497646</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="K12" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="23">
+        <v>972.59089191969053</v>
+      </c>
+      <c r="M12" s="24"/>
+    </row>
+    <row r="18" spans="3:11" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="3:11" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72"/>
+    </row>
+    <row r="20" spans="3:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="C20" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="75" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C21" s="64">
+        <f>D8</f>
+        <v>515.10566666666671</v>
+      </c>
+      <c r="D21" s="65">
+        <f>D9</f>
+        <v>666.00411489645933</v>
+      </c>
+      <c r="E21" s="65">
+        <f>D10</f>
+        <v>670.74682096041306</v>
+      </c>
+      <c r="F21" s="66">
+        <f>D12</f>
+        <v>24.971222649755209</v>
+      </c>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="64">
+        <f>E9</f>
+        <v>1040.9225054652568</v>
+      </c>
+      <c r="J21" s="65">
+        <f>E10</f>
+        <v>796.91455621109969</v>
+      </c>
+      <c r="K21" s="66">
+        <f>D12</f>
+        <v>24.971222649755209</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C22" s="64">
+        <f>H8</f>
+        <v>396.65933333333334</v>
+      </c>
+      <c r="D22" s="65">
+        <f>H9</f>
+        <v>351.40972492843503</v>
+      </c>
+      <c r="E22" s="65">
+        <f>H10</f>
+        <v>461.67304458513331</v>
+      </c>
+      <c r="F22" s="66">
+        <f>H12</f>
+        <v>494.64248697497646</v>
+      </c>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="64">
+        <f>I9</f>
+        <v>530.72116225604634</v>
+      </c>
+      <c r="J22" s="63">
+        <f>I10</f>
+        <v>566.46727886794577</v>
+      </c>
+      <c r="K22" s="66">
+        <f>H12</f>
+        <v>494.64248697497646</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="67">
+        <f>L8</f>
+        <v>233.49633333333335</v>
+      </c>
+      <c r="D23" s="68">
+        <f>L9</f>
+        <v>249.56134624881869</v>
+      </c>
+      <c r="E23" s="68">
+        <f>L10</f>
+        <v>339.96199677938768</v>
+      </c>
+      <c r="F23" s="69">
+        <f>L12</f>
+        <v>972.59089191969053</v>
+      </c>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="67">
+        <f>M9</f>
+        <v>290.50553667361635</v>
+      </c>
+      <c r="J23" s="68">
+        <f>M10</f>
+        <v>387.72318745864965</v>
+      </c>
+      <c r="K23" s="69">
+        <f>L12</f>
+        <v>972.59089191969053</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="I19:K19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/LOG8430E_redis_results.xlsx
+++ b/LOG8430E_redis_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thierry/Desktop/LOG8430E_TP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9F6A5E-558E-1844-AA16-0BB266199E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4FD5A9-B7A4-174E-8321-93A824F7E098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="results" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -799,7 +800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -807,23 +808,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -835,12 +831,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
@@ -854,10 +844,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -866,16 +856,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -902,9 +889,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -917,13 +901,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -938,6 +916,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -946,15 +942,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1558,6 +1545,21 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>results!$F$21:$F$23</c:f>
@@ -1637,6 +1639,21 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>results!$F$21:$F$23</c:f>
@@ -1716,6 +1733,21 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>results!$F$21:$F$23</c:f>
@@ -1774,6 +1806,7 @@
         <c:axId val="488150128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1858,7 +1891,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="25000"/>
@@ -1894,6 +1927,7 @@
         <c:axId val="488151856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1978,7 +2012,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="25000"/>
@@ -2020,6 +2054,18 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3234,16 +3280,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3472,7 +3518,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S285"/>
+  <dimension ref="A1:R285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14:M19"/>
@@ -3485,46 +3531,46 @@
     <col min="12" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:19" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:18" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="21" t="s">
+      <c r="K2" s="62"/>
+      <c r="L2" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22" t="s">
+      <c r="M2" s="64"/>
+      <c r="N2" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="7" t="s">
+      <c r="K3" s="63"/>
+      <c r="L3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3534,26 +3580,25 @@
       <c r="C4" s="1">
         <v>40107</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <f>C16</f>
         <v>509.637</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <f>C5</f>
         <v>24.933303413369199</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3563,23 +3608,23 @@
       <c r="C5" s="1">
         <v>24.933303413369199</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="9">
         <f>C43</f>
         <v>664.84</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="18">
         <f>C56</f>
         <v>1041.1447619047599</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <f>C32</f>
         <v>24.983760555638799</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3589,23 +3634,23 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <f>C77</f>
         <v>691.10101010101005</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="18">
         <f>C90</f>
         <v>789.59045504994401</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <f>C66</f>
         <v>24.980015987210201</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -3615,20 +3660,19 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <f>C111</f>
         <v>553.28099999999995</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="11">
+      <c r="N7" s="10">
         <f>C100</f>
         <v>24.9868818870093</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -3638,23 +3682,23 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <f>C138</f>
         <v>654.22044088176301</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="18">
         <f>C151</f>
         <v>1078.9281437125701</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="10">
         <f>C127</f>
         <v>24.975024975024901</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -3664,23 +3708,23 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <f>C172</f>
         <v>722.09090909090901</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="18">
         <f>C185</f>
         <v>787.06179775280896</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="10">
         <f>C161</f>
         <v>24.977520231791299</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -3690,20 +3734,19 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <f>C206</f>
         <v>482.399</v>
       </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="11">
+      <c r="N10" s="10">
         <f>C195</f>
         <v>24.968165588874101</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -3713,23 +3756,23 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <f>C233</f>
         <v>678.95190380761505</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="18">
         <f>C246</f>
         <v>1002.6946107784401</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <f>C222</f>
         <v>24.967542195146301</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3739,23 +3782,23 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="13">
         <f>C267</f>
         <v>599.04854368932001</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="22">
         <f>C280</f>
         <v>814.091415830546</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="21">
         <f>C256</f>
         <v>24.968789013732799</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -3765,11 +3808,8 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -3780,14 +3820,14 @@
         <v>0</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="26" t="s">
+      <c r="L14" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -3797,21 +3837,19 @@
       <c r="C15" s="3">
         <v>1000</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <f>AVERAGE(L4,L7,L10)</f>
         <v>515.10566666666671</v>
       </c>
-      <c r="M15" s="11"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="55"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M15" s="10"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -3821,24 +3859,21 @@
       <c r="C16" s="3">
         <v>509.637</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="9">
         <f>AVERAGE(L5,L8,L11)</f>
         <v>666.00411489645933</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="11">
         <f>AVERAGE(M5,M8,M11)</f>
         <v>1040.9225054652568</v>
       </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="55"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -3848,24 +3883,20 @@
       <c r="C17" s="3">
         <v>133</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="13">
         <f>AVERAGE(L6,L9,L12)</f>
         <v>670.74682096041306</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="14">
         <f>AVERAGE(M6,M9,M12)</f>
         <v>796.91455621109969</v>
       </c>
-      <c r="O17" s="7"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="55"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -3876,7 +3907,7 @@
         <v>11655</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -3886,15 +3917,15 @@
       <c r="C19" s="3">
         <v>779</v>
       </c>
-      <c r="K19" s="27" t="s">
+      <c r="K19" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="25">
         <f>AVERAGE(N4:N12)</f>
         <v>24.971222649755209</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -3905,7 +3936,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -3916,7 +3947,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -3927,7 +3958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -3938,7 +3969,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -3949,7 +3980,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -3960,7 +3991,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -3971,7 +4002,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -3982,17 +4013,17 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -4003,7 +4034,7 @@
         <v>40026</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -6667,18 +6698,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="21" t="s">
+      <c r="K2" s="62"/>
+      <c r="L2" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22" t="s">
+      <c r="M2" s="64"/>
+      <c r="N2" s="19" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6686,20 +6717,20 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="7" t="s">
+      <c r="K3" s="63"/>
+      <c r="L3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="8"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -6711,21 +6742,20 @@
       <c r="C4" s="1">
         <v>2020</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <f>C16</f>
         <v>340.68900000000002</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <f>C5</f>
         <v>495.04950495049502</v>
       </c>
@@ -6740,18 +6770,18 @@
       <c r="C5" s="1">
         <v>495.04950495049502</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="9">
         <f>C43</f>
         <v>296.02783725910001</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="18">
         <f>C56</f>
         <v>474.58724202626598</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <f>C32</f>
         <v>495.29470034670601</v>
       </c>
@@ -6766,18 +6796,18 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <f>C77</f>
         <v>497.67289719626098</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="18">
         <f>C90</f>
         <v>574.41993281074997</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <f>C66</f>
         <v>493.82716049382702</v>
       </c>
@@ -6792,15 +6822,14 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <f>C111</f>
         <v>470.53100000000001</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="11">
+      <c r="N7" s="10">
         <f>C100</f>
         <v>493.58341559723499</v>
       </c>
@@ -6815,18 +6844,18 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <f>C138</f>
         <v>390.50733752620499</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="18">
         <f>C151</f>
         <v>640.86424474187299</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="10">
         <f>C127</f>
         <v>495.29470034670601</v>
       </c>
@@ -6841,18 +6870,18 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <f>C172</f>
         <v>447.4</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="18">
         <f>C185</f>
         <v>596.79337016574505</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="10">
         <f>C161</f>
         <v>495.04950495049502</v>
       </c>
@@ -6867,15 +6896,14 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <f>C206</f>
         <v>378.75799999999998</v>
       </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="11">
+      <c r="N10" s="10">
         <f>C195</f>
         <v>493.58341559723499</v>
       </c>
@@ -6890,18 +6918,18 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <f>C233</f>
         <v>367.69400000000002</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="18">
         <f>C246</f>
         <v>476.71199999999999</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <f>C222</f>
         <v>494.55984174085</v>
       </c>
@@ -6916,18 +6944,18 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="13">
         <f>C267</f>
         <v>439.94623655913898</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="22">
         <f>C280</f>
         <v>528.18853362734205</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="21">
         <f>C256</f>
         <v>495.54013875123798</v>
       </c>
@@ -6942,9 +6970,6 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -6957,10 +6982,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="26" t="s">
+      <c r="L14" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -6974,14 +6999,14 @@
       <c r="C15" s="3">
         <v>1000</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <f>AVERAGE(L4,L7,L10)</f>
         <v>396.65933333333334</v>
       </c>
-      <c r="M15" s="11"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
@@ -6993,14 +7018,14 @@
       <c r="C16" s="3">
         <v>340.68900000000002</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="9">
         <f>AVERAGE(L5,L8,L11)</f>
         <v>351.40972492843503</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="11">
         <f>AVERAGE(M5,M8,M11)</f>
         <v>530.72116225604634</v>
       </c>
@@ -7015,14 +7040,14 @@
       <c r="C17" s="3">
         <v>98</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="13">
         <f>AVERAGE(L6,L9,L12)</f>
         <v>461.67304458513331</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="14">
         <f>AVERAGE(M6,M9,M12)</f>
         <v>566.46727886794577</v>
       </c>
@@ -7048,10 +7073,10 @@
       <c r="C19" s="3">
         <v>638</v>
       </c>
-      <c r="K19" s="27" t="s">
+      <c r="K19" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="25">
         <f>AVERAGE(N4:N12)</f>
         <v>494.64248697497646</v>
       </c>
@@ -9831,18 +9856,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="21" t="s">
+      <c r="K2" s="62"/>
+      <c r="L2" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22" t="s">
+      <c r="M2" s="64"/>
+      <c r="N2" s="19" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9850,20 +9875,20 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="7" t="s">
+      <c r="K3" s="63"/>
+      <c r="L3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="8"/>
+      <c r="N3" s="7"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -9876,21 +9901,20 @@
       <c r="C4" s="1">
         <v>1022</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <f>C16</f>
         <v>237.94</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <f>C5</f>
         <v>978.47358121330706</v>
       </c>
@@ -9906,18 +9930,18 @@
       <c r="C5" s="1">
         <v>978.47358121330706</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="9">
         <f>C43</f>
         <v>260.01844262294998</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="18">
         <f>C56</f>
         <v>293.072265625</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <f>C32</f>
         <v>976.5625</v>
       </c>
@@ -9932,18 +9956,18 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <f>C77</f>
         <v>379.56521739130397</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="18">
         <f>C90</f>
         <v>432.34691629955898</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <f>C66</f>
         <v>962.46390760346401</v>
       </c>
@@ -9958,15 +9982,14 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <f>C111</f>
         <v>185.81399999999999</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="11">
+      <c r="N7" s="10">
         <f>C100</f>
         <v>972.76264591439599</v>
       </c>
@@ -9981,18 +10004,18 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <f>C138</f>
         <v>213.805555555555</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="18">
         <f>C151</f>
         <v>284.28260869565202</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="10">
         <f>C127</f>
         <v>968.99224806201505</v>
       </c>
@@ -10007,18 +10030,18 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <f>C172</f>
         <v>365.56521739130397</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="18">
         <f>C185</f>
         <v>402.30396475770902</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="10">
         <f>C161</f>
         <v>974.65886939571101</v>
       </c>
@@ -10033,15 +10056,14 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <f>C206</f>
         <v>276.73500000000001</v>
       </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="11">
+      <c r="N10" s="10">
         <f>C195</f>
         <v>981.35426889106895</v>
       </c>
@@ -10056,18 +10078,18 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <f>C233</f>
         <v>274.86004056795099</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="18">
         <f>C246</f>
         <v>294.16173570019703</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <f>C222</f>
         <v>974.65886939571101</v>
       </c>
@@ -10082,18 +10104,18 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="13">
         <f>C267</f>
         <v>274.75555555555502</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="22">
         <f>C280</f>
         <v>328.51868131868099</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="21">
         <f>C256</f>
         <v>963.39113680154105</v>
       </c>
@@ -10108,9 +10130,6 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -10123,10 +10142,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="26" t="s">
+      <c r="L14" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10140,14 +10159,14 @@
       <c r="C15" s="3">
         <v>1000</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <f>AVERAGE(L4,L7,L10)</f>
         <v>233.49633333333335</v>
       </c>
-      <c r="M15" s="11"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
@@ -10159,14 +10178,14 @@
       <c r="C16" s="3">
         <v>237.94</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="9">
         <f>AVERAGE(L5,L8,L11)</f>
         <v>249.56134624881869</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="11">
         <f>AVERAGE(M5,M8,M11)</f>
         <v>290.50553667361635</v>
       </c>
@@ -10181,14 +10200,14 @@
       <c r="C17" s="3">
         <v>72</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="13">
         <f>AVERAGE(L6,L9,L12)</f>
         <v>339.96199677938768</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="14">
         <f>AVERAGE(M6,M9,M12)</f>
         <v>387.72318745864965</v>
       </c>
@@ -10214,10 +10233,10 @@
       <c r="C19" s="3">
         <v>494</v>
       </c>
-      <c r="K19" s="27" t="s">
+      <c r="K19" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="25">
         <f>AVERAGE(N4:N12)</f>
         <v>972.59089191969053</v>
       </c>
@@ -12983,2816 +13002,2816 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125" style="31"/>
-    <col min="12" max="12" width="12.83203125" style="31" customWidth="1"/>
-    <col min="13" max="13" width="8.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.83203125" style="31" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="31"/>
+    <col min="1" max="1" width="15.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="26"/>
+    <col min="12" max="12" width="12.83203125" style="26" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" style="26" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="26" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="28">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="28">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="26">
         <v>7</v>
       </c>
-      <c r="L3" s="46"/>
-      <c r="M3" s="47" t="s">
+      <c r="L3" s="40"/>
+      <c r="M3" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="N3" s="48" t="s">
+      <c r="N3" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="O3" s="48" t="s">
+      <c r="O3" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="P3" s="48" t="s">
+      <c r="P3" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="Q3" s="49" t="s">
+      <c r="Q3" s="43" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="28">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="26">
         <v>7</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M4" s="37">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="N4" s="43">
+      <c r="N4" s="30">
         <v>9.82</v>
       </c>
-      <c r="O4" s="43">
+      <c r="O4" s="30">
         <f>S4/1024</f>
         <v>0.416015625</v>
       </c>
-      <c r="P4" s="43">
+      <c r="P4" s="30">
         <v>6.3479999999999999</v>
       </c>
-      <c r="Q4" s="36">
+      <c r="Q4" s="31">
         <v>15.55</v>
       </c>
-      <c r="S4" s="31">
+      <c r="S4" s="26">
         <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="28">
         <v>1.5E-3</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="26">
         <v>6</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L5" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5" s="37">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N5" s="43">
+      <c r="N5" s="30">
         <v>9.82</v>
       </c>
-      <c r="O5" s="43">
-        <f t="shared" ref="O5:O8" si="0">S5/1024</f>
+      <c r="O5" s="30">
+        <f>S5/1024</f>
         <v>0.3935546875</v>
       </c>
-      <c r="P5" s="43">
+      <c r="P5" s="30">
         <v>6.4340000000000002</v>
       </c>
-      <c r="Q5" s="36">
+      <c r="Q5" s="31">
         <v>15.55</v>
       </c>
-      <c r="S5" s="31">
+      <c r="S5" s="26">
         <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="32">
-        <v>0</v>
-      </c>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="27">
+        <v>0</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="32">
-        <v>0</v>
-      </c>
-      <c r="F6" s="31" t="s">
+      <c r="E6" s="27">
+        <v>0</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="31">
-        <v>0</v>
-      </c>
-      <c r="L6" s="50" t="s">
+      <c r="I6" s="26">
+        <v>0</v>
+      </c>
+      <c r="L6" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="37">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="30">
         <v>9.82</v>
       </c>
-      <c r="O6" s="43">
-        <f t="shared" si="0"/>
+      <c r="O6" s="30">
+        <f>S6/1024</f>
         <v>0.4052734375</v>
       </c>
-      <c r="P6" s="43">
+      <c r="P6" s="30">
         <v>6.43</v>
       </c>
-      <c r="Q6" s="36">
+      <c r="Q6" s="31">
         <v>15.55</v>
       </c>
-      <c r="S6" s="31">
+      <c r="S6" s="26">
         <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="32">
-        <v>0</v>
-      </c>
-      <c r="D7" s="31" t="s">
+      <c r="C7" s="27">
+        <v>0</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="32">
-        <v>0</v>
-      </c>
-      <c r="F7" s="31" t="s">
+      <c r="E7" s="27">
+        <v>0</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="31">
-        <v>0</v>
-      </c>
-      <c r="L7" s="50" t="s">
+      <c r="I7" s="26">
+        <v>0</v>
+      </c>
+      <c r="L7" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="37">
         <v>1.5E-3</v>
       </c>
-      <c r="N7" s="43">
+      <c r="N7" s="30">
         <v>12.2</v>
       </c>
-      <c r="O7" s="43">
+      <c r="O7" s="30">
         <v>32.5</v>
       </c>
-      <c r="P7" s="43">
+      <c r="P7" s="30">
         <v>5.883</v>
       </c>
-      <c r="Q7" s="36">
+      <c r="Q7" s="31">
         <v>15.55</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="32">
-        <v>0</v>
-      </c>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="27">
+        <v>0</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="32">
-        <v>0</v>
-      </c>
-      <c r="F8" s="31" t="s">
+      <c r="E8" s="27">
+        <v>0</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="31">
-        <v>0</v>
-      </c>
-      <c r="L8" s="50" t="s">
+      <c r="I8" s="26">
+        <v>0</v>
+      </c>
+      <c r="L8" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="37">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N8" s="43">
+      <c r="N8" s="30">
         <v>10</v>
       </c>
-      <c r="O8" s="43">
+      <c r="O8" s="30">
         <f>S8/1024</f>
         <v>0.4462890625</v>
       </c>
-      <c r="P8" s="43">
+      <c r="P8" s="30">
         <v>6.18</v>
       </c>
-      <c r="Q8" s="36">
+      <c r="Q8" s="31">
         <v>15.55</v>
       </c>
-      <c r="S8" s="31">
+      <c r="S8" s="26">
         <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="32">
-        <v>0</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="C9" s="27">
+        <v>0</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="32">
-        <v>0</v>
-      </c>
-      <c r="F9" s="31" t="s">
+      <c r="E9" s="27">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="31">
-        <v>0</v>
-      </c>
-      <c r="L9" s="50" t="s">
+      <c r="I9" s="26">
+        <v>0</v>
+      </c>
+      <c r="L9" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9" s="37">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N9" s="43">
+      <c r="N9" s="30">
         <v>10</v>
       </c>
-      <c r="O9" s="43">
-        <f t="shared" ref="O9:O10" si="1">S9/1024</f>
+      <c r="O9" s="30">
+        <f>S9/1024</f>
         <v>0.4228515625</v>
       </c>
-      <c r="P9" s="43">
+      <c r="P9" s="30">
         <v>6.0819999999999999</v>
       </c>
-      <c r="Q9" s="36">
+      <c r="Q9" s="31">
         <v>15.55</v>
       </c>
-      <c r="S9" s="31">
+      <c r="S9" s="26">
         <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="50" t="s">
+      <c r="L10" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="M10" s="42">
+      <c r="M10" s="37">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N10" s="43">
+      <c r="N10" s="30">
         <v>10</v>
       </c>
-      <c r="O10" s="43">
-        <f t="shared" si="1"/>
+      <c r="O10" s="30">
+        <f>S10/1024</f>
         <v>0.4345703125</v>
       </c>
-      <c r="P10" s="43">
+      <c r="P10" s="30">
         <v>6.109</v>
       </c>
-      <c r="Q10" s="36">
+      <c r="Q10" s="31">
         <v>15.55</v>
       </c>
-      <c r="S10" s="31">
+      <c r="S10" s="26">
         <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="28">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="26">
         <v>7</v>
       </c>
-      <c r="L11" s="50" t="s">
+      <c r="L11" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11" s="37">
         <v>1.5E-3</v>
       </c>
-      <c r="N11" s="43">
+      <c r="N11" s="30">
         <v>12.6</v>
       </c>
-      <c r="O11" s="43">
+      <c r="O11" s="30">
         <v>35.299999999999997</v>
       </c>
-      <c r="P11" s="43">
+      <c r="P11" s="30">
         <v>5.9219999999999997</v>
       </c>
-      <c r="Q11" s="36">
+      <c r="Q11" s="31">
         <v>15.55</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="28">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="26">
         <v>7</v>
       </c>
-      <c r="L12" s="50" t="s">
+      <c r="L12" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12" s="37">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N12" s="43">
+      <c r="N12" s="30">
         <v>10</v>
       </c>
-      <c r="O12" s="43">
+      <c r="O12" s="30">
         <f>S12/1024</f>
         <v>0.4462890625</v>
       </c>
-      <c r="P12" s="43">
+      <c r="P12" s="30">
         <v>6.18</v>
       </c>
-      <c r="Q12" s="36">
+      <c r="Q12" s="31">
         <v>15.55</v>
       </c>
-      <c r="S12" s="31">
+      <c r="S12" s="26">
         <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="28">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="26">
         <v>7</v>
       </c>
-      <c r="L13" s="50" t="s">
+      <c r="L13" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="M13" s="42">
+      <c r="M13" s="37">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N13" s="43">
+      <c r="N13" s="30">
         <v>10</v>
       </c>
-      <c r="O13" s="43">
-        <f t="shared" ref="O13:O14" si="2">S13/1024</f>
+      <c r="O13" s="30">
+        <f>S13/1024</f>
         <v>0.423828125</v>
       </c>
-      <c r="P13" s="43">
+      <c r="P13" s="30">
         <v>6.0819999999999999</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="Q13" s="31">
         <v>15.55</v>
       </c>
-      <c r="S13" s="31">
+      <c r="S13" s="26">
         <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="28">
         <v>1.5E-3</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="26">
         <v>6</v>
       </c>
-      <c r="L14" s="50" t="s">
+      <c r="L14" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="M14" s="42">
+      <c r="M14" s="37">
         <v>1.5E-3</v>
       </c>
-      <c r="N14" s="43">
+      <c r="N14" s="30">
         <v>10</v>
       </c>
-      <c r="O14" s="43">
-        <f t="shared" si="2"/>
+      <c r="O14" s="30">
+        <f>S14/1024</f>
         <v>0.4345703125</v>
       </c>
-      <c r="P14" s="43">
+      <c r="P14" s="30">
         <v>6.109</v>
       </c>
-      <c r="Q14" s="36">
+      <c r="Q14" s="31">
         <v>15.55</v>
       </c>
-      <c r="S14" s="31">
+      <c r="S14" s="26">
         <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="32">
-        <v>0</v>
-      </c>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="27">
+        <v>0</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="32">
-        <v>0</v>
-      </c>
-      <c r="F15" s="31" t="s">
+      <c r="E15" s="27">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="31">
-        <v>0</v>
-      </c>
-      <c r="L15" s="50" t="s">
+      <c r="I15" s="26">
+        <v>0</v>
+      </c>
+      <c r="L15" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="M15" s="42">
+      <c r="M15" s="37">
         <v>1.5E-3</v>
       </c>
-      <c r="N15" s="43">
+      <c r="N15" s="30">
         <v>12.6</v>
       </c>
-      <c r="O15" s="43">
+      <c r="O15" s="30">
         <v>35.299999999999997</v>
       </c>
-      <c r="P15" s="43">
+      <c r="P15" s="30">
         <v>5.9219999999999997</v>
       </c>
-      <c r="Q15" s="36">
+      <c r="Q15" s="31">
         <v>15.55</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="32">
-        <v>0</v>
-      </c>
-      <c r="D16" s="31" t="s">
+      <c r="C16" s="27">
+        <v>0</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="32">
-        <v>0</v>
-      </c>
-      <c r="F16" s="31" t="s">
+      <c r="E16" s="27">
+        <v>0</v>
+      </c>
+      <c r="F16" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="31">
-        <v>0</v>
-      </c>
-      <c r="L16" s="50" t="s">
+      <c r="I16" s="26">
+        <v>0</v>
+      </c>
+      <c r="L16" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="M16" s="42">
+      <c r="M16" s="37">
         <v>1.9E-3</v>
       </c>
-      <c r="N16" s="43">
+      <c r="N16" s="30">
         <v>11.3</v>
       </c>
-      <c r="O16" s="43">
+      <c r="O16" s="30">
         <f>S16/1024</f>
         <v>0.4794921875</v>
       </c>
-      <c r="P16" s="43">
+      <c r="P16" s="30">
         <v>6.4139999999999997</v>
       </c>
-      <c r="Q16" s="36">
+      <c r="Q16" s="31">
         <v>15.55</v>
       </c>
-      <c r="S16" s="31">
+      <c r="S16" s="26">
         <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="32">
-        <v>0</v>
-      </c>
-      <c r="D17" s="31" t="s">
+      <c r="C17" s="27">
+        <v>0</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="32">
-        <v>0</v>
-      </c>
-      <c r="F17" s="31" t="s">
+      <c r="E17" s="27">
+        <v>0</v>
+      </c>
+      <c r="F17" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="31">
-        <v>0</v>
-      </c>
-      <c r="L17" s="50" t="s">
+      <c r="I17" s="26">
+        <v>0</v>
+      </c>
+      <c r="L17" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="M17" s="42">
+      <c r="M17" s="37">
         <v>1.9E-3</v>
       </c>
-      <c r="N17" s="43">
+      <c r="N17" s="30">
         <v>11.3</v>
       </c>
-      <c r="O17" s="43">
-        <f t="shared" ref="O17:O18" si="3">S17/1024</f>
+      <c r="O17" s="30">
+        <f>S17/1024</f>
         <v>0.45703125</v>
       </c>
-      <c r="P17" s="43">
+      <c r="P17" s="30">
         <v>6.48</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="31">
         <v>15.55</v>
       </c>
-      <c r="S17" s="31">
+      <c r="S17" s="26">
         <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="32">
-        <v>0</v>
-      </c>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="27">
+        <v>0</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="32">
-        <v>0</v>
-      </c>
-      <c r="F18" s="31" t="s">
+      <c r="E18" s="27">
+        <v>0</v>
+      </c>
+      <c r="F18" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="31">
-        <v>0</v>
-      </c>
-      <c r="L18" s="50" t="s">
+      <c r="I18" s="26">
+        <v>0</v>
+      </c>
+      <c r="L18" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="M18" s="42">
+      <c r="M18" s="37">
         <v>2E-3</v>
       </c>
-      <c r="N18" s="43">
+      <c r="N18" s="30">
         <v>11.3</v>
       </c>
-      <c r="O18" s="43">
-        <f t="shared" si="3"/>
+      <c r="O18" s="30">
+        <f>S18/1024</f>
         <v>0.466796875</v>
       </c>
-      <c r="P18" s="43">
+      <c r="P18" s="30">
         <v>6.492</v>
       </c>
-      <c r="Q18" s="36">
+      <c r="Q18" s="31">
         <v>15.55</v>
       </c>
-      <c r="S18" s="31">
+      <c r="S18" s="26">
         <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="I19" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="50" t="s">
+      <c r="L19" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="M19" s="42">
+      <c r="M19" s="37">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="N19" s="43">
+      <c r="N19" s="30">
         <v>14.1</v>
       </c>
-      <c r="O19" s="43">
+      <c r="O19" s="30">
         <v>39.4</v>
       </c>
-      <c r="P19" s="43">
+      <c r="P19" s="30">
         <v>6.125</v>
       </c>
-      <c r="Q19" s="36">
+      <c r="Q19" s="31">
         <v>15.55</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="28">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="26">
         <v>7</v>
       </c>
-      <c r="L20" s="50" t="s">
+      <c r="L20" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="37">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="N20" s="43">
+      <c r="N20" s="30">
         <v>11.3</v>
       </c>
-      <c r="O20" s="43">
+      <c r="O20" s="30">
         <f>S20/1024</f>
         <v>0.48046875</v>
       </c>
-      <c r="P20" s="43">
+      <c r="P20" s="30">
         <v>6.0620000000000003</v>
       </c>
-      <c r="Q20" s="36">
+      <c r="Q20" s="31">
         <v>15.55</v>
       </c>
-      <c r="S20" s="31">
+      <c r="S20" s="26">
         <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="28">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="26">
         <v>7</v>
       </c>
-      <c r="L21" s="50" t="s">
+      <c r="L21" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="M21" s="42">
+      <c r="M21" s="37">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="N21" s="43">
+      <c r="N21" s="30">
         <v>11.3</v>
       </c>
-      <c r="O21" s="43">
-        <f t="shared" ref="O21:O22" si="4">S21/1024</f>
+      <c r="O21" s="30">
+        <f>S21/1024</f>
         <v>0.45703125</v>
       </c>
-      <c r="P21" s="43">
+      <c r="P21" s="30">
         <v>6.0350000000000001</v>
       </c>
-      <c r="Q21" s="36">
+      <c r="Q21" s="31">
         <v>15.55</v>
       </c>
-      <c r="S21" s="31">
+      <c r="S21" s="26">
         <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="28">
         <v>1.5E-3</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="H22" s="31" t="s">
+      <c r="H22" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="26">
         <v>7</v>
       </c>
-      <c r="L22" s="50" t="s">
+      <c r="L22" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="37">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N22" s="43">
+      <c r="N22" s="30">
         <v>11.3</v>
       </c>
-      <c r="O22" s="43">
-        <f t="shared" si="4"/>
+      <c r="O22" s="30">
+        <f>S22/1024</f>
         <v>0.4677734375</v>
       </c>
-      <c r="P22" s="43">
+      <c r="P22" s="30">
         <v>6.0549999999999997</v>
       </c>
-      <c r="Q22" s="36">
+      <c r="Q22" s="31">
         <v>15.55</v>
       </c>
-      <c r="S22" s="31">
+      <c r="S22" s="26">
         <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="28">
         <v>1.5E-3</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="26">
         <v>6</v>
       </c>
-      <c r="L23" s="50" t="s">
+      <c r="L23" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="M23" s="42">
+      <c r="M23" s="37">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="N23" s="43">
+      <c r="N23" s="30">
         <v>14.2</v>
       </c>
-      <c r="O23" s="43">
+      <c r="O23" s="30">
         <v>40.700000000000003</v>
       </c>
-      <c r="P23" s="43">
+      <c r="P23" s="30">
         <v>6.1210000000000004</v>
       </c>
-      <c r="Q23" s="36">
+      <c r="Q23" s="31">
         <v>15.55</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="32">
-        <v>0</v>
-      </c>
-      <c r="D24" s="31" t="s">
+      <c r="C24" s="27">
+        <v>0</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="32">
-        <v>0</v>
-      </c>
-      <c r="F24" s="31" t="s">
+      <c r="E24" s="27">
+        <v>0</v>
+      </c>
+      <c r="F24" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="31">
-        <v>0</v>
-      </c>
-      <c r="L24" s="50" t="s">
+      <c r="I24" s="26">
+        <v>0</v>
+      </c>
+      <c r="L24" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="M24" s="42">
+      <c r="M24" s="37">
         <v>1.5E-3</v>
       </c>
-      <c r="N24" s="43">
+      <c r="N24" s="30">
         <v>11.3</v>
       </c>
-      <c r="O24" s="43">
+      <c r="O24" s="30">
         <f>S24/1024</f>
         <v>0.48046875</v>
       </c>
-      <c r="P24" s="43">
+      <c r="P24" s="30">
         <v>6.0620000000000003</v>
       </c>
-      <c r="Q24" s="36">
+      <c r="Q24" s="31">
         <v>15.55</v>
       </c>
-      <c r="S24" s="31">
+      <c r="S24" s="26">
         <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="32">
-        <v>0</v>
-      </c>
-      <c r="D25" s="31" t="s">
+      <c r="C25" s="27">
+        <v>0</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="32">
-        <v>0</v>
-      </c>
-      <c r="F25" s="31" t="s">
+      <c r="E25" s="27">
+        <v>0</v>
+      </c>
+      <c r="F25" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="31" t="s">
+      <c r="G25" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="31">
-        <v>0</v>
-      </c>
-      <c r="L25" s="50" t="s">
+      <c r="I25" s="26">
+        <v>0</v>
+      </c>
+      <c r="L25" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="M25" s="42">
+      <c r="M25" s="37">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N25" s="43">
+      <c r="N25" s="30">
         <v>11.3</v>
       </c>
-      <c r="O25" s="43">
-        <f t="shared" ref="O25:O26" si="5">S25/1024</f>
+      <c r="O25" s="30">
+        <f>S25/1024</f>
         <v>0.4580078125</v>
       </c>
-      <c r="P25" s="43">
+      <c r="P25" s="30">
         <v>6.0350000000000001</v>
       </c>
-      <c r="Q25" s="36">
+      <c r="Q25" s="31">
         <v>15.55</v>
       </c>
-      <c r="S25" s="31">
+      <c r="S25" s="26">
         <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="32">
-        <v>0</v>
-      </c>
-      <c r="D26" s="31" t="s">
+      <c r="C26" s="27">
+        <v>0</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="32">
-        <v>0</v>
-      </c>
-      <c r="F26" s="31" t="s">
+      <c r="E26" s="27">
+        <v>0</v>
+      </c>
+      <c r="F26" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="31">
-        <v>0</v>
-      </c>
-      <c r="L26" s="50" t="s">
+      <c r="I26" s="26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="37">
         <v>1.8E-3</v>
       </c>
-      <c r="N26" s="43">
+      <c r="N26" s="30">
         <v>11.3</v>
       </c>
-      <c r="O26" s="43">
-        <f t="shared" si="5"/>
+      <c r="O26" s="30">
+        <f>S26/1024</f>
         <v>0.4677734375</v>
       </c>
-      <c r="P26" s="43">
+      <c r="P26" s="30">
         <v>6.0549999999999997</v>
       </c>
-      <c r="Q26" s="36">
+      <c r="Q26" s="31">
         <v>15.55</v>
       </c>
-      <c r="S26" s="31">
+      <c r="S26" s="26">
         <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="32">
-        <v>0</v>
-      </c>
-      <c r="D27" s="31" t="s">
+      <c r="C27" s="27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="32">
-        <v>0</v>
-      </c>
-      <c r="F27" s="31" t="s">
+      <c r="E27" s="27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="31">
-        <v>0</v>
-      </c>
-      <c r="L27" s="50" t="s">
+      <c r="I27" s="26">
+        <v>0</v>
+      </c>
+      <c r="L27" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="M27" s="42">
+      <c r="M27" s="37">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N27" s="43">
+      <c r="N27" s="30">
         <v>14.2</v>
       </c>
-      <c r="O27" s="43">
+      <c r="O27" s="30">
         <v>40.700000000000003</v>
       </c>
-      <c r="P27" s="43">
+      <c r="P27" s="30">
         <v>6.1210000000000004</v>
       </c>
-      <c r="Q27" s="36">
+      <c r="Q27" s="31">
         <v>15.55</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="31" t="s">
+      <c r="G28" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="H28" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="I28" s="31" t="s">
+      <c r="I28" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="50" t="s">
+      <c r="L28" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="M28" s="42">
+      <c r="M28" s="37">
         <v>6.6E-3</v>
       </c>
-      <c r="N28" s="43">
+      <c r="N28" s="30">
         <v>12.7</v>
       </c>
-      <c r="O28" s="43">
+      <c r="O28" s="30">
         <f>S28/1024</f>
         <v>0.486328125</v>
       </c>
-      <c r="P28" s="43">
+      <c r="P28" s="30">
         <v>6.359</v>
       </c>
-      <c r="Q28" s="36">
+      <c r="Q28" s="31">
         <v>15.55</v>
       </c>
-      <c r="S28" s="31">
+      <c r="S28" s="26">
         <v>498</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="28">
         <v>1.9E-3</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="I29" s="31">
+      <c r="I29" s="26">
         <v>7</v>
       </c>
-      <c r="L29" s="50" t="s">
+      <c r="L29" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="M29" s="42">
+      <c r="M29" s="37">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="N29" s="43">
+      <c r="N29" s="30">
         <v>12.7</v>
       </c>
-      <c r="O29" s="43">
-        <f t="shared" ref="O29:O30" si="6">S29/1024</f>
+      <c r="O29" s="30">
+        <f>S29/1024</f>
         <v>0.4921875</v>
       </c>
-      <c r="P29" s="43">
+      <c r="P29" s="30">
         <v>6.383</v>
       </c>
-      <c r="Q29" s="36">
+      <c r="Q29" s="31">
         <v>15.55</v>
       </c>
-      <c r="S29" s="31">
+      <c r="S29" s="26">
         <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="28">
         <v>1.9E-3</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G30" s="31" t="s">
+      <c r="G30" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="H30" s="31" t="s">
+      <c r="H30" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="31">
+      <c r="I30" s="26">
         <v>7</v>
       </c>
-      <c r="L30" s="50" t="s">
+      <c r="L30" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="M30" s="42">
+      <c r="M30" s="37">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="N30" s="43">
+      <c r="N30" s="30">
         <v>12.7</v>
       </c>
-      <c r="O30" s="43">
-        <f t="shared" si="6"/>
+      <c r="O30" s="30">
+        <f>S30/1024</f>
         <v>0.5029296875</v>
       </c>
-      <c r="P30" s="43">
+      <c r="P30" s="30">
         <v>6.391</v>
       </c>
-      <c r="Q30" s="36">
+      <c r="Q30" s="31">
         <v>15.55</v>
       </c>
-      <c r="S30" s="31">
+      <c r="S30" s="26">
         <v>515</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="28">
         <v>2E-3</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="H31" s="31" t="s">
+      <c r="H31" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="I31" s="31">
+      <c r="I31" s="26">
         <v>7</v>
       </c>
-      <c r="L31" s="50" t="s">
+      <c r="L31" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="M31" s="42">
+      <c r="M31" s="37">
         <v>0.14399999999999999</v>
       </c>
-      <c r="N31" s="43">
+      <c r="N31" s="30">
         <v>15.58</v>
       </c>
-      <c r="O31" s="43">
+      <c r="O31" s="30">
         <v>44.8</v>
       </c>
-      <c r="P31" s="43">
+      <c r="P31" s="30">
         <v>6.1479999999999997</v>
       </c>
-      <c r="Q31" s="36">
+      <c r="Q31" s="31">
         <v>15.55</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="28">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="G32" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H32" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="I32" s="31">
+      <c r="I32" s="26">
         <v>6</v>
       </c>
-      <c r="L32" s="50" t="s">
+      <c r="L32" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="M32" s="42">
+      <c r="M32" s="37">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N32" s="43">
+      <c r="N32" s="30">
         <v>12.7</v>
       </c>
-      <c r="O32" s="43">
+      <c r="O32" s="30">
         <f>S32/1024</f>
         <v>0.5166015625</v>
       </c>
-      <c r="P32" s="43">
+      <c r="P32" s="30">
         <v>6.359</v>
       </c>
-      <c r="Q32" s="36">
+      <c r="Q32" s="31">
         <v>15.55</v>
       </c>
-      <c r="S32" s="31">
+      <c r="S32" s="26">
         <v>529</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="32">
-        <v>0</v>
-      </c>
-      <c r="D33" s="31" t="s">
+      <c r="C33" s="27">
+        <v>0</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="32">
-        <v>0</v>
-      </c>
-      <c r="F33" s="31" t="s">
+      <c r="E33" s="27">
+        <v>0</v>
+      </c>
+      <c r="F33" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I33" s="31">
-        <v>0</v>
-      </c>
-      <c r="L33" s="50" t="s">
+      <c r="I33" s="26">
+        <v>0</v>
+      </c>
+      <c r="L33" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="M33" s="42">
+      <c r="M33" s="37">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N33" s="43">
+      <c r="N33" s="30">
         <v>12.7</v>
       </c>
-      <c r="O33" s="43">
-        <f t="shared" ref="O33:O34" si="7">S33/1024</f>
+      <c r="O33" s="30">
+        <f>S33/1024</f>
         <v>0.4931640625</v>
       </c>
-      <c r="P33" s="43">
+      <c r="P33" s="30">
         <v>6.3550000000000004</v>
       </c>
-      <c r="Q33" s="36">
+      <c r="Q33" s="31">
         <v>15.55</v>
       </c>
-      <c r="S33" s="31">
+      <c r="S33" s="26">
         <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="32">
-        <v>0</v>
-      </c>
-      <c r="D34" s="31" t="s">
+      <c r="C34" s="27">
+        <v>0</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="32">
-        <v>0</v>
-      </c>
-      <c r="F34" s="31" t="s">
+      <c r="E34" s="27">
+        <v>0</v>
+      </c>
+      <c r="F34" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="31" t="s">
+      <c r="G34" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="31">
-        <v>0</v>
-      </c>
-      <c r="L34" s="50" t="s">
+      <c r="I34" s="26">
+        <v>0</v>
+      </c>
+      <c r="L34" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="M34" s="42">
+      <c r="M34" s="37">
         <v>1.5E-3</v>
       </c>
-      <c r="N34" s="43">
+      <c r="N34" s="30">
         <v>12.7</v>
       </c>
-      <c r="O34" s="43">
-        <f t="shared" si="7"/>
+      <c r="O34" s="30">
+        <f>S34/1024</f>
         <v>0.5029296875</v>
       </c>
-      <c r="P34" s="43">
+      <c r="P34" s="30">
         <v>6.3630000000000004</v>
       </c>
-      <c r="Q34" s="36">
+      <c r="Q34" s="31">
         <v>15.55</v>
       </c>
-      <c r="S34" s="31">
+      <c r="S34" s="26">
         <v>515</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="32">
-        <v>0</v>
-      </c>
-      <c r="D35" s="31" t="s">
+      <c r="C35" s="27">
+        <v>0</v>
+      </c>
+      <c r="D35" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="32">
-        <v>0</v>
-      </c>
-      <c r="F35" s="31" t="s">
+      <c r="E35" s="27">
+        <v>0</v>
+      </c>
+      <c r="F35" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G35" s="31" t="s">
+      <c r="G35" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I35" s="31">
-        <v>0</v>
-      </c>
-      <c r="L35" s="51" t="s">
+      <c r="I35" s="26">
+        <v>0</v>
+      </c>
+      <c r="L35" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="M35" s="44">
+      <c r="M35" s="38">
         <v>1.5E-3</v>
       </c>
-      <c r="N35" s="45">
+      <c r="N35" s="39">
         <v>15.8</v>
       </c>
-      <c r="O35" s="45">
+      <c r="O35" s="39">
         <v>15.8</v>
       </c>
-      <c r="P35" s="45">
+      <c r="P35" s="39">
         <v>6.1210000000000004</v>
       </c>
-      <c r="Q35" s="37">
+      <c r="Q35" s="32">
         <v>15.55</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="32">
-        <v>0</v>
-      </c>
-      <c r="D36" s="31" t="s">
+      <c r="C36" s="27">
+        <v>0</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="32">
-        <v>0</v>
-      </c>
-      <c r="F36" s="31" t="s">
+      <c r="E36" s="27">
+        <v>0</v>
+      </c>
+      <c r="F36" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="31" t="s">
+      <c r="G36" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I36" s="31">
-        <v>0</v>
-      </c>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
+      <c r="I36" s="26">
+        <v>0</v>
+      </c>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
     </row>
     <row r="37" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="31" t="s">
+      <c r="F37" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="31" t="s">
+      <c r="G37" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="31" t="s">
+      <c r="H37" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="I37" s="31" t="s">
+      <c r="I37" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="L37" s="46"/>
-      <c r="M37" s="47" t="s">
+      <c r="L37" s="40"/>
+      <c r="M37" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="N37" s="48" t="s">
+      <c r="N37" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="O37" s="48" t="s">
+      <c r="O37" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="P37" s="48" t="s">
+      <c r="P37" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="Q37" s="49" t="s">
+      <c r="Q37" s="43" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="28">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E38" s="33">
+      <c r="E38" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G38" s="31" t="s">
+      <c r="G38" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="H38" s="31" t="s">
+      <c r="H38" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="I38" s="31">
+      <c r="I38" s="26">
         <v>7</v>
       </c>
-      <c r="L38" s="52" t="s">
+      <c r="L38" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="M38" s="38">
+      <c r="M38" s="33">
         <f>AVERAGE(M6,M10,M14,M18,M22,M26,M30,M34)</f>
         <v>9.0124999999999997E-3</v>
       </c>
-      <c r="N38" s="39">
+      <c r="N38" s="34">
         <f>AVERAGE(N6,N10,N14,N18,N22,N26,N30,N34)</f>
         <v>11.14</v>
       </c>
-      <c r="O38" s="39">
+      <c r="O38" s="34">
         <f>AVERAGE(O6,O10,O14,O18,O22,O26,O30,O34)</f>
         <v>0.4603271484375</v>
       </c>
-      <c r="P38" s="39">
+      <c r="P38" s="34">
         <f>AVERAGE(P6,P10,P14,P18,P22,P26,P30,P34) * 1.048576</f>
         <v>6.5541242879999997</v>
       </c>
-      <c r="Q38" s="36">
+      <c r="Q38" s="31">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="28">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="33">
+      <c r="E39" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F39" s="34" t="s">
+      <c r="F39" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G39" s="31" t="s">
+      <c r="G39" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="H39" s="31" t="s">
+      <c r="H39" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="I39" s="31">
+      <c r="I39" s="26">
         <v>7</v>
       </c>
-      <c r="L39" s="52" t="s">
+      <c r="L39" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="M39" s="38">
+      <c r="M39" s="33">
         <f>AVERAGE(M5,M9,M13,M17,M21,M25,M29,M33)</f>
         <v>9.4375000000000014E-3</v>
       </c>
-      <c r="N39" s="39">
+      <c r="N39" s="34">
         <f>AVERAGE(N5,N9,N13,N17,N21,N25,N29,N33)</f>
         <v>11.14</v>
       </c>
-      <c r="O39" s="39">
+      <c r="O39" s="34">
         <f>AVERAGE(O5,O9,O13,O17,O21,O25,O29,O33)</f>
         <v>0.44970703125</v>
       </c>
-      <c r="P39" s="39">
+      <c r="P39" s="34">
         <f>AVERAGE(P5,P9,P13,P17,P21,P25,P29,P33) * 1.048576</f>
         <v>6.5386577919999995</v>
       </c>
-      <c r="Q39" s="36">
+      <c r="Q39" s="31">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="28">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F40" s="34" t="s">
+      <c r="F40" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="G40" s="31" t="s">
+      <c r="G40" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="H40" s="31" t="s">
+      <c r="H40" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="I40" s="31">
+      <c r="I40" s="26">
         <v>7</v>
       </c>
-      <c r="L40" s="52" t="s">
+      <c r="L40" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="M40" s="38">
+      <c r="M40" s="33">
         <f>AVERAGE(M4,M8,M12,M16,M20,M24,M28,M32)</f>
         <v>2.2875E-3</v>
       </c>
-      <c r="N40" s="39">
+      <c r="N40" s="34">
         <f>AVERAGE(N4,N8,N12,N16,N20,N24,N28,N32)</f>
         <v>11.14</v>
       </c>
-      <c r="O40" s="39">
+      <c r="O40" s="34">
         <f>AVERAGE(O4,O8,O12,O16,O20,O24,O28,O32)</f>
         <v>0.468994140625</v>
       </c>
-      <c r="P40" s="39">
+      <c r="P40" s="34">
         <f>AVERAGE(P4,P8,P12,P16,P20,P24,P28,P32) * 1.048576</f>
         <v>6.5488814080000006</v>
       </c>
-      <c r="Q40" s="36">
+      <c r="Q40" s="31">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C41" s="28">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="F41" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="G41" s="31" t="s">
+      <c r="G41" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="H41" s="31" t="s">
+      <c r="H41" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="I41" s="31">
+      <c r="I41" s="26">
         <v>6</v>
       </c>
-      <c r="L41" s="53" t="s">
+      <c r="L41" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="M41" s="40">
+      <c r="M41" s="35">
         <f>AVERAGE(M7,M11,M15,M19,M23,M27,M31,M35)</f>
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="N41" s="41">
+      <c r="N41" s="36">
         <f>AVERAGE(N7,N11,N15,N19,N23,N27,N31,N35)</f>
         <v>13.91</v>
       </c>
-      <c r="O41" s="41">
+      <c r="O41" s="36">
         <f>AVERAGE(O7,O11,O15,O19,O23,O27,O31,O35)</f>
         <v>35.5625</v>
       </c>
-      <c r="P41" s="41">
+      <c r="P41" s="36">
         <f>AVERAGE(P7,P11,P15,P19,P23,P27,P31,P35) * 1.048576</f>
         <v>6.3390351360000006</v>
       </c>
-      <c r="Q41" s="37">
+      <c r="Q41" s="32">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="32">
-        <v>0</v>
-      </c>
-      <c r="D42" s="31" t="s">
+      <c r="C42" s="27">
+        <v>0</v>
+      </c>
+      <c r="D42" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="32">
-        <v>0</v>
-      </c>
-      <c r="F42" s="31" t="s">
+      <c r="E42" s="27">
+        <v>0</v>
+      </c>
+      <c r="F42" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="31" t="s">
+      <c r="G42" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I42" s="31">
+      <c r="I42" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="32">
-        <v>0</v>
-      </c>
-      <c r="D43" s="31" t="s">
+      <c r="C43" s="27">
+        <v>0</v>
+      </c>
+      <c r="D43" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="32">
-        <v>0</v>
-      </c>
-      <c r="F43" s="31" t="s">
+      <c r="E43" s="27">
+        <v>0</v>
+      </c>
+      <c r="F43" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G43" s="31" t="s">
+      <c r="G43" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I43" s="31">
+      <c r="I43" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="32">
-        <v>0</v>
-      </c>
-      <c r="D44" s="31" t="s">
+      <c r="C44" s="27">
+        <v>0</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="32">
-        <v>0</v>
-      </c>
-      <c r="F44" s="31" t="s">
+      <c r="E44" s="27">
+        <v>0</v>
+      </c>
+      <c r="F44" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G44" s="31" t="s">
+      <c r="G44" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="31">
+      <c r="I44" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="32">
-        <v>0</v>
-      </c>
-      <c r="D45" s="31" t="s">
+      <c r="C45" s="27">
+        <v>0</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="32">
-        <v>0</v>
-      </c>
-      <c r="F45" s="31" t="s">
+      <c r="E45" s="27">
+        <v>0</v>
+      </c>
+      <c r="F45" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G45" s="31" t="s">
+      <c r="G45" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I45" s="31">
+      <c r="I45" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="E46" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F46" s="31" t="s">
+      <c r="F46" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="G46" s="31" t="s">
+      <c r="G46" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="H46" s="31" t="s">
+      <c r="H46" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="I46" s="31" t="s">
+      <c r="I46" s="26" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="33">
+      <c r="C47" s="28">
         <v>1.5E-3</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E47" s="33">
+      <c r="E47" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F47" s="34" t="s">
+      <c r="F47" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G47" s="31" t="s">
+      <c r="G47" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="31" t="s">
+      <c r="H47" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="I47" s="31">
+      <c r="I47" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="33">
+      <c r="C48" s="28">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="E48" s="33">
+      <c r="E48" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F48" s="34" t="s">
+      <c r="F48" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="G48" s="31" t="s">
+      <c r="G48" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="H48" s="31" t="s">
+      <c r="H48" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="I48" s="31">
+      <c r="I48" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="33">
+      <c r="C49" s="28">
         <v>1.8E-3</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="33">
+      <c r="E49" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F49" s="34" t="s">
+      <c r="F49" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="31" t="s">
+      <c r="G49" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="H49" s="31" t="s">
+      <c r="H49" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="I49" s="31">
+      <c r="I49" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="33">
+      <c r="C50" s="28">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="D50" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="33">
+      <c r="E50" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F50" s="34" t="s">
+      <c r="F50" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="G50" s="31" t="s">
+      <c r="G50" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="H50" s="31" t="s">
+      <c r="H50" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="I50" s="31">
+      <c r="I50" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="32">
-        <v>0</v>
-      </c>
-      <c r="D51" s="31" t="s">
+      <c r="C51" s="27">
+        <v>0</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E51" s="32">
-        <v>0</v>
-      </c>
-      <c r="F51" s="31" t="s">
+      <c r="E51" s="27">
+        <v>0</v>
+      </c>
+      <c r="F51" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G51" s="31" t="s">
+      <c r="G51" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I51" s="31">
+      <c r="I51" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="32">
-        <v>0</v>
-      </c>
-      <c r="D52" s="31" t="s">
+      <c r="C52" s="27">
+        <v>0</v>
+      </c>
+      <c r="D52" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E52" s="32">
-        <v>0</v>
-      </c>
-      <c r="F52" s="31" t="s">
+      <c r="E52" s="27">
+        <v>0</v>
+      </c>
+      <c r="F52" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G52" s="31" t="s">
+      <c r="G52" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I52" s="31">
+      <c r="I52" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="32">
-        <v>0</v>
-      </c>
-      <c r="D53" s="31" t="s">
+      <c r="C53" s="27">
+        <v>0</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="32">
-        <v>0</v>
-      </c>
-      <c r="F53" s="31" t="s">
+      <c r="E53" s="27">
+        <v>0</v>
+      </c>
+      <c r="F53" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G53" s="31" t="s">
+      <c r="G53" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I53" s="31">
+      <c r="I53" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="32">
-        <v>0</v>
-      </c>
-      <c r="D54" s="31" t="s">
+      <c r="C54" s="27">
+        <v>0</v>
+      </c>
+      <c r="D54" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="32">
-        <v>0</v>
-      </c>
-      <c r="F54" s="31" t="s">
+      <c r="E54" s="27">
+        <v>0</v>
+      </c>
+      <c r="F54" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G54" s="31" t="s">
+      <c r="G54" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I54" s="31">
+      <c r="I54" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F55" s="31" t="s">
+      <c r="F55" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="G55" s="31" t="s">
+      <c r="G55" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="H55" s="31" t="s">
+      <c r="H55" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="I55" s="31" t="s">
+      <c r="I55" s="26" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C56" s="28">
         <v>6.6E-3</v>
       </c>
-      <c r="D56" s="34" t="s">
+      <c r="D56" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="33">
+      <c r="E56" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F56" s="34" t="s">
+      <c r="F56" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="G56" s="31" t="s">
+      <c r="G56" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="H56" s="31" t="s">
+      <c r="H56" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="I56" s="31">
+      <c r="I56" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C57" s="28">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D57" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="E57" s="33">
+      <c r="E57" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F57" s="34" t="s">
+      <c r="F57" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="G57" s="31" t="s">
+      <c r="G57" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="H57" s="31" t="s">
+      <c r="H57" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="I57" s="31">
+      <c r="I57" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="33">
+      <c r="C58" s="28">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="D58" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="E58" s="33">
+      <c r="E58" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F58" s="34" t="s">
+      <c r="F58" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="G58" s="31" t="s">
+      <c r="G58" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="H58" s="31" t="s">
+      <c r="H58" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="I58" s="31">
+      <c r="I58" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="33">
+      <c r="C59" s="28">
         <v>0.14399999999999999</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D59" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E59" s="33">
+      <c r="E59" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F59" s="34" t="s">
+      <c r="F59" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G59" s="31" t="s">
+      <c r="G59" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="H59" s="31" t="s">
+      <c r="H59" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="I59" s="31">
+      <c r="I59" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="32">
-        <v>0</v>
-      </c>
-      <c r="D60" s="31" t="s">
+      <c r="C60" s="27">
+        <v>0</v>
+      </c>
+      <c r="D60" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="32">
-        <v>0</v>
-      </c>
-      <c r="F60" s="31" t="s">
+      <c r="E60" s="27">
+        <v>0</v>
+      </c>
+      <c r="F60" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G60" s="31" t="s">
+      <c r="G60" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I60" s="31">
+      <c r="I60" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="32">
-        <v>0</v>
-      </c>
-      <c r="D61" s="31" t="s">
+      <c r="C61" s="27">
+        <v>0</v>
+      </c>
+      <c r="D61" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E61" s="32">
-        <v>0</v>
-      </c>
-      <c r="F61" s="31" t="s">
+      <c r="E61" s="27">
+        <v>0</v>
+      </c>
+      <c r="F61" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G61" s="31" t="s">
+      <c r="G61" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I61" s="31">
+      <c r="I61" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="32">
-        <v>0</v>
-      </c>
-      <c r="D62" s="31" t="s">
+      <c r="C62" s="27">
+        <v>0</v>
+      </c>
+      <c r="D62" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E62" s="32">
-        <v>0</v>
-      </c>
-      <c r="F62" s="31" t="s">
+      <c r="E62" s="27">
+        <v>0</v>
+      </c>
+      <c r="F62" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G62" s="31" t="s">
+      <c r="G62" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I62" s="31">
+      <c r="I62" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="32">
-        <v>0</v>
-      </c>
-      <c r="D63" s="31" t="s">
+      <c r="C63" s="27">
+        <v>0</v>
+      </c>
+      <c r="D63" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E63" s="32">
-        <v>0</v>
-      </c>
-      <c r="F63" s="31" t="s">
+      <c r="E63" s="27">
+        <v>0</v>
+      </c>
+      <c r="F63" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G63" s="31" t="s">
+      <c r="G63" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I63" s="31">
+      <c r="I63" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E64" s="31" t="s">
+      <c r="E64" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F64" s="31" t="s">
+      <c r="F64" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="G64" s="31" t="s">
+      <c r="G64" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="H64" s="31" t="s">
+      <c r="H64" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="I64" s="31" t="s">
+      <c r="I64" s="26" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="33">
+      <c r="C65" s="28">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D65" s="34" t="s">
+      <c r="D65" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E65" s="33">
+      <c r="E65" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F65" s="34" t="s">
+      <c r="F65" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G65" s="31" t="s">
+      <c r="G65" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="H65" s="31" t="s">
+      <c r="H65" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="I65" s="31">
+      <c r="I65" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="33">
+      <c r="C66" s="28">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D66" s="34" t="s">
+      <c r="D66" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E66" s="33">
+      <c r="E66" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F66" s="34" t="s">
+      <c r="F66" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G66" s="31" t="s">
+      <c r="G66" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="H66" s="31" t="s">
+      <c r="H66" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="I66" s="31">
+      <c r="I66" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C67" s="33">
+      <c r="C67" s="28">
         <v>1.5E-3</v>
       </c>
-      <c r="D67" s="34" t="s">
+      <c r="D67" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E67" s="33">
+      <c r="E67" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F67" s="34" t="s">
+      <c r="F67" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="31" t="s">
+      <c r="G67" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="H67" s="31" t="s">
+      <c r="H67" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="I67" s="31">
+      <c r="I67" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="33">
+      <c r="C68" s="28">
         <v>1.5E-3</v>
       </c>
-      <c r="D68" s="34" t="s">
+      <c r="D68" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E68" s="33">
+      <c r="E68" s="28">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F68" s="34" t="s">
+      <c r="F68" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G68" s="31" t="s">
+      <c r="G68" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="H68" s="31" t="s">
+      <c r="H68" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="I68" s="31">
+      <c r="I68" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="32">
-        <v>0</v>
-      </c>
-      <c r="D69" s="31" t="s">
+      <c r="C69" s="27">
+        <v>0</v>
+      </c>
+      <c r="D69" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E69" s="32">
-        <v>0</v>
-      </c>
-      <c r="F69" s="31" t="s">
+      <c r="E69" s="27">
+        <v>0</v>
+      </c>
+      <c r="F69" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G69" s="31" t="s">
+      <c r="G69" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I69" s="31">
+      <c r="I69" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="32">
-        <v>0</v>
-      </c>
-      <c r="D70" s="31" t="s">
+      <c r="C70" s="27">
+        <v>0</v>
+      </c>
+      <c r="D70" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E70" s="32">
-        <v>0</v>
-      </c>
-      <c r="F70" s="31" t="s">
+      <c r="E70" s="27">
+        <v>0</v>
+      </c>
+      <c r="F70" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G70" s="31" t="s">
+      <c r="G70" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I70" s="31">
+      <c r="I70" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C71" s="32">
-        <v>0</v>
-      </c>
-      <c r="D71" s="31" t="s">
+      <c r="C71" s="27">
+        <v>0</v>
+      </c>
+      <c r="D71" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E71" s="32">
-        <v>0</v>
-      </c>
-      <c r="F71" s="31" t="s">
+      <c r="E71" s="27">
+        <v>0</v>
+      </c>
+      <c r="F71" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G71" s="31" t="s">
+      <c r="G71" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I71" s="31">
+      <c r="I71" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="32">
-        <v>0</v>
-      </c>
-      <c r="D72" s="31" t="s">
+      <c r="C72" s="27">
+        <v>0</v>
+      </c>
+      <c r="D72" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E72" s="32">
-        <v>0</v>
-      </c>
-      <c r="F72" s="31" t="s">
+      <c r="E72" s="27">
+        <v>0</v>
+      </c>
+      <c r="F72" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G72" s="31" t="s">
+      <c r="G72" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I72" s="31">
+      <c r="I72" s="26">
         <v>0</v>
       </c>
     </row>
@@ -15805,8 +15824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBFCAC3-55BC-944C-B7B3-C5C9963935EC}">
   <dimension ref="C6:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15814,24 +15833,24 @@
     <row r="6" spans="3:13" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C7" s="5"/>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="49" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="49" t="s">
         <v>43</v>
       </c>
       <c r="K7" s="5"/>
-      <c r="L7" s="57" t="s">
+      <c r="L7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="58" t="s">
+      <c r="M7" s="49" t="s">
         <v>43</v>
       </c>
     </row>
@@ -15839,51 +15858,51 @@
       <c r="C8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8">
         <v>515.10566666666671</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="10"/>
       <c r="G8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8">
         <v>396.65933333333334</v>
       </c>
-      <c r="I8" s="11"/>
+      <c r="I8" s="10"/>
       <c r="K8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8">
         <v>233.49633333333335</v>
       </c>
-      <c r="M8" s="11"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9">
         <v>666.00411489645933</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>1040.9225054652568</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9">
         <v>351.40972492843503</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>530.72116225604634</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9">
         <v>249.56134624881869</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <v>290.50553667361635</v>
       </c>
     </row>
@@ -15891,212 +15910,209 @@
       <c r="C10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10">
         <v>670.74682096041306</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>796.91455621109969</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10">
         <v>461.67304458513331</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>566.46727886794577</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10">
         <v>339.96199677938768</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="10">
         <v>387.72318745864965</v>
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C11" s="6"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="11"/>
+      <c r="E11" s="10"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="11"/>
+      <c r="I11" s="10"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="11"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="3:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="20">
         <v>24.971222649755209</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="G12" s="59" t="s">
+      <c r="E12" s="21"/>
+      <c r="G12" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="20">
         <v>494.64248697497646</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="K12" s="59" t="s">
+      <c r="I12" s="21"/>
+      <c r="K12" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="20">
         <v>972.59089191969053</v>
       </c>
-      <c r="M12" s="24"/>
+      <c r="M12" s="21"/>
     </row>
     <row r="18" spans="3:11" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="3:11" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="70" t="s">
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="J19" s="71"/>
-      <c r="K19" s="72"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="3:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="75" t="s">
+      <c r="F20" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="G20" s="61"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="74" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="73" t="s">
+      <c r="J20" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="75" t="s">
+      <c r="K20" s="61" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C21" s="64">
+      <c r="C21" s="54">
         <f>D8</f>
         <v>515.10566666666671</v>
       </c>
-      <c r="D21" s="65">
+      <c r="D21" s="52">
         <f>D9</f>
         <v>666.00411489645933</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="52">
         <f>D10</f>
         <v>670.74682096041306</v>
       </c>
-      <c r="F21" s="66">
+      <c r="F21" s="55">
         <f>D12</f>
         <v>24.971222649755209</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="64">
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="54">
         <f>E9</f>
         <v>1040.9225054652568</v>
       </c>
-      <c r="J21" s="65">
+      <c r="J21" s="52">
         <f>E10</f>
         <v>796.91455621109969</v>
       </c>
-      <c r="K21" s="66">
+      <c r="K21" s="55">
         <f>D12</f>
         <v>24.971222649755209</v>
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C22" s="64">
+      <c r="C22" s="54">
         <f>H8</f>
         <v>396.65933333333334</v>
       </c>
-      <c r="D22" s="65">
+      <c r="D22" s="52">
         <f>H9</f>
         <v>351.40972492843503</v>
       </c>
-      <c r="E22" s="65">
+      <c r="E22" s="52">
         <f>H10</f>
         <v>461.67304458513331</v>
       </c>
-      <c r="F22" s="66">
+      <c r="F22" s="55">
         <f>H12</f>
         <v>494.64248697497646</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="64">
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="54">
         <f>I9</f>
         <v>530.72116225604634</v>
       </c>
-      <c r="J22" s="63">
+      <c r="J22" s="53">
         <f>I10</f>
         <v>566.46727886794577</v>
       </c>
-      <c r="K22" s="66">
+      <c r="K22" s="55">
         <f>H12</f>
         <v>494.64248697497646</v>
       </c>
     </row>
     <row r="23" spans="3:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="67">
+      <c r="C23" s="56">
         <f>L8</f>
         <v>233.49633333333335</v>
       </c>
-      <c r="D23" s="68">
+      <c r="D23" s="57">
         <f>L9</f>
         <v>249.56134624881869</v>
       </c>
-      <c r="E23" s="68">
+      <c r="E23" s="57">
         <f>L10</f>
         <v>339.96199677938768</v>
       </c>
-      <c r="F23" s="69">
+      <c r="F23" s="58">
         <f>L12</f>
         <v>972.59089191969053</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="67">
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="56">
         <f>M9</f>
         <v>290.50553667361635</v>
       </c>
-      <c r="J23" s="68">
+      <c r="J23" s="57">
         <f>M10</f>
         <v>387.72318745864965</v>
       </c>
-      <c r="K23" s="69">
+      <c r="K23" s="58">
         <f>L12</f>
         <v>972.59089191969053</v>
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/LOG8430E_redis_results.xlsx
+++ b/LOG8430E_redis_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thierry/Desktop/LOG8430E_TP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4FD5A9-B7A4-174E-8321-93A824F7E098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E24C64-E10E-054B-8394-C4044E398942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="500" windowWidth="36920" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tps-25" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,14 @@
     <sheet name="cpu-mem-1000" sheetId="6" r:id="rId4"/>
     <sheet name="results" sheetId="7" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">results!$C$20</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">results!$C$21:$C$23</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">results!$D$20</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">results!$D$21:$D$23</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">results!$E$20</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">results!$F$21:$F$23</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
@@ -38,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="174">
   <si>
     <t>##################################################################################</t>
   </si>
@@ -515,6 +523,57 @@
     <t>Average
 throughput</t>
   </si>
+  <si>
+    <t>Hyperledger</t>
+  </si>
+  <si>
+    <t>Mesure</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Latency (s) read</t>
+  </si>
+  <si>
+    <t>Latency (s) write</t>
+  </si>
+  <si>
+    <t>Send Rate (TPS) read</t>
+  </si>
+  <si>
+    <t>Send Rate (TPS) write</t>
+  </si>
+  <si>
+    <t>CPU read</t>
+  </si>
+  <si>
+    <t>CPU write</t>
+  </si>
+  <si>
+    <t>Memory (avg) MB read</t>
+  </si>
+  <si>
+    <t>Memory (avg) MB write</t>
+  </si>
+  <si>
+    <t>Traffic In MB read</t>
+  </si>
+  <si>
+    <t>Traffic In MB write</t>
+  </si>
+  <si>
+    <t>Traffic Out MB write</t>
+  </si>
+  <si>
+    <t>Traffic Out MB read</t>
+  </si>
 </sst>
 </file>
 
@@ -800,7 +859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -943,6 +1002,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1072,6 +1141,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'tps-25'!$K$15:$K$17</c:f>
@@ -1137,6 +1260,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'tps-25'!$K$15:$K$17</c:f>
@@ -1580,18 +1757,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$F$21:$F$23</c:f>
+              <c:f>results!$E$21:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>24.971222649755209</c:v>
+                  <c:v>670.74682096041306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>494.64248697497646</c:v>
+                  <c:v>461.67304458513331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>972.59089191969053</c:v>
+                  <c:v>339.96199677938768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1927,7 +2104,8 @@
         <c:axId val="488151856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
+          <c:max val="700"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2136,6 +2314,609 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Impact of Throughput on WRITE Latencies</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$J$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>workload 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>results!$K$21:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24.971222649755209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>494.64248697497646</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>972.59089191969053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>results!$J$21:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>796.91455621109969</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>566.46727886794577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>387.72318745864965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B775-A041-B29E-BDBF7BE475C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$I$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>workload 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>results!$K$21:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24.971222649755209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>494.64248697497646</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>972.59089191969053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>results!$I$21:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1040.9225054652568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>530.72116225604634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>290.50553667361635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B775-A041-B29E-BDBF7BE475C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="390580368"/>
+        <c:axId val="390582640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="390580368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Throughput (ops/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390582640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="390582640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Latency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> (us)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390580368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2177,6 +2958,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3235,14 +4056,530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1155700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
@@ -3286,10 +4623,10 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3309,6 +4646,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C465ACFB-4492-7A40-0C10-558926C88261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3518,10 +4891,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R285"/>
+  <dimension ref="A1:S285"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:M19"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3529,10 +4902,11 @@
     <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
     <col min="12" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:18" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:19" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3550,8 +4924,14 @@
       <c r="N2" s="19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="R2" s="69"/>
+      <c r="S2" s="70"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3569,8 +4949,20 @@
         <v>43</v>
       </c>
       <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q3" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="R3" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="S3" s="71" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3597,8 +4989,20 @@
         <f>C5</f>
         <v>24.933303413369199</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q4" s="72">
+        <v>0.02</v>
+      </c>
+      <c r="R4" s="72">
+        <v>0.01</v>
+      </c>
+      <c r="S4" s="10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3623,8 +5027,18 @@
         <f>C32</f>
         <v>24.983760555638799</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P5" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72">
+        <v>0.48</v>
+      </c>
+      <c r="S5" s="10">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3649,8 +5063,20 @@
         <f>C66</f>
         <v>24.980015987210201</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P6" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q6" s="72">
+        <v>25.4</v>
+      </c>
+      <c r="R6" s="72">
+        <v>25.2</v>
+      </c>
+      <c r="S6" s="10">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -3671,8 +5097,18 @@
         <f>C100</f>
         <v>24.9868818870093</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P7" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72">
+        <v>25.2</v>
+      </c>
+      <c r="S7" s="10">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -3697,8 +5133,14 @@
         <f>C127</f>
         <v>24.975024975024901</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P8" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="10"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -3723,8 +5165,14 @@
         <f>C161</f>
         <v>24.977520231791299</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P9" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="10"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -3745,8 +5193,20 @@
         <f>C195</f>
         <v>24.968165588874101</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P10" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="72">
+        <v>6.64</v>
+      </c>
+      <c r="R10" s="72">
+        <v>6.58</v>
+      </c>
+      <c r="S10" s="10">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -3771,8 +5231,18 @@
         <f>C222</f>
         <v>24.967542195146301</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P11" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72">
+        <v>6.65</v>
+      </c>
+      <c r="S11" s="10">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3797,8 +5267,20 @@
         <f>C256</f>
         <v>24.968789013732799</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q12" s="72">
+        <v>1.67</v>
+      </c>
+      <c r="R12" s="72">
+        <v>974</v>
+      </c>
+      <c r="S12" s="10">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -3808,8 +5290,20 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P13" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q13" s="72">
+        <v>687</v>
+      </c>
+      <c r="R13" s="72">
+        <v>442</v>
+      </c>
+      <c r="S13" s="10">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -3826,8 +5320,18 @@
       <c r="M14" s="16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72">
+        <v>1.05</v>
+      </c>
+      <c r="S14" s="10">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -3845,11 +5349,18 @@
         <v>515.10566666666671</v>
       </c>
       <c r="M15" s="10"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P15" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73">
+        <v>568</v>
+      </c>
+      <c r="S15" s="21">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -6668,9 +8179,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15824,8 +17336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBFCAC3-55BC-944C-B7B3-C5C9963935EC}">
   <dimension ref="C6:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q59" sqref="Q59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/LOG8430E_redis_results.xlsx
+++ b/LOG8430E_redis_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thierry/Desktop/LOG8430E_TP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E24C64-E10E-054B-8394-C4044E398942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDB9684-9464-AF40-897B-5F018EBF203B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="500" windowWidth="36920" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="500" windowWidth="36920" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tps-25" sheetId="1" r:id="rId1"/>
@@ -527,9 +527,6 @@
     <t>Hyperledger</t>
   </si>
   <si>
-    <t>Mesure</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -573,6 +570,9 @@
   </si>
   <si>
     <t>Traffic Out MB read</t>
+  </si>
+  <si>
+    <t>Workload</t>
   </si>
 </sst>
 </file>
@@ -640,7 +640,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -854,12 +854,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1002,16 +1041,30 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4893,8 +4946,8 @@
   </sheetPr>
   <dimension ref="A1:S285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4925,11 +4978,11 @@
         <v>56</v>
       </c>
       <c r="P2" s="5"/>
-      <c r="Q2" s="69" t="s">
+      <c r="Q2" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="R2" s="69"/>
-      <c r="S2" s="70"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="77"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -4949,17 +5002,17 @@
         <v>43</v>
       </c>
       <c r="N3" s="7"/>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q3" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="Q3" s="68" t="s">
+      <c r="R3" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="R3" s="68" t="s">
+      <c r="S3" s="72" t="s">
         <v>160</v>
-      </c>
-      <c r="S3" s="71" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4989,16 +5042,16 @@
         <f>C5</f>
         <v>24.933303413369199</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q4" s="72">
+      <c r="P4" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q4" s="73">
         <v>0.02</v>
       </c>
-      <c r="R4" s="72">
+      <c r="R4" s="73">
         <v>0.01</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="55">
         <v>0.01</v>
       </c>
     </row>
@@ -5027,14 +5080,14 @@
         <f>C32</f>
         <v>24.983760555638799</v>
       </c>
-      <c r="P5" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72">
+      <c r="P5" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73">
         <v>0.48</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="55">
         <v>0.84</v>
       </c>
     </row>
@@ -5063,16 +5116,16 @@
         <f>C66</f>
         <v>24.980015987210201</v>
       </c>
-      <c r="P6" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q6" s="72">
+      <c r="P6" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q6" s="73">
         <v>25.4</v>
       </c>
-      <c r="R6" s="72">
+      <c r="R6" s="73">
         <v>25.2</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S6" s="55">
         <v>25.7</v>
       </c>
     </row>
@@ -5097,14 +5150,14 @@
         <f>C100</f>
         <v>24.9868818870093</v>
       </c>
-      <c r="P7" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72">
+      <c r="P7" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73">
         <v>25.2</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="55">
         <v>25.6</v>
       </c>
     </row>
@@ -5133,12 +5186,12 @@
         <f>C127</f>
         <v>24.975024975024901</v>
       </c>
-      <c r="P8" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="10"/>
+      <c r="P8" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="55"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -5165,12 +5218,12 @@
         <f>C161</f>
         <v>24.977520231791299</v>
       </c>
-      <c r="P9" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="10"/>
+      <c r="P9" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="55"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
@@ -5193,16 +5246,16 @@
         <f>C195</f>
         <v>24.968165588874101</v>
       </c>
-      <c r="P10" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q10" s="72">
+      <c r="P10" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q10" s="73">
         <v>6.64</v>
       </c>
-      <c r="R10" s="72">
+      <c r="R10" s="73">
         <v>6.58</v>
       </c>
-      <c r="S10" s="10">
+      <c r="S10" s="55">
         <v>6.54</v>
       </c>
     </row>
@@ -5231,14 +5284,14 @@
         <f>C222</f>
         <v>24.967542195146301</v>
       </c>
-      <c r="P11" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72">
+      <c r="P11" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73">
         <v>6.65</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11" s="55">
         <v>6.67</v>
       </c>
     </row>
@@ -5267,16 +5320,16 @@
         <f>C256</f>
         <v>24.968789013732799</v>
       </c>
-      <c r="P12" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q12" s="72">
+      <c r="P12" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q12" s="73">
         <v>1.67</v>
       </c>
-      <c r="R12" s="72">
+      <c r="R12" s="73">
         <v>974</v>
       </c>
-      <c r="S12" s="10">
+      <c r="S12" s="55">
         <v>201</v>
       </c>
     </row>
@@ -5290,16 +5343,16 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="P13" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q13" s="72">
+      <c r="P13" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q13" s="73">
         <v>687</v>
       </c>
-      <c r="R13" s="72">
+      <c r="R13" s="73">
         <v>442</v>
       </c>
-      <c r="S13" s="10">
+      <c r="S13" s="55">
         <v>94.2</v>
       </c>
     </row>
@@ -5320,14 +5373,14 @@
       <c r="M14" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="P14" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72">
+      <c r="P14" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73">
         <v>1.05</v>
       </c>
-      <c r="S14" s="10">
+      <c r="S14" s="55">
         <v>1.84</v>
       </c>
     </row>
@@ -5349,14 +5402,14 @@
         <v>515.10566666666671</v>
       </c>
       <c r="M15" s="10"/>
-      <c r="P15" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73">
+      <c r="P15" s="70" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74">
         <v>568</v>
       </c>
-      <c r="S15" s="21">
+      <c r="S15" s="58">
         <v>977</v>
       </c>
     </row>
@@ -17336,7 +17389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBFCAC3-55BC-944C-B7B3-C5C9963935EC}">
   <dimension ref="C6:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="Q59" sqref="Q59"/>
     </sheetView>
   </sheetViews>

--- a/LOG8430E_redis_results.xlsx
+++ b/LOG8430E_redis_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thierry/Desktop/LOG8430E_TP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDB9684-9464-AF40-897B-5F018EBF203B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529623B3-4373-C94D-95DF-B8C56028BBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="500" windowWidth="36920" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1065,6 +1065,23 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1209,7 +1226,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -1269,7 +1286,7 @@
             <c:numRef>
               <c:f>'tps-25'!$L$15:$L$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>515.10566666666671</c:v>
@@ -1328,7 +1345,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -1388,7 +1405,7 @@
             <c:numRef>
               <c:f>'tps-25'!$M$15:$M$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="1">
                   <c:v>1040.9225054652568</c:v>
@@ -1447,7 +1464,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1494,7 +1511,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1504,7 +1521,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1200">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1512,7 +1529,7 @@
                   <a:t>Average</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0">
+                  <a:rPr lang="en-US" sz="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1535,7 +1552,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -1548,7 +1565,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1564,7 +1581,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1603,7 +1620,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2061,7 +2078,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -2071,7 +2088,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1200">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -2079,7 +2096,7 @@
                   <a:t>Average</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0">
+                  <a:rPr lang="en-US" sz="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -2102,7 +2119,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx2"/>
                   </a:solidFill>
@@ -2137,7 +2154,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -2183,7 +2200,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2193,7 +2210,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1200">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2201,7 +2218,7 @@
                   <a:t>Latency</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0">
+                  <a:rPr lang="en-US" sz="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2224,7 +2241,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -2259,7 +2276,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -2310,7 +2327,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2669,7 +2686,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2679,7 +2696,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1200">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2687,7 +2704,7 @@
                   <a:t>Average</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0">
+                  <a:rPr lang="en-US" sz="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2710,7 +2727,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -2745,7 +2762,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -2790,7 +2807,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2800,7 +2817,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1200">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2808,7 +2825,7 @@
                   <a:t>Latency</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0">
+                  <a:rPr lang="en-US" sz="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2831,7 +2848,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -2866,7 +2883,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -2913,7 +2930,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4630,15 +4647,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1016000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4947,14 +4964,16 @@
   <dimension ref="A1:S285"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5397,11 +5416,11 @@
       <c r="K15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="82">
         <f>AVERAGE(L4,L7,L10)</f>
         <v>515.10566666666671</v>
       </c>
-      <c r="M15" s="10"/>
+      <c r="M15" s="83"/>
       <c r="P15" s="70" t="s">
         <v>171</v>
       </c>
@@ -5426,11 +5445,11 @@
       <c r="K16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="82">
         <f>AVERAGE(L5,L8,L11)</f>
         <v>666.00411489645933</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="84">
         <f>AVERAGE(M5,M8,M11)</f>
         <v>1040.9225054652568</v>
       </c>
@@ -5450,11 +5469,11 @@
       <c r="K17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="85">
         <f>AVERAGE(L6,L9,L12)</f>
         <v>670.74682096041306</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="86">
         <f>AVERAGE(M6,M9,M12)</f>
         <v>796.91455621109969</v>
       </c>
@@ -14562,7 +14581,7 @@
   <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14581,7 +14600,7 @@
     <col min="13" max="13" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.6640625" style="26" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.83203125" style="26" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" style="26" customWidth="1"/>
     <col min="17" max="17" width="13.6640625" style="26" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="10.83203125" style="26"/>
   </cols>
@@ -16360,15 +16379,15 @@
         <f>AVERAGE(N6,N10,N14,N18,N22,N26,N30,N34)</f>
         <v>11.14</v>
       </c>
-      <c r="O38" s="34">
+      <c r="O38" s="78">
         <f>AVERAGE(O6,O10,O14,O18,O22,O26,O30,O34)</f>
         <v>0.4603271484375</v>
       </c>
-      <c r="P38" s="34">
+      <c r="P38" s="78">
         <f>AVERAGE(P6,P10,P14,P18,P22,P26,P30,P34) * 1.048576</f>
         <v>6.5541242879999997</v>
       </c>
-      <c r="Q38" s="31">
+      <c r="Q38" s="80">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
@@ -16412,15 +16431,15 @@
         <f>AVERAGE(N5,N9,N13,N17,N21,N25,N29,N33)</f>
         <v>11.14</v>
       </c>
-      <c r="O39" s="34">
+      <c r="O39" s="78">
         <f>AVERAGE(O5,O9,O13,O17,O21,O25,O29,O33)</f>
         <v>0.44970703125</v>
       </c>
-      <c r="P39" s="34">
+      <c r="P39" s="78">
         <f>AVERAGE(P5,P9,P13,P17,P21,P25,P29,P33) * 1.048576</f>
         <v>6.5386577919999995</v>
       </c>
-      <c r="Q39" s="31">
+      <c r="Q39" s="80">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
@@ -16464,15 +16483,15 @@
         <f>AVERAGE(N4,N8,N12,N16,N20,N24,N28,N32)</f>
         <v>11.14</v>
       </c>
-      <c r="O40" s="34">
+      <c r="O40" s="78">
         <f>AVERAGE(O4,O8,O12,O16,O20,O24,O28,O32)</f>
         <v>0.468994140625</v>
       </c>
-      <c r="P40" s="34">
+      <c r="P40" s="78">
         <f>AVERAGE(P4,P8,P12,P16,P20,P24,P28,P32) * 1.048576</f>
         <v>6.5488814080000006</v>
       </c>
-      <c r="Q40" s="31">
+      <c r="Q40" s="80">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
@@ -16516,15 +16535,15 @@
         <f>AVERAGE(N7,N11,N15,N19,N23,N27,N31,N35)</f>
         <v>13.91</v>
       </c>
-      <c r="O41" s="36">
+      <c r="O41" s="79">
         <f>AVERAGE(O7,O11,O15,O19,O23,O27,O31,O35)</f>
         <v>35.5625</v>
       </c>
-      <c r="P41" s="36">
+      <c r="P41" s="79">
         <f>AVERAGE(P7,P11,P15,P19,P23,P27,P31,P35) * 1.048576</f>
         <v>6.3390351360000006</v>
       </c>
-      <c r="Q41" s="32">
+      <c r="Q41" s="81">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
@@ -17390,7 +17409,7 @@
   <dimension ref="C6:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q59" sqref="Q59"/>
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/LOG8430E_redis_results.xlsx
+++ b/LOG8430E_redis_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thierry/Desktop/LOG8430E_TP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529623B3-4373-C94D-95DF-B8C56028BBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A51E4B2-A136-324D-8A2B-19DF234696C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="500" windowWidth="36920" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1714,7 +1714,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> of Throughput on READ Latencies</a:t>
+              <a:t> of Throughput on Read Operation Latency</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:solidFill>
@@ -2420,7 +2420,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Impact of Throughput on WRITE Latencies</a:t>
+              <a:t>Impact of Throughput on Write Operation Latency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4689,12 +4689,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -4723,16 +4723,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17408,8 +17408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBFCAC3-55BC-944C-B7B3-C5C9963935EC}">
   <dimension ref="C6:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/LOG8430E_redis_results.xlsx
+++ b/LOG8430E_redis_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thierry/Desktop/LOG8430E_TP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A51E4B2-A136-324D-8A2B-19DF234696C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3499FFBA-20D7-1B4E-BC35-3C3A15E9CFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="500" windowWidth="36920" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="500" windowWidth="36920" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tps-25" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="176">
   <si>
     <t>##################################################################################</t>
   </si>
@@ -574,6 +574,12 @@
   <si>
     <t>Workload</t>
   </si>
+  <si>
+    <t>∆READ</t>
+  </si>
+  <si>
+    <t>∆WRITES</t>
+  </si>
 </sst>
 </file>
 
@@ -898,7 +904,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -918,6 +924,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1041,6 +1050,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1056,15 +1066,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1077,11 +1078,46 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4961,10 +4997,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S285"/>
+  <dimension ref="A1:T285"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4974,11 +5010,11 @@
     <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:19" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:20" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4988,22 +5024,23 @@
       <c r="I2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="62"/>
-      <c r="L2" s="64" t="s">
+      <c r="K2" s="63"/>
+      <c r="L2" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="19" t="s">
+      <c r="M2" s="65"/>
+      <c r="N2" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="75" t="s">
+      <c r="P2" s="84"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="R2" s="76"/>
-      <c r="S2" s="77"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S2" s="82"/>
+      <c r="T2" s="83"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5013,7 +5050,7 @@
       <c r="I3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="63"/>
+      <c r="K3" s="64"/>
       <c r="L3" s="2" t="s">
         <v>42</v>
       </c>
@@ -5021,20 +5058,21 @@
         <v>43</v>
       </c>
       <c r="N3" s="7"/>
-      <c r="P3" s="68" t="s">
+      <c r="P3" s="69"/>
+      <c r="Q3" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="Q3" s="71" t="s">
+      <c r="R3" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="R3" s="59" t="s">
+      <c r="S3" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="S3" s="72" t="s">
+      <c r="T3" s="74" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5061,20 +5099,21 @@
         <f>C5</f>
         <v>24.933303413369199</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="69"/>
+      <c r="Q4" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="Q4" s="73">
+      <c r="R4" s="75">
         <v>0.02</v>
       </c>
-      <c r="R4" s="73">
+      <c r="S4" s="75">
         <v>0.01</v>
       </c>
-      <c r="S4" s="55">
+      <c r="T4" s="56">
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5099,18 +5138,19 @@
         <f>C32</f>
         <v>24.983760555638799</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73">
+      <c r="R5" s="75"/>
+      <c r="S5" s="75">
         <v>0.48</v>
       </c>
-      <c r="S5" s="55">
+      <c r="T5" s="56">
         <v>0.84</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -5135,20 +5175,21 @@
         <f>C66</f>
         <v>24.980015987210201</v>
       </c>
-      <c r="P6" s="69" t="s">
+      <c r="P6" s="69"/>
+      <c r="Q6" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="Q6" s="73">
+      <c r="R6" s="75">
         <v>25.4</v>
       </c>
-      <c r="R6" s="73">
+      <c r="S6" s="75">
         <v>25.2</v>
       </c>
-      <c r="S6" s="55">
+      <c r="T6" s="56">
         <v>25.7</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -5169,18 +5210,19 @@
         <f>C100</f>
         <v>24.9868818870093</v>
       </c>
-      <c r="P7" s="69" t="s">
+      <c r="P7" s="69"/>
+      <c r="Q7" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73">
+      <c r="R7" s="75"/>
+      <c r="S7" s="75">
         <v>25.2</v>
       </c>
-      <c r="S7" s="55">
+      <c r="T7" s="56">
         <v>25.6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -5205,14 +5247,15 @@
         <f>C127</f>
         <v>24.975024975024901</v>
       </c>
-      <c r="P8" s="69" t="s">
+      <c r="P8" s="69"/>
+      <c r="Q8" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="55"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="56"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -5237,14 +5280,15 @@
         <f>C161</f>
         <v>24.977520231791299</v>
       </c>
-      <c r="P9" s="69" t="s">
+      <c r="P9" s="69"/>
+      <c r="Q9" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="55"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R9" s="75"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="56"/>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -5265,20 +5309,21 @@
         <f>C195</f>
         <v>24.968165588874101</v>
       </c>
-      <c r="P10" s="69" t="s">
+      <c r="P10" s="69"/>
+      <c r="Q10" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="Q10" s="73">
+      <c r="R10" s="75">
         <v>6.64</v>
       </c>
-      <c r="R10" s="73">
+      <c r="S10" s="75">
         <v>6.58</v>
       </c>
-      <c r="S10" s="55">
+      <c r="T10" s="56">
         <v>6.54</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -5303,18 +5348,19 @@
         <f>C222</f>
         <v>24.967542195146301</v>
       </c>
-      <c r="P11" s="69" t="s">
+      <c r="P11" s="69"/>
+      <c r="Q11" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73">
+      <c r="R11" s="75"/>
+      <c r="S11" s="75">
         <v>6.65</v>
       </c>
-      <c r="S11" s="55">
+      <c r="T11" s="56">
         <v>6.67</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -5331,28 +5377,29 @@
         <f>C267</f>
         <v>599.04854368932001</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="23">
         <f>C280</f>
         <v>814.091415830546</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="22">
         <f>C256</f>
         <v>24.968789013732799</v>
       </c>
-      <c r="P12" s="69" t="s">
+      <c r="P12" s="69"/>
+      <c r="Q12" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="Q12" s="73">
+      <c r="R12" s="75">
         <v>1.67</v>
       </c>
-      <c r="R12" s="73">
+      <c r="S12" s="75">
         <v>974</v>
       </c>
-      <c r="S12" s="55">
+      <c r="T12" s="56">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -5362,20 +5409,21 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="P13" s="69" t="s">
+      <c r="P13" s="69"/>
+      <c r="Q13" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="Q13" s="73">
+      <c r="R13" s="75">
         <v>687</v>
       </c>
-      <c r="R13" s="73">
+      <c r="S13" s="75">
         <v>442</v>
       </c>
-      <c r="S13" s="55">
+      <c r="T13" s="56">
         <v>94.2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -5386,24 +5434,31 @@
         <v>0</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="P14" s="69" t="s">
+      <c r="N14" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="O14" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73">
+      <c r="R14" s="75"/>
+      <c r="S14" s="75">
         <v>1.05</v>
       </c>
-      <c r="S14" s="55">
+      <c r="T14" s="56">
         <v>1.84</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -5416,23 +5471,29 @@
       <c r="K15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L15" s="82">
+      <c r="L15" s="85">
         <f>AVERAGE(L4,L7,L10)</f>
         <v>515.10566666666671</v>
       </c>
-      <c r="M15" s="83"/>
-      <c r="P15" s="70" t="s">
+      <c r="M15" s="86"/>
+      <c r="N15" s="91">
+        <f>STDEV(L4,L7,L10)</f>
+        <v>35.756037494852968</v>
+      </c>
+      <c r="O15" s="56"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74">
+      <c r="R15" s="76"/>
+      <c r="S15" s="76">
         <v>568</v>
       </c>
-      <c r="S15" s="58">
+      <c r="T15" s="59">
         <v>977</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -5445,15 +5506,22 @@
       <c r="K16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="82">
+      <c r="L16" s="85">
         <f>AVERAGE(L5,L8,L11)</f>
         <v>666.00411489645933</v>
       </c>
-      <c r="M16" s="84">
+      <c r="M16" s="87">
         <f>AVERAGE(M5,M8,M11)</f>
         <v>1040.9225054652568</v>
       </c>
-      <c r="O16" s="2"/>
+      <c r="N16" s="91">
+        <f>STDEV(L5,L8,L11)</f>
+        <v>12.406759739445162</v>
+      </c>
+      <c r="O16" s="93">
+        <f>STDEV(M5,M8,M11)</f>
+        <v>38.117252450149763</v>
+      </c>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5469,15 +5537,22 @@
       <c r="K17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="85">
+      <c r="L17" s="88">
         <f>AVERAGE(L6,L9,L12)</f>
         <v>670.74682096041306</v>
       </c>
-      <c r="M17" s="86">
+      <c r="M17" s="89">
         <f>AVERAGE(M6,M9,M12)</f>
         <v>796.91455621109969</v>
       </c>
-      <c r="O17" s="2"/>
+      <c r="N17" s="92">
+        <f>STDEV(L6,L9,L12)</f>
+        <v>63.99668493432246</v>
+      </c>
+      <c r="O17" s="94">
+        <f>STDEV(M6,M9,M12)</f>
+        <v>14.929229944012965</v>
+      </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
@@ -5500,10 +5575,10 @@
       <c r="C19" s="3">
         <v>779</v>
       </c>
-      <c r="K19" s="24" t="s">
+      <c r="K19" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="26">
         <f>AVERAGE(N4:N12)</f>
         <v>24.971222649755209</v>
       </c>
@@ -8251,10 +8326,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8288,12 +8362,12 @@
       <c r="I2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="62"/>
-      <c r="L2" s="64" t="s">
+      <c r="K2" s="63"/>
+      <c r="L2" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="19" t="s">
+      <c r="M2" s="65"/>
+      <c r="N2" s="20" t="s">
         <v>56</v>
       </c>
     </row>
@@ -8307,7 +8381,7 @@
       <c r="I3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="63"/>
+      <c r="K3" s="64"/>
       <c r="L3" s="2" t="s">
         <v>42</v>
       </c>
@@ -8535,11 +8609,11 @@
         <f>C267</f>
         <v>439.94623655913898</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="23">
         <f>C280</f>
         <v>528.18853362734205</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="22">
         <f>C256</f>
         <v>495.54013875123798</v>
       </c>
@@ -8566,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="24" t="s">
         <v>42</v>
       </c>
       <c r="M14" s="16" t="s">
@@ -8657,10 +8731,10 @@
       <c r="C19" s="3">
         <v>638</v>
       </c>
-      <c r="K19" s="24" t="s">
+      <c r="K19" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="26">
         <f>AVERAGE(N4:N12)</f>
         <v>494.64248697497646</v>
       </c>
@@ -11446,12 +11520,12 @@
       <c r="I2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="62"/>
-      <c r="L2" s="64" t="s">
+      <c r="K2" s="63"/>
+      <c r="L2" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="19" t="s">
+      <c r="M2" s="65"/>
+      <c r="N2" s="20" t="s">
         <v>56</v>
       </c>
     </row>
@@ -11465,7 +11539,7 @@
       <c r="I3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="63"/>
+      <c r="K3" s="64"/>
       <c r="L3" s="2" t="s">
         <v>42</v>
       </c>
@@ -11695,11 +11769,11 @@
         <f>C267</f>
         <v>274.75555555555502</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="23">
         <f>C280</f>
         <v>328.51868131868099</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="22">
         <f>C256</f>
         <v>963.39113680154105</v>
       </c>
@@ -11726,7 +11800,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="24" t="s">
         <v>42</v>
       </c>
       <c r="M14" s="16" t="s">
@@ -11817,10 +11891,10 @@
       <c r="C19" s="3">
         <v>494</v>
       </c>
-      <c r="K19" s="24" t="s">
+      <c r="K19" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="26">
         <f>AVERAGE(N4:N12)</f>
         <v>972.59089191969053</v>
       </c>
@@ -14580,2822 +14654,2822 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B8D10F-DE65-A345-A543-886720C7F693}">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125" style="26"/>
-    <col min="12" max="12" width="12.83203125" style="26" customWidth="1"/>
-    <col min="13" max="13" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" style="26" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="26"/>
+    <col min="1" max="1" width="15.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="27"/>
+    <col min="12" max="12" width="12.83203125" style="27" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" style="27" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="27" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="29">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="27">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="29">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="27">
         <v>7</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41" t="s">
+      <c r="L3" s="41"/>
+      <c r="M3" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="O3" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="P3" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="Q3" s="43" t="s">
+      <c r="Q3" s="44" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="29">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="27">
         <v>7</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="38">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="31">
         <v>9.82</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="31">
         <f>S4/1024</f>
         <v>0.416015625</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="31">
         <v>6.3479999999999999</v>
       </c>
-      <c r="Q4" s="31">
+      <c r="Q4" s="32">
         <v>15.55</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="27">
         <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="29">
         <v>1.5E-3</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="27">
         <v>6</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="38">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="31">
         <v>9.82</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="31">
         <f>S5/1024</f>
         <v>0.3935546875</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="31">
         <v>6.4340000000000002</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="32">
         <v>15.55</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="27">
         <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="27">
-        <v>0</v>
-      </c>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="28">
+        <v>0</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="27">
-        <v>0</v>
-      </c>
-      <c r="F6" s="26" t="s">
+      <c r="E6" s="28">
+        <v>0</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="26">
-        <v>0</v>
-      </c>
-      <c r="L6" s="44" t="s">
+      <c r="I6" s="27">
+        <v>0</v>
+      </c>
+      <c r="L6" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="38">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="31">
         <v>9.82</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="31">
         <f>S6/1024</f>
         <v>0.4052734375</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="31">
         <v>6.43</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="32">
         <v>15.55</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S6" s="27">
         <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="27">
-        <v>0</v>
-      </c>
-      <c r="D7" s="26" t="s">
+      <c r="C7" s="28">
+        <v>0</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="27">
-        <v>0</v>
-      </c>
-      <c r="F7" s="26" t="s">
+      <c r="E7" s="28">
+        <v>0</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="26">
-        <v>0</v>
-      </c>
-      <c r="L7" s="44" t="s">
+      <c r="I7" s="27">
+        <v>0</v>
+      </c>
+      <c r="L7" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="38">
         <v>1.5E-3</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="31">
         <v>12.2</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="31">
         <v>32.5</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="31">
         <v>5.883</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="32">
         <v>15.55</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="27">
-        <v>0</v>
-      </c>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="28">
+        <v>0</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="27">
-        <v>0</v>
-      </c>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="28">
+        <v>0</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="26">
-        <v>0</v>
-      </c>
-      <c r="L8" s="44" t="s">
+      <c r="I8" s="27">
+        <v>0</v>
+      </c>
+      <c r="L8" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="38">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="31">
         <v>10</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="31">
         <f>S8/1024</f>
         <v>0.4462890625</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="31">
         <v>6.18</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="32">
         <v>15.55</v>
       </c>
-      <c r="S8" s="26">
+      <c r="S8" s="27">
         <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="27">
-        <v>0</v>
-      </c>
-      <c r="D9" s="26" t="s">
+      <c r="C9" s="28">
+        <v>0</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="27">
-        <v>0</v>
-      </c>
-      <c r="F9" s="26" t="s">
+      <c r="E9" s="28">
+        <v>0</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="26">
-        <v>0</v>
-      </c>
-      <c r="L9" s="44" t="s">
+      <c r="I9" s="27">
+        <v>0</v>
+      </c>
+      <c r="L9" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="38">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="31">
         <v>10</v>
       </c>
-      <c r="O9" s="30">
+      <c r="O9" s="31">
         <f>S9/1024</f>
         <v>0.4228515625</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="31">
         <v>6.0819999999999999</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q9" s="32">
         <v>15.55</v>
       </c>
-      <c r="S9" s="26">
+      <c r="S9" s="27">
         <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="L10" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="38">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="31">
         <v>10</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10" s="31">
         <f>S10/1024</f>
         <v>0.4345703125</v>
       </c>
-      <c r="P10" s="30">
+      <c r="P10" s="31">
         <v>6.109</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="32">
         <v>15.55</v>
       </c>
-      <c r="S10" s="26">
+      <c r="S10" s="27">
         <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="29">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="27">
         <v>7</v>
       </c>
-      <c r="L11" s="44" t="s">
+      <c r="L11" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="38">
         <v>1.5E-3</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="31">
         <v>12.6</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="31">
         <v>35.299999999999997</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="31">
         <v>5.9219999999999997</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="32">
         <v>15.55</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="29">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="27">
         <v>7</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="L12" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="38">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N12" s="30">
+      <c r="N12" s="31">
         <v>10</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12" s="31">
         <f>S12/1024</f>
         <v>0.4462890625</v>
       </c>
-      <c r="P12" s="30">
+      <c r="P12" s="31">
         <v>6.18</v>
       </c>
-      <c r="Q12" s="31">
+      <c r="Q12" s="32">
         <v>15.55</v>
       </c>
-      <c r="S12" s="26">
+      <c r="S12" s="27">
         <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="29">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="27">
         <v>7</v>
       </c>
-      <c r="L13" s="44" t="s">
+      <c r="L13" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="38">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="31">
         <v>10</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="31">
         <f>S13/1024</f>
         <v>0.423828125</v>
       </c>
-      <c r="P13" s="30">
+      <c r="P13" s="31">
         <v>6.0819999999999999</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="Q13" s="32">
         <v>15.55</v>
       </c>
-      <c r="S13" s="26">
+      <c r="S13" s="27">
         <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="29">
         <v>1.5E-3</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="27">
         <v>6</v>
       </c>
-      <c r="L14" s="44" t="s">
+      <c r="L14" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="38">
         <v>1.5E-3</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="31">
         <v>10</v>
       </c>
-      <c r="O14" s="30">
+      <c r="O14" s="31">
         <f>S14/1024</f>
         <v>0.4345703125</v>
       </c>
-      <c r="P14" s="30">
+      <c r="P14" s="31">
         <v>6.109</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q14" s="32">
         <v>15.55</v>
       </c>
-      <c r="S14" s="26">
+      <c r="S14" s="27">
         <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="27">
-        <v>0</v>
-      </c>
-      <c r="D15" s="26" t="s">
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="27">
-        <v>0</v>
-      </c>
-      <c r="F15" s="26" t="s">
+      <c r="E15" s="28">
+        <v>0</v>
+      </c>
+      <c r="F15" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="26">
-        <v>0</v>
-      </c>
-      <c r="L15" s="44" t="s">
+      <c r="I15" s="27">
+        <v>0</v>
+      </c>
+      <c r="L15" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="38">
         <v>1.5E-3</v>
       </c>
-      <c r="N15" s="30">
+      <c r="N15" s="31">
         <v>12.6</v>
       </c>
-      <c r="O15" s="30">
+      <c r="O15" s="31">
         <v>35.299999999999997</v>
       </c>
-      <c r="P15" s="30">
+      <c r="P15" s="31">
         <v>5.9219999999999997</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="Q15" s="32">
         <v>15.55</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="27">
-        <v>0</v>
-      </c>
-      <c r="D16" s="26" t="s">
+      <c r="C16" s="28">
+        <v>0</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="27">
-        <v>0</v>
-      </c>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="28">
+        <v>0</v>
+      </c>
+      <c r="F16" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="26">
-        <v>0</v>
-      </c>
-      <c r="L16" s="44" t="s">
+      <c r="I16" s="27">
+        <v>0</v>
+      </c>
+      <c r="L16" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="38">
         <v>1.9E-3</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="31">
         <v>11.3</v>
       </c>
-      <c r="O16" s="30">
+      <c r="O16" s="31">
         <f>S16/1024</f>
         <v>0.4794921875</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="31">
         <v>6.4139999999999997</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q16" s="32">
         <v>15.55</v>
       </c>
-      <c r="S16" s="26">
+      <c r="S16" s="27">
         <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="27">
-        <v>0</v>
-      </c>
-      <c r="D17" s="26" t="s">
+      <c r="C17" s="28">
+        <v>0</v>
+      </c>
+      <c r="D17" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="27">
-        <v>0</v>
-      </c>
-      <c r="F17" s="26" t="s">
+      <c r="E17" s="28">
+        <v>0</v>
+      </c>
+      <c r="F17" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="26">
-        <v>0</v>
-      </c>
-      <c r="L17" s="44" t="s">
+      <c r="I17" s="27">
+        <v>0</v>
+      </c>
+      <c r="L17" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="38">
         <v>1.9E-3</v>
       </c>
-      <c r="N17" s="30">
+      <c r="N17" s="31">
         <v>11.3</v>
       </c>
-      <c r="O17" s="30">
+      <c r="O17" s="31">
         <f>S17/1024</f>
         <v>0.45703125</v>
       </c>
-      <c r="P17" s="30">
+      <c r="P17" s="31">
         <v>6.48</v>
       </c>
-      <c r="Q17" s="31">
+      <c r="Q17" s="32">
         <v>15.55</v>
       </c>
-      <c r="S17" s="26">
+      <c r="S17" s="27">
         <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="27">
-        <v>0</v>
-      </c>
-      <c r="D18" s="26" t="s">
+      <c r="C18" s="28">
+        <v>0</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="27">
-        <v>0</v>
-      </c>
-      <c r="F18" s="26" t="s">
+      <c r="E18" s="28">
+        <v>0</v>
+      </c>
+      <c r="F18" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="26">
-        <v>0</v>
-      </c>
-      <c r="L18" s="44" t="s">
+      <c r="I18" s="27">
+        <v>0</v>
+      </c>
+      <c r="L18" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="38">
         <v>2E-3</v>
       </c>
-      <c r="N18" s="30">
+      <c r="N18" s="31">
         <v>11.3</v>
       </c>
-      <c r="O18" s="30">
+      <c r="O18" s="31">
         <f>S18/1024</f>
         <v>0.466796875</v>
       </c>
-      <c r="P18" s="30">
+      <c r="P18" s="31">
         <v>6.492</v>
       </c>
-      <c r="Q18" s="31">
+      <c r="Q18" s="32">
         <v>15.55</v>
       </c>
-      <c r="S18" s="26">
+      <c r="S18" s="27">
         <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="44" t="s">
+      <c r="L19" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="M19" s="37">
+      <c r="M19" s="38">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="N19" s="30">
+      <c r="N19" s="31">
         <v>14.1</v>
       </c>
-      <c r="O19" s="30">
+      <c r="O19" s="31">
         <v>39.4</v>
       </c>
-      <c r="P19" s="30">
+      <c r="P19" s="31">
         <v>6.125</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="Q19" s="32">
         <v>15.55</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="29">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="27">
         <v>7</v>
       </c>
-      <c r="L20" s="44" t="s">
+      <c r="L20" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="38">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="N20" s="30">
+      <c r="N20" s="31">
         <v>11.3</v>
       </c>
-      <c r="O20" s="30">
+      <c r="O20" s="31">
         <f>S20/1024</f>
         <v>0.48046875</v>
       </c>
-      <c r="P20" s="30">
+      <c r="P20" s="31">
         <v>6.0620000000000003</v>
       </c>
-      <c r="Q20" s="31">
+      <c r="Q20" s="32">
         <v>15.55</v>
       </c>
-      <c r="S20" s="26">
+      <c r="S20" s="27">
         <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="29">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="27">
         <v>7</v>
       </c>
-      <c r="L21" s="44" t="s">
+      <c r="L21" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="M21" s="37">
+      <c r="M21" s="38">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="N21" s="30">
+      <c r="N21" s="31">
         <v>11.3</v>
       </c>
-      <c r="O21" s="30">
+      <c r="O21" s="31">
         <f>S21/1024</f>
         <v>0.45703125</v>
       </c>
-      <c r="P21" s="30">
+      <c r="P21" s="31">
         <v>6.0350000000000001</v>
       </c>
-      <c r="Q21" s="31">
+      <c r="Q21" s="32">
         <v>15.55</v>
       </c>
-      <c r="S21" s="26">
+      <c r="S21" s="27">
         <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="29">
         <v>1.5E-3</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="27">
         <v>7</v>
       </c>
-      <c r="L22" s="44" t="s">
+      <c r="L22" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="M22" s="37">
+      <c r="M22" s="38">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N22" s="30">
+      <c r="N22" s="31">
         <v>11.3</v>
       </c>
-      <c r="O22" s="30">
+      <c r="O22" s="31">
         <f>S22/1024</f>
         <v>0.4677734375</v>
       </c>
-      <c r="P22" s="30">
+      <c r="P22" s="31">
         <v>6.0549999999999997</v>
       </c>
-      <c r="Q22" s="31">
+      <c r="Q22" s="32">
         <v>15.55</v>
       </c>
-      <c r="S22" s="26">
+      <c r="S22" s="27">
         <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="29">
         <v>1.5E-3</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="27">
         <v>6</v>
       </c>
-      <c r="L23" s="44" t="s">
+      <c r="L23" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="M23" s="37">
+      <c r="M23" s="38">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="N23" s="30">
+      <c r="N23" s="31">
         <v>14.2</v>
       </c>
-      <c r="O23" s="30">
+      <c r="O23" s="31">
         <v>40.700000000000003</v>
       </c>
-      <c r="P23" s="30">
+      <c r="P23" s="31">
         <v>6.1210000000000004</v>
       </c>
-      <c r="Q23" s="31">
+      <c r="Q23" s="32">
         <v>15.55</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="27">
-        <v>0</v>
-      </c>
-      <c r="D24" s="26" t="s">
+      <c r="C24" s="28">
+        <v>0</v>
+      </c>
+      <c r="D24" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="27">
-        <v>0</v>
-      </c>
-      <c r="F24" s="26" t="s">
+      <c r="E24" s="28">
+        <v>0</v>
+      </c>
+      <c r="F24" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="26">
-        <v>0</v>
-      </c>
-      <c r="L24" s="44" t="s">
+      <c r="I24" s="27">
+        <v>0</v>
+      </c>
+      <c r="L24" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="M24" s="37">
+      <c r="M24" s="38">
         <v>1.5E-3</v>
       </c>
-      <c r="N24" s="30">
+      <c r="N24" s="31">
         <v>11.3</v>
       </c>
-      <c r="O24" s="30">
+      <c r="O24" s="31">
         <f>S24/1024</f>
         <v>0.48046875</v>
       </c>
-      <c r="P24" s="30">
+      <c r="P24" s="31">
         <v>6.0620000000000003</v>
       </c>
-      <c r="Q24" s="31">
+      <c r="Q24" s="32">
         <v>15.55</v>
       </c>
-      <c r="S24" s="26">
+      <c r="S24" s="27">
         <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="27">
-        <v>0</v>
-      </c>
-      <c r="D25" s="26" t="s">
+      <c r="C25" s="28">
+        <v>0</v>
+      </c>
+      <c r="D25" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="27">
-        <v>0</v>
-      </c>
-      <c r="F25" s="26" t="s">
+      <c r="E25" s="28">
+        <v>0</v>
+      </c>
+      <c r="F25" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="26">
-        <v>0</v>
-      </c>
-      <c r="L25" s="44" t="s">
+      <c r="I25" s="27">
+        <v>0</v>
+      </c>
+      <c r="L25" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="M25" s="37">
+      <c r="M25" s="38">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N25" s="30">
+      <c r="N25" s="31">
         <v>11.3</v>
       </c>
-      <c r="O25" s="30">
+      <c r="O25" s="31">
         <f>S25/1024</f>
         <v>0.4580078125</v>
       </c>
-      <c r="P25" s="30">
+      <c r="P25" s="31">
         <v>6.0350000000000001</v>
       </c>
-      <c r="Q25" s="31">
+      <c r="Q25" s="32">
         <v>15.55</v>
       </c>
-      <c r="S25" s="26">
+      <c r="S25" s="27">
         <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="27">
-        <v>0</v>
-      </c>
-      <c r="D26" s="26" t="s">
+      <c r="C26" s="28">
+        <v>0</v>
+      </c>
+      <c r="D26" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="27">
-        <v>0</v>
-      </c>
-      <c r="F26" s="26" t="s">
+      <c r="E26" s="28">
+        <v>0</v>
+      </c>
+      <c r="F26" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="26">
-        <v>0</v>
-      </c>
-      <c r="L26" s="44" t="s">
+      <c r="I26" s="27">
+        <v>0</v>
+      </c>
+      <c r="L26" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="M26" s="37">
+      <c r="M26" s="38">
         <v>1.8E-3</v>
       </c>
-      <c r="N26" s="30">
+      <c r="N26" s="31">
         <v>11.3</v>
       </c>
-      <c r="O26" s="30">
+      <c r="O26" s="31">
         <f>S26/1024</f>
         <v>0.4677734375</v>
       </c>
-      <c r="P26" s="30">
+      <c r="P26" s="31">
         <v>6.0549999999999997</v>
       </c>
-      <c r="Q26" s="31">
+      <c r="Q26" s="32">
         <v>15.55</v>
       </c>
-      <c r="S26" s="26">
+      <c r="S26" s="27">
         <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="27">
-        <v>0</v>
-      </c>
-      <c r="D27" s="26" t="s">
+      <c r="C27" s="28">
+        <v>0</v>
+      </c>
+      <c r="D27" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="27">
-        <v>0</v>
-      </c>
-      <c r="F27" s="26" t="s">
+      <c r="E27" s="28">
+        <v>0</v>
+      </c>
+      <c r="F27" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="26">
-        <v>0</v>
-      </c>
-      <c r="L27" s="44" t="s">
+      <c r="I27" s="27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="M27" s="37">
+      <c r="M27" s="38">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N27" s="30">
+      <c r="N27" s="31">
         <v>14.2</v>
       </c>
-      <c r="O27" s="30">
+      <c r="O27" s="31">
         <v>40.700000000000003</v>
       </c>
-      <c r="P27" s="30">
+      <c r="P27" s="31">
         <v>6.1210000000000004</v>
       </c>
-      <c r="Q27" s="31">
+      <c r="Q27" s="32">
         <v>15.55</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="I28" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="44" t="s">
+      <c r="L28" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="M28" s="37">
+      <c r="M28" s="38">
         <v>6.6E-3</v>
       </c>
-      <c r="N28" s="30">
+      <c r="N28" s="31">
         <v>12.7</v>
       </c>
-      <c r="O28" s="30">
+      <c r="O28" s="31">
         <f>S28/1024</f>
         <v>0.486328125</v>
       </c>
-      <c r="P28" s="30">
+      <c r="P28" s="31">
         <v>6.359</v>
       </c>
-      <c r="Q28" s="31">
+      <c r="Q28" s="32">
         <v>15.55</v>
       </c>
-      <c r="S28" s="26">
+      <c r="S28" s="27">
         <v>498</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="29">
         <v>1.9E-3</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="27">
         <v>7</v>
       </c>
-      <c r="L29" s="44" t="s">
+      <c r="L29" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="M29" s="37">
+      <c r="M29" s="38">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="N29" s="30">
+      <c r="N29" s="31">
         <v>12.7</v>
       </c>
-      <c r="O29" s="30">
+      <c r="O29" s="31">
         <f>S29/1024</f>
         <v>0.4921875</v>
       </c>
-      <c r="P29" s="30">
+      <c r="P29" s="31">
         <v>6.383</v>
       </c>
-      <c r="Q29" s="31">
+      <c r="Q29" s="32">
         <v>15.55</v>
       </c>
-      <c r="S29" s="26">
+      <c r="S29" s="27">
         <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="29">
         <v>1.9E-3</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="27">
         <v>7</v>
       </c>
-      <c r="L30" s="44" t="s">
+      <c r="L30" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="M30" s="37">
+      <c r="M30" s="38">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="N30" s="30">
+      <c r="N30" s="31">
         <v>12.7</v>
       </c>
-      <c r="O30" s="30">
+      <c r="O30" s="31">
         <f>S30/1024</f>
         <v>0.5029296875</v>
       </c>
-      <c r="P30" s="30">
+      <c r="P30" s="31">
         <v>6.391</v>
       </c>
-      <c r="Q30" s="31">
+      <c r="Q30" s="32">
         <v>15.55</v>
       </c>
-      <c r="S30" s="26">
+      <c r="S30" s="27">
         <v>515</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="29">
         <v>2E-3</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I31" s="27">
         <v>7</v>
       </c>
-      <c r="L31" s="44" t="s">
+      <c r="L31" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="M31" s="37">
+      <c r="M31" s="38">
         <v>0.14399999999999999</v>
       </c>
-      <c r="N31" s="30">
+      <c r="N31" s="31">
         <v>15.58</v>
       </c>
-      <c r="O31" s="30">
+      <c r="O31" s="31">
         <v>44.8</v>
       </c>
-      <c r="P31" s="30">
+      <c r="P31" s="31">
         <v>6.1479999999999997</v>
       </c>
-      <c r="Q31" s="31">
+      <c r="Q31" s="32">
         <v>15.55</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="29">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="27">
         <v>6</v>
       </c>
-      <c r="L32" s="44" t="s">
+      <c r="L32" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="M32" s="37">
+      <c r="M32" s="38">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N32" s="30">
+      <c r="N32" s="31">
         <v>12.7</v>
       </c>
-      <c r="O32" s="30">
+      <c r="O32" s="31">
         <f>S32/1024</f>
         <v>0.5166015625</v>
       </c>
-      <c r="P32" s="30">
+      <c r="P32" s="31">
         <v>6.359</v>
       </c>
-      <c r="Q32" s="31">
+      <c r="Q32" s="32">
         <v>15.55</v>
       </c>
-      <c r="S32" s="26">
+      <c r="S32" s="27">
         <v>529</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="27">
-        <v>0</v>
-      </c>
-      <c r="D33" s="26" t="s">
+      <c r="C33" s="28">
+        <v>0</v>
+      </c>
+      <c r="D33" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="27">
-        <v>0</v>
-      </c>
-      <c r="F33" s="26" t="s">
+      <c r="E33" s="28">
+        <v>0</v>
+      </c>
+      <c r="F33" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I33" s="26">
-        <v>0</v>
-      </c>
-      <c r="L33" s="44" t="s">
+      <c r="I33" s="27">
+        <v>0</v>
+      </c>
+      <c r="L33" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="M33" s="37">
+      <c r="M33" s="38">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N33" s="30">
+      <c r="N33" s="31">
         <v>12.7</v>
       </c>
-      <c r="O33" s="30">
+      <c r="O33" s="31">
         <f>S33/1024</f>
         <v>0.4931640625</v>
       </c>
-      <c r="P33" s="30">
+      <c r="P33" s="31">
         <v>6.3550000000000004</v>
       </c>
-      <c r="Q33" s="31">
+      <c r="Q33" s="32">
         <v>15.55</v>
       </c>
-      <c r="S33" s="26">
+      <c r="S33" s="27">
         <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="27">
-        <v>0</v>
-      </c>
-      <c r="D34" s="26" t="s">
+      <c r="C34" s="28">
+        <v>0</v>
+      </c>
+      <c r="D34" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="27">
-        <v>0</v>
-      </c>
-      <c r="F34" s="26" t="s">
+      <c r="E34" s="28">
+        <v>0</v>
+      </c>
+      <c r="F34" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="26">
-        <v>0</v>
-      </c>
-      <c r="L34" s="44" t="s">
+      <c r="I34" s="27">
+        <v>0</v>
+      </c>
+      <c r="L34" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="M34" s="37">
+      <c r="M34" s="38">
         <v>1.5E-3</v>
       </c>
-      <c r="N34" s="30">
+      <c r="N34" s="31">
         <v>12.7</v>
       </c>
-      <c r="O34" s="30">
+      <c r="O34" s="31">
         <f>S34/1024</f>
         <v>0.5029296875</v>
       </c>
-      <c r="P34" s="30">
+      <c r="P34" s="31">
         <v>6.3630000000000004</v>
       </c>
-      <c r="Q34" s="31">
+      <c r="Q34" s="32">
         <v>15.55</v>
       </c>
-      <c r="S34" s="26">
+      <c r="S34" s="27">
         <v>515</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="27">
-        <v>0</v>
-      </c>
-      <c r="D35" s="26" t="s">
+      <c r="C35" s="28">
+        <v>0</v>
+      </c>
+      <c r="D35" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="27">
-        <v>0</v>
-      </c>
-      <c r="F35" s="26" t="s">
+      <c r="E35" s="28">
+        <v>0</v>
+      </c>
+      <c r="F35" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I35" s="26">
-        <v>0</v>
-      </c>
-      <c r="L35" s="45" t="s">
+      <c r="I35" s="27">
+        <v>0</v>
+      </c>
+      <c r="L35" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="M35" s="38">
+      <c r="M35" s="39">
         <v>1.5E-3</v>
       </c>
-      <c r="N35" s="39">
+      <c r="N35" s="40">
         <v>15.8</v>
       </c>
-      <c r="O35" s="39">
+      <c r="O35" s="40">
         <v>15.8</v>
       </c>
-      <c r="P35" s="39">
+      <c r="P35" s="40">
         <v>6.1210000000000004</v>
       </c>
-      <c r="Q35" s="32">
+      <c r="Q35" s="33">
         <v>15.55</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="27">
-        <v>0</v>
-      </c>
-      <c r="D36" s="26" t="s">
+      <c r="C36" s="28">
+        <v>0</v>
+      </c>
+      <c r="D36" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="27">
-        <v>0</v>
-      </c>
-      <c r="F36" s="26" t="s">
+      <c r="E36" s="28">
+        <v>0</v>
+      </c>
+      <c r="F36" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I36" s="26">
-        <v>0</v>
-      </c>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
+      <c r="I36" s="27">
+        <v>0</v>
+      </c>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
     </row>
     <row r="37" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="26" t="s">
+      <c r="H37" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="I37" s="26" t="s">
+      <c r="I37" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="L37" s="40"/>
-      <c r="M37" s="41" t="s">
+      <c r="L37" s="41"/>
+      <c r="M37" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="N37" s="42" t="s">
+      <c r="N37" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="O37" s="42" t="s">
+      <c r="O37" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="P37" s="42" t="s">
+      <c r="P37" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="Q37" s="43" t="s">
+      <c r="Q37" s="44" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="29">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F38" s="29" t="s">
+      <c r="F38" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="H38" s="26" t="s">
+      <c r="H38" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="I38" s="26">
+      <c r="I38" s="27">
         <v>7</v>
       </c>
-      <c r="L38" s="46" t="s">
+      <c r="L38" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="M38" s="33">
+      <c r="M38" s="34">
         <f>AVERAGE(M6,M10,M14,M18,M22,M26,M30,M34)</f>
         <v>9.0124999999999997E-3</v>
       </c>
-      <c r="N38" s="34">
+      <c r="N38" s="35">
         <f>AVERAGE(N6,N10,N14,N18,N22,N26,N30,N34)</f>
         <v>11.14</v>
       </c>
-      <c r="O38" s="78">
+      <c r="O38" s="77">
         <f>AVERAGE(O6,O10,O14,O18,O22,O26,O30,O34)</f>
         <v>0.4603271484375</v>
       </c>
-      <c r="P38" s="78">
+      <c r="P38" s="77">
         <f>AVERAGE(P6,P10,P14,P18,P22,P26,P30,P34) * 1.048576</f>
         <v>6.5541242879999997</v>
       </c>
-      <c r="Q38" s="80">
+      <c r="Q38" s="79">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="29">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F39" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="H39" s="26" t="s">
+      <c r="H39" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="I39" s="26">
+      <c r="I39" s="27">
         <v>7</v>
       </c>
-      <c r="L39" s="46" t="s">
+      <c r="L39" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="M39" s="33">
+      <c r="M39" s="34">
         <f>AVERAGE(M5,M9,M13,M17,M21,M25,M29,M33)</f>
         <v>9.4375000000000014E-3</v>
       </c>
-      <c r="N39" s="34">
+      <c r="N39" s="35">
         <f>AVERAGE(N5,N9,N13,N17,N21,N25,N29,N33)</f>
         <v>11.14</v>
       </c>
-      <c r="O39" s="78">
+      <c r="O39" s="77">
         <f>AVERAGE(O5,O9,O13,O17,O21,O25,O29,O33)</f>
         <v>0.44970703125</v>
       </c>
-      <c r="P39" s="78">
+      <c r="P39" s="77">
         <f>AVERAGE(P5,P9,P13,P17,P21,P25,P29,P33) * 1.048576</f>
         <v>6.5386577919999995</v>
       </c>
-      <c r="Q39" s="80">
+      <c r="Q39" s="79">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="29">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E40" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F40" s="29" t="s">
+      <c r="F40" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="I40" s="26">
+      <c r="I40" s="27">
         <v>7</v>
       </c>
-      <c r="L40" s="46" t="s">
+      <c r="L40" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="M40" s="33">
+      <c r="M40" s="34">
         <f>AVERAGE(M4,M8,M12,M16,M20,M24,M28,M32)</f>
         <v>2.2875E-3</v>
       </c>
-      <c r="N40" s="34">
+      <c r="N40" s="35">
         <f>AVERAGE(N4,N8,N12,N16,N20,N24,N28,N32)</f>
         <v>11.14</v>
       </c>
-      <c r="O40" s="78">
+      <c r="O40" s="77">
         <f>AVERAGE(O4,O8,O12,O16,O20,O24,O28,O32)</f>
         <v>0.468994140625</v>
       </c>
-      <c r="P40" s="78">
+      <c r="P40" s="77">
         <f>AVERAGE(P4,P8,P12,P16,P20,P24,P28,P32) * 1.048576</f>
         <v>6.5488814080000006</v>
       </c>
-      <c r="Q40" s="80">
+      <c r="Q40" s="79">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="29">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E41" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="F41" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="G41" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="H41" s="26" t="s">
+      <c r="H41" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="I41" s="26">
+      <c r="I41" s="27">
         <v>6</v>
       </c>
-      <c r="L41" s="47" t="s">
+      <c r="L41" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="M41" s="35">
+      <c r="M41" s="36">
         <f>AVERAGE(M7,M11,M15,M19,M23,M27,M31,M35)</f>
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="N41" s="36">
+      <c r="N41" s="37">
         <f>AVERAGE(N7,N11,N15,N19,N23,N27,N31,N35)</f>
         <v>13.91</v>
       </c>
-      <c r="O41" s="79">
+      <c r="O41" s="78">
         <f>AVERAGE(O7,O11,O15,O19,O23,O27,O31,O35)</f>
         <v>35.5625</v>
       </c>
-      <c r="P41" s="79">
+      <c r="P41" s="78">
         <f>AVERAGE(P7,P11,P15,P19,P23,P27,P31,P35) * 1.048576</f>
         <v>6.3390351360000006</v>
       </c>
-      <c r="Q41" s="81">
+      <c r="Q41" s="80">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="27">
-        <v>0</v>
-      </c>
-      <c r="D42" s="26" t="s">
+      <c r="C42" s="28">
+        <v>0</v>
+      </c>
+      <c r="D42" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="27">
-        <v>0</v>
-      </c>
-      <c r="F42" s="26" t="s">
+      <c r="E42" s="28">
+        <v>0</v>
+      </c>
+      <c r="F42" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="26" t="s">
+      <c r="G42" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I42" s="26">
+      <c r="I42" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="27">
-        <v>0</v>
-      </c>
-      <c r="D43" s="26" t="s">
+      <c r="C43" s="28">
+        <v>0</v>
+      </c>
+      <c r="D43" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="27">
-        <v>0</v>
-      </c>
-      <c r="F43" s="26" t="s">
+      <c r="E43" s="28">
+        <v>0</v>
+      </c>
+      <c r="F43" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I43" s="26">
+      <c r="I43" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="27">
-        <v>0</v>
-      </c>
-      <c r="D44" s="26" t="s">
+      <c r="C44" s="28">
+        <v>0</v>
+      </c>
+      <c r="D44" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="27">
-        <v>0</v>
-      </c>
-      <c r="F44" s="26" t="s">
+      <c r="E44" s="28">
+        <v>0</v>
+      </c>
+      <c r="F44" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G44" s="26" t="s">
+      <c r="G44" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="26">
+      <c r="I44" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="27">
-        <v>0</v>
-      </c>
-      <c r="D45" s="26" t="s">
+      <c r="C45" s="28">
+        <v>0</v>
+      </c>
+      <c r="D45" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="27">
-        <v>0</v>
-      </c>
-      <c r="F45" s="26" t="s">
+      <c r="E45" s="28">
+        <v>0</v>
+      </c>
+      <c r="F45" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="G45" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I45" s="26">
+      <c r="I45" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F46" s="26" t="s">
+      <c r="F46" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="G46" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="H46" s="26" t="s">
+      <c r="H46" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="I46" s="26" t="s">
+      <c r="I46" s="27" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="28">
+      <c r="C47" s="29">
         <v>1.5E-3</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="E47" s="28">
+      <c r="E47" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="F47" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="G47" s="26" t="s">
+      <c r="G47" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="26" t="s">
+      <c r="H47" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="I47" s="26">
+      <c r="I47" s="27">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="28">
+      <c r="C48" s="29">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="E48" s="28">
+      <c r="E48" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F48" s="29" t="s">
+      <c r="F48" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G48" s="26" t="s">
+      <c r="G48" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="H48" s="26" t="s">
+      <c r="H48" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="I48" s="26">
+      <c r="I48" s="27">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="28">
+      <c r="C49" s="29">
         <v>1.8E-3</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E49" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F49" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="26" t="s">
+      <c r="G49" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="H49" s="26" t="s">
+      <c r="H49" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="I49" s="26">
+      <c r="I49" s="27">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="28">
+      <c r="C50" s="29">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F50" s="29" t="s">
+      <c r="F50" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="G50" s="26" t="s">
+      <c r="G50" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="H50" s="26" t="s">
+      <c r="H50" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="I50" s="26">
+      <c r="I50" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="27">
-        <v>0</v>
-      </c>
-      <c r="D51" s="26" t="s">
+      <c r="C51" s="28">
+        <v>0</v>
+      </c>
+      <c r="D51" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E51" s="27">
-        <v>0</v>
-      </c>
-      <c r="F51" s="26" t="s">
+      <c r="E51" s="28">
+        <v>0</v>
+      </c>
+      <c r="F51" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="G51" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I51" s="26">
+      <c r="I51" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="27">
-        <v>0</v>
-      </c>
-      <c r="D52" s="26" t="s">
+      <c r="C52" s="28">
+        <v>0</v>
+      </c>
+      <c r="D52" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E52" s="27">
-        <v>0</v>
-      </c>
-      <c r="F52" s="26" t="s">
+      <c r="E52" s="28">
+        <v>0</v>
+      </c>
+      <c r="F52" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G52" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I52" s="26">
+      <c r="I52" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="27">
-        <v>0</v>
-      </c>
-      <c r="D53" s="26" t="s">
+      <c r="C53" s="28">
+        <v>0</v>
+      </c>
+      <c r="D53" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="27">
-        <v>0</v>
-      </c>
-      <c r="F53" s="26" t="s">
+      <c r="E53" s="28">
+        <v>0</v>
+      </c>
+      <c r="F53" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G53" s="26" t="s">
+      <c r="G53" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I53" s="26">
+      <c r="I53" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="27">
-        <v>0</v>
-      </c>
-      <c r="D54" s="26" t="s">
+      <c r="C54" s="28">
+        <v>0</v>
+      </c>
+      <c r="D54" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="27">
-        <v>0</v>
-      </c>
-      <c r="F54" s="26" t="s">
+      <c r="E54" s="28">
+        <v>0</v>
+      </c>
+      <c r="F54" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G54" s="26" t="s">
+      <c r="G54" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I54" s="26">
+      <c r="I54" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F55" s="26" t="s">
+      <c r="F55" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G55" s="26" t="s">
+      <c r="G55" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="H55" s="26" t="s">
+      <c r="H55" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="I55" s="26" t="s">
+      <c r="I55" s="27" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="28">
+      <c r="C56" s="29">
         <v>6.6E-3</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D56" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="28">
+      <c r="E56" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F56" s="29" t="s">
+      <c r="F56" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G56" s="26" t="s">
+      <c r="G56" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="H56" s="26" t="s">
+      <c r="H56" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="I56" s="26">
+      <c r="I56" s="27">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="29">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="D57" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="E57" s="28">
+      <c r="E57" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="F57" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="G57" s="26" t="s">
+      <c r="G57" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H57" s="26" t="s">
+      <c r="H57" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="I57" s="26">
+      <c r="I57" s="27">
         <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="28">
+      <c r="C58" s="29">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D58" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="E58" s="28">
+      <c r="E58" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F58" s="29" t="s">
+      <c r="F58" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="G58" s="26" t="s">
+      <c r="G58" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H58" s="26" t="s">
+      <c r="H58" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="I58" s="26">
+      <c r="I58" s="27">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="28">
+      <c r="C59" s="29">
         <v>0.14399999999999999</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D59" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="E59" s="28">
+      <c r="E59" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F59" s="29" t="s">
+      <c r="F59" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="G59" s="26" t="s">
+      <c r="G59" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H59" s="26" t="s">
+      <c r="H59" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="I59" s="26">
+      <c r="I59" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="27">
-        <v>0</v>
-      </c>
-      <c r="D60" s="26" t="s">
+      <c r="C60" s="28">
+        <v>0</v>
+      </c>
+      <c r="D60" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="27">
-        <v>0</v>
-      </c>
-      <c r="F60" s="26" t="s">
+      <c r="E60" s="28">
+        <v>0</v>
+      </c>
+      <c r="F60" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G60" s="26" t="s">
+      <c r="G60" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I60" s="26">
+      <c r="I60" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="27">
-        <v>0</v>
-      </c>
-      <c r="D61" s="26" t="s">
+      <c r="C61" s="28">
+        <v>0</v>
+      </c>
+      <c r="D61" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E61" s="27">
-        <v>0</v>
-      </c>
-      <c r="F61" s="26" t="s">
+      <c r="E61" s="28">
+        <v>0</v>
+      </c>
+      <c r="F61" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G61" s="26" t="s">
+      <c r="G61" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I61" s="26">
+      <c r="I61" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="27">
-        <v>0</v>
-      </c>
-      <c r="D62" s="26" t="s">
+      <c r="C62" s="28">
+        <v>0</v>
+      </c>
+      <c r="D62" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E62" s="27">
-        <v>0</v>
-      </c>
-      <c r="F62" s="26" t="s">
+      <c r="E62" s="28">
+        <v>0</v>
+      </c>
+      <c r="F62" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G62" s="26" t="s">
+      <c r="G62" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I62" s="26">
+      <c r="I62" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="27">
-        <v>0</v>
-      </c>
-      <c r="D63" s="26" t="s">
+      <c r="C63" s="28">
+        <v>0</v>
+      </c>
+      <c r="D63" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E63" s="27">
-        <v>0</v>
-      </c>
-      <c r="F63" s="26" t="s">
+      <c r="E63" s="28">
+        <v>0</v>
+      </c>
+      <c r="F63" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G63" s="26" t="s">
+      <c r="G63" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I63" s="26">
+      <c r="I63" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E64" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F64" s="26" t="s">
+      <c r="F64" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G64" s="26" t="s">
+      <c r="G64" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="H64" s="26" t="s">
+      <c r="H64" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="I64" s="26" t="s">
+      <c r="I64" s="27" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="26" t="s">
+      <c r="A65" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="28">
+      <c r="C65" s="29">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="E65" s="28">
+      <c r="E65" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F65" s="29" t="s">
+      <c r="F65" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G65" s="26" t="s">
+      <c r="G65" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H65" s="26" t="s">
+      <c r="H65" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="I65" s="26">
+      <c r="I65" s="27">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="28">
+      <c r="C66" s="29">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="E66" s="28">
+      <c r="E66" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F66" s="29" t="s">
+      <c r="F66" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="G66" s="26" t="s">
+      <c r="G66" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H66" s="26" t="s">
+      <c r="H66" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="I66" s="26">
+      <c r="I66" s="27">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C67" s="28">
+      <c r="C67" s="29">
         <v>1.5E-3</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D67" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="E67" s="28">
+      <c r="E67" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F67" s="29" t="s">
+      <c r="F67" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="26" t="s">
+      <c r="G67" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H67" s="26" t="s">
+      <c r="H67" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="I67" s="26">
+      <c r="I67" s="27">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="28">
+      <c r="C68" s="29">
         <v>1.5E-3</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E68" s="28">
+      <c r="E68" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F68" s="29" t="s">
+      <c r="F68" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="G68" s="26" t="s">
+      <c r="G68" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H68" s="26" t="s">
+      <c r="H68" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I68" s="26">
+      <c r="I68" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="27">
-        <v>0</v>
-      </c>
-      <c r="D69" s="26" t="s">
+      <c r="C69" s="28">
+        <v>0</v>
+      </c>
+      <c r="D69" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E69" s="27">
-        <v>0</v>
-      </c>
-      <c r="F69" s="26" t="s">
+      <c r="E69" s="28">
+        <v>0</v>
+      </c>
+      <c r="F69" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G69" s="26" t="s">
+      <c r="G69" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I69" s="26">
+      <c r="I69" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="27">
-        <v>0</v>
-      </c>
-      <c r="D70" s="26" t="s">
+      <c r="C70" s="28">
+        <v>0</v>
+      </c>
+      <c r="D70" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E70" s="27">
-        <v>0</v>
-      </c>
-      <c r="F70" s="26" t="s">
+      <c r="E70" s="28">
+        <v>0</v>
+      </c>
+      <c r="F70" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G70" s="26" t="s">
+      <c r="G70" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I70" s="26">
+      <c r="I70" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C71" s="27">
-        <v>0</v>
-      </c>
-      <c r="D71" s="26" t="s">
+      <c r="C71" s="28">
+        <v>0</v>
+      </c>
+      <c r="D71" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E71" s="27">
-        <v>0</v>
-      </c>
-      <c r="F71" s="26" t="s">
+      <c r="E71" s="28">
+        <v>0</v>
+      </c>
+      <c r="F71" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G71" s="26" t="s">
+      <c r="G71" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I71" s="26">
+      <c r="I71" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="26" t="s">
+      <c r="A72" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="27">
-        <v>0</v>
-      </c>
-      <c r="D72" s="26" t="s">
+      <c r="C72" s="28">
+        <v>0</v>
+      </c>
+      <c r="D72" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E72" s="27">
-        <v>0</v>
-      </c>
-      <c r="F72" s="26" t="s">
+      <c r="E72" s="28">
+        <v>0</v>
+      </c>
+      <c r="F72" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="G72" s="26" t="s">
+      <c r="G72" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I72" s="26">
+      <c r="I72" s="27">
         <v>0</v>
       </c>
     </row>
@@ -17408,7 +17482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBFCAC3-55BC-944C-B7B3-C5C9963935EC}">
   <dimension ref="C6:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
@@ -17417,24 +17491,24 @@
     <row r="6" spans="3:13" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C7" s="5"/>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="50" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="50" t="s">
         <v>43</v>
       </c>
       <c r="K7" s="5"/>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="49" t="s">
+      <c r="M7" s="50" t="s">
         <v>43</v>
       </c>
     </row>
@@ -17528,175 +17602,175 @@
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="3:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="21">
         <v>24.971222649755209</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="G12" s="50" t="s">
+      <c r="E12" s="22"/>
+      <c r="G12" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="21">
         <v>494.64248697497646</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="K12" s="50" t="s">
+      <c r="I12" s="22"/>
+      <c r="K12" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="21">
         <v>972.59089191969053</v>
       </c>
-      <c r="M12" s="21"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="18" spans="3:11" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="3:11" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="65" t="s">
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="J19" s="66"/>
-      <c r="K19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="68"/>
     </row>
     <row r="20" spans="3:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="60" t="s">
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="59" t="s">
+      <c r="J20" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="61" t="s">
+      <c r="K20" s="62" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C21" s="54">
+      <c r="C21" s="55">
         <f>D8</f>
         <v>515.10566666666671</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="53">
         <f>D9</f>
         <v>666.00411489645933</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="53">
         <f>D10</f>
         <v>670.74682096041306</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="56">
         <f>D12</f>
         <v>24.971222649755209</v>
       </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="54">
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="55">
         <f>E9</f>
         <v>1040.9225054652568</v>
       </c>
-      <c r="J21" s="52">
+      <c r="J21" s="53">
         <f>E10</f>
         <v>796.91455621109969</v>
       </c>
-      <c r="K21" s="55">
+      <c r="K21" s="56">
         <f>D12</f>
         <v>24.971222649755209</v>
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C22" s="54">
+      <c r="C22" s="55">
         <f>H8</f>
         <v>396.65933333333334</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="53">
         <f>H9</f>
         <v>351.40972492843503</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="53">
         <f>H10</f>
         <v>461.67304458513331</v>
       </c>
-      <c r="F22" s="55">
+      <c r="F22" s="56">
         <f>H12</f>
         <v>494.64248697497646</v>
       </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="54">
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="55">
         <f>I9</f>
         <v>530.72116225604634</v>
       </c>
-      <c r="J22" s="53">
+      <c r="J22" s="54">
         <f>I10</f>
         <v>566.46727886794577</v>
       </c>
-      <c r="K22" s="55">
+      <c r="K22" s="56">
         <f>H12</f>
         <v>494.64248697497646</v>
       </c>
     </row>
     <row r="23" spans="3:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="56">
+      <c r="C23" s="57">
         <f>L8</f>
         <v>233.49633333333335</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="58">
         <f>L9</f>
         <v>249.56134624881869</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="58">
         <f>L10</f>
         <v>339.96199677938768</v>
       </c>
-      <c r="F23" s="58">
+      <c r="F23" s="59">
         <f>L12</f>
         <v>972.59089191969053</v>
       </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="56">
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="57">
         <f>M9</f>
         <v>290.50553667361635</v>
       </c>
-      <c r="J23" s="57">
+      <c r="J23" s="58">
         <f>M10</f>
         <v>387.72318745864965</v>
       </c>
-      <c r="K23" s="58">
+      <c r="K23" s="59">
         <f>L12</f>
         <v>972.59089191969053</v>
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/LOG8430E_redis_results.xlsx
+++ b/LOG8430E_redis_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thierry/Desktop/LOG8430E_TP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3499FFBA-20D7-1B4E-BC35-3C3A15E9CFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BAF993-757B-6446-9070-225DD7097155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="500" windowWidth="36920" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="184">
   <si>
     <t>##################################################################################</t>
   </si>
@@ -579,17 +579,48 @@
   </si>
   <si>
     <t>∆WRITES</t>
+  </si>
+  <si>
+    <t>client 1</t>
+  </si>
+  <si>
+    <t>client 2</t>
+  </si>
+  <si>
+    <t>client 3</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>write Minimum (s)</t>
+  </si>
+  <si>
+    <t>read Minimum (s)</t>
+  </si>
+  <si>
+    <t>read Maximum (s)</t>
+  </si>
+  <si>
+    <t>write Maximum (s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -646,7 +677,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -864,6 +895,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -899,113 +943,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1023,13 +1074,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1038,54 +1089,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1103,7 +1155,7 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1112,10 +1164,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1228,7 +1298,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tps-25'!$L$14</c:f>
+              <c:f>'tps-25'!$L$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1301,9 +1371,60 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'tps-25'!$N$16:$N$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>35.756037494852968</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>12.406759739445162</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>63.99668493432246</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'tps-25'!$N$16:$N$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>35.756037494852968</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>12.406759739445162</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>63.99668493432246</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'tps-25'!$K$15:$K$17</c:f>
+              <c:f>'tps-25'!$K$16:$K$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1320,7 +1441,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tps-25'!$L$15:$L$17</c:f>
+              <c:f>'tps-25'!$L$16:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1347,7 +1468,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tps-25'!$M$14</c:f>
+              <c:f>'tps-25'!$M$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1420,9 +1541,54 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'tps-25'!$O$16:$O$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="1">
+                    <c:v>38.117252450149763</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.929229944012965</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'tps-25'!$O$16:$O$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="1">
+                    <c:v>38.117252450149763</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.929229944012965</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'tps-25'!$K$15:$K$17</c:f>
+              <c:f>'tps-25'!$K$16:$K$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1439,7 +1605,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tps-25'!$M$15:$M$17</c:f>
+              <c:f>'tps-25'!$M$16:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4997,10 +5163,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T285"/>
+  <dimension ref="A1:Y285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5011,10 +5177,11 @@
     <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:20" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:25" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5024,23 +5191,29 @@
       <c r="I2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="65" t="s">
+      <c r="K2" s="61"/>
+      <c r="L2" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="65"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="84"/>
+      <c r="P2" s="83"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="81" t="s">
+      <c r="R2" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="S2" s="82"/>
-      <c r="T2" s="83"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S2" s="77"/>
+      <c r="T2" s="78"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="78"/>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5050,7 +5223,7 @@
       <c r="I3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="64"/>
+      <c r="K3" s="62"/>
       <c r="L3" s="2" t="s">
         <v>42</v>
       </c>
@@ -5058,21 +5231,31 @@
         <v>43</v>
       </c>
       <c r="N3" s="7"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="70" t="s">
+      <c r="P3" s="67"/>
+      <c r="Q3" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="R3" s="73" t="s">
+      <c r="R3" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="S3" s="60" t="s">
+      <c r="S3" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="T3" s="74" t="s">
+      <c r="T3" s="73" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="V3" s="62"/>
+      <c r="W3" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="X3" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y3" s="73" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5099,21 +5282,33 @@
         <f>C5</f>
         <v>24.933303413369199</v>
       </c>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="71" t="s">
+      <c r="P4" s="67"/>
+      <c r="Q4" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="R4" s="75">
+      <c r="R4" s="74">
         <v>0.02</v>
       </c>
-      <c r="S4" s="75">
+      <c r="S4" s="74">
         <v>0.01</v>
       </c>
-      <c r="T4" s="56">
+      <c r="T4" s="54">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V4" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="W4" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="X4" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="Y4" s="99">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5138,19 +5333,31 @@
         <f>C32</f>
         <v>24.983760555638799</v>
       </c>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="71" t="s">
+      <c r="P5" s="67"/>
+      <c r="Q5" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75">
+      <c r="R5" s="74"/>
+      <c r="S5" s="74">
         <v>0.48</v>
       </c>
-      <c r="T5" s="56">
+      <c r="T5" s="54">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V5" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="W5" s="68">
+        <v>0.62</v>
+      </c>
+      <c r="X5" s="98">
+        <v>0.09</v>
+      </c>
+      <c r="Y5" s="99">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -5175,21 +5382,31 @@
         <f>C66</f>
         <v>24.980015987210201</v>
       </c>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="71" t="s">
+      <c r="P6" s="67"/>
+      <c r="Q6" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="R6" s="75">
+      <c r="R6" s="74">
         <v>25.4</v>
       </c>
-      <c r="S6" s="75">
+      <c r="S6" s="74">
         <v>25.2</v>
       </c>
-      <c r="T6" s="56">
+      <c r="T6" s="54">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V6" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="W6" s="96"/>
+      <c r="X6" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -5210,19 +5427,29 @@
         <f>C100</f>
         <v>24.9868818870093</v>
       </c>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="71" t="s">
+      <c r="P7" s="67"/>
+      <c r="Q7" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="R7" s="75"/>
-      <c r="S7" s="75">
+      <c r="R7" s="74"/>
+      <c r="S7" s="74">
         <v>25.2</v>
       </c>
-      <c r="T7" s="56">
+      <c r="T7" s="54">
         <v>25.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V7" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="W7" s="97"/>
+      <c r="X7" s="21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -5247,15 +5474,15 @@
         <f>C127</f>
         <v>24.975024975024901</v>
       </c>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="71" t="s">
+      <c r="P8" s="67"/>
+      <c r="Q8" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="56"/>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="54"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -5280,15 +5507,15 @@
         <f>C161</f>
         <v>24.977520231791299</v>
       </c>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="71" t="s">
+      <c r="P9" s="67"/>
+      <c r="Q9" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="R9" s="75"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="56"/>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="54"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -5309,21 +5536,21 @@
         <f>C195</f>
         <v>24.968165588874101</v>
       </c>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="71" t="s">
+      <c r="P10" s="67"/>
+      <c r="Q10" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="R10" s="75">
+      <c r="R10" s="74">
         <v>6.64</v>
       </c>
-      <c r="S10" s="75">
+      <c r="S10" s="74">
         <v>6.58</v>
       </c>
-      <c r="T10" s="56">
+      <c r="T10" s="54">
         <v>6.54</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -5348,19 +5575,19 @@
         <f>C222</f>
         <v>24.967542195146301</v>
       </c>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="71" t="s">
+      <c r="P11" s="67"/>
+      <c r="Q11" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="R11" s="75"/>
-      <c r="S11" s="75">
+      <c r="R11" s="74"/>
+      <c r="S11" s="74">
         <v>6.65</v>
       </c>
-      <c r="T11" s="56">
+      <c r="T11" s="54">
         <v>6.67</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -5385,21 +5612,21 @@
         <f>C256</f>
         <v>24.968789013732799</v>
       </c>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="71" t="s">
+      <c r="P12" s="67"/>
+      <c r="Q12" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="R12" s="75">
+      <c r="R12" s="74">
         <v>1.67</v>
       </c>
-      <c r="S12" s="75">
+      <c r="S12" s="74">
         <v>974</v>
       </c>
-      <c r="T12" s="56">
+      <c r="T12" s="54">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -5409,21 +5636,21 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="71" t="s">
+      <c r="P13" s="67"/>
+      <c r="Q13" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="R13" s="75">
+      <c r="R13" s="74">
         <v>687</v>
       </c>
-      <c r="S13" s="75">
+      <c r="S13" s="74">
         <v>442</v>
       </c>
-      <c r="T13" s="56">
+      <c r="T13" s="54">
         <v>94.2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -5433,32 +5660,19 @@
       <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="O14" s="90" t="s">
-        <v>175</v>
-      </c>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="71" t="s">
+      <c r="P14" s="67"/>
+      <c r="Q14" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75">
+      <c r="R14" s="74"/>
+      <c r="S14" s="74">
         <v>1.05</v>
       </c>
-      <c r="T14" s="56">
+      <c r="T14" s="54">
         <v>1.84</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -5468,104 +5682,130 @@
       <c r="C15" s="3">
         <v>1000</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="5"/>
+      <c r="L15" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="O15" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75">
+        <v>568</v>
+      </c>
+      <c r="T15" s="57">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3">
+        <v>509.637</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L15" s="85">
+      <c r="L16" s="84">
         <f>AVERAGE(L4,L7,L10)</f>
         <v>515.10566666666671</v>
       </c>
-      <c r="M15" s="86"/>
-      <c r="N15" s="91">
+      <c r="M16" s="85"/>
+      <c r="N16" s="90">
         <f>STDEV(L4,L7,L10)</f>
         <v>35.756037494852968</v>
       </c>
-      <c r="O15" s="56"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="72" t="s">
-        <v>171</v>
-      </c>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76">
-        <v>568</v>
-      </c>
-      <c r="T15" s="59">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3">
-        <v>509.637</v>
-      </c>
-      <c r="K16" s="8" t="s">
+      <c r="O16" s="54"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3">
+        <v>133</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="85">
+      <c r="L17" s="84">
         <f>AVERAGE(L5,L8,L11)</f>
         <v>666.00411489645933</v>
       </c>
-      <c r="M16" s="87">
+      <c r="M17" s="86">
         <f>AVERAGE(M5,M8,M11)</f>
         <v>1040.9225054652568</v>
       </c>
-      <c r="N16" s="91">
+      <c r="N17" s="90">
         <f>STDEV(L5,L8,L11)</f>
         <v>12.406759739445162</v>
       </c>
-      <c r="O16" s="93">
+      <c r="O17" s="92">
         <f>STDEV(M5,M8,M11)</f>
         <v>38.117252450149763</v>
       </c>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3">
-        <v>133</v>
-      </c>
-      <c r="K17" s="12" t="s">
+    </row>
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3">
+        <v>11655</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="88">
+      <c r="L18" s="87">
         <f>AVERAGE(L6,L9,L12)</f>
         <v>670.74682096041306</v>
       </c>
-      <c r="M17" s="89">
+      <c r="M18" s="88">
         <f>AVERAGE(M6,M9,M12)</f>
         <v>796.91455621109969</v>
       </c>
-      <c r="N17" s="92">
+      <c r="N18" s="91">
         <f>STDEV(L6,L9,L12)</f>
         <v>63.99668493432246</v>
       </c>
-      <c r="O17" s="94">
+      <c r="O18" s="93">
         <f>STDEV(M6,M9,M12)</f>
         <v>14.929229944012965</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="3">
-        <v>11655</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="5"/>
+      <c r="R18" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="S18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="U18" s="89" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -5575,26 +5815,58 @@
       <c r="C19" s="3">
         <v>779</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="Q19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="R19" s="84">
+        <f>R4</f>
+        <v>0.02</v>
+      </c>
+      <c r="S19" s="85"/>
+      <c r="T19" s="90">
+        <f>(W5-W4)/4</f>
+        <v>0.1525</v>
+      </c>
+      <c r="U19" s="54"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3">
+        <v>915</v>
+      </c>
+      <c r="K20" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L20" s="26">
         <f>AVERAGE(N4:N12)</f>
         <v>24.971222649755209</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="3">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="R20" s="84">
+        <f>S4</f>
+        <v>0.01</v>
+      </c>
+      <c r="S20" s="86">
+        <f>S5</f>
+        <v>0.48</v>
+      </c>
+      <c r="T20" s="90">
+        <f>(X5-X4)/4</f>
+        <v>0.02</v>
+      </c>
+      <c r="U20" s="92">
+        <f>(X7-X6)/4</f>
+        <v>1.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -5604,8 +5876,27 @@
       <c r="C21" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="R21" s="87">
+        <f>T4</f>
+        <v>0.01</v>
+      </c>
+      <c r="S21" s="88">
+        <f>T5</f>
+        <v>0.84</v>
+      </c>
+      <c r="T21" s="91">
+        <f>(Y5-Y4)/4</f>
+        <v>0.02</v>
+      </c>
+      <c r="U21" s="93">
+        <f>(Y7-Y6)/4</f>
+        <v>1.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -5616,7 +5907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -5626,8 +5917,15 @@
       <c r="C23" s="1">
         <v>1340</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q23" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="R23" s="26">
+        <f>AVERAGE(R6:T6,S7:T7)</f>
+        <v>25.419999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -5638,7 +5936,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -5649,7 +5947,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -5660,7 +5958,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -5671,17 +5969,17 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -5692,7 +5990,7 @@
         <v>40026</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -8326,9 +8624,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="W6:W7"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="V2:V3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8362,11 +8664,11 @@
       <c r="I2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="65" t="s">
+      <c r="K2" s="61"/>
+      <c r="L2" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="65"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20" t="s">
         <v>56</v>
       </c>
@@ -8381,7 +8683,7 @@
       <c r="I3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="64"/>
+      <c r="K3" s="62"/>
       <c r="L3" s="2" t="s">
         <v>42</v>
       </c>
@@ -11520,11 +11822,11 @@
       <c r="I2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="65" t="s">
+      <c r="K2" s="61"/>
+      <c r="L2" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="65"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20" t="s">
         <v>56</v>
       </c>
@@ -11539,7 +11841,7 @@
       <c r="I3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="64"/>
+      <c r="K3" s="62"/>
       <c r="L3" s="2" t="s">
         <v>42</v>
       </c>
@@ -14655,7 +14957,7 @@
   <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16442,8 +16744,8 @@
       <c r="I38" s="27">
         <v>7</v>
       </c>
-      <c r="L38" s="47" t="s">
-        <v>144</v>
+      <c r="L38" s="94" t="s">
+        <v>176</v>
       </c>
       <c r="M38" s="34">
         <f>AVERAGE(M6,M10,M14,M18,M22,M26,M30,M34)</f>
@@ -16453,15 +16755,15 @@
         <f>AVERAGE(N6,N10,N14,N18,N22,N26,N30,N34)</f>
         <v>11.14</v>
       </c>
-      <c r="O38" s="77">
+      <c r="O38" s="79">
         <f>AVERAGE(O6,O10,O14,O18,O22,O26,O30,O34)</f>
         <v>0.4603271484375</v>
       </c>
-      <c r="P38" s="77">
+      <c r="P38" s="79">
         <f>AVERAGE(P6,P10,P14,P18,P22,P26,P30,P34) * 1.048576</f>
         <v>6.5541242879999997</v>
       </c>
-      <c r="Q38" s="79">
+      <c r="Q38" s="81">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
@@ -16494,8 +16796,8 @@
       <c r="I39" s="27">
         <v>7</v>
       </c>
-      <c r="L39" s="47" t="s">
-        <v>145</v>
+      <c r="L39" s="94" t="s">
+        <v>177</v>
       </c>
       <c r="M39" s="34">
         <f>AVERAGE(M5,M9,M13,M17,M21,M25,M29,M33)</f>
@@ -16505,15 +16807,15 @@
         <f>AVERAGE(N5,N9,N13,N17,N21,N25,N29,N33)</f>
         <v>11.14</v>
       </c>
-      <c r="O39" s="77">
+      <c r="O39" s="79">
         <f>AVERAGE(O5,O9,O13,O17,O21,O25,O29,O33)</f>
         <v>0.44970703125</v>
       </c>
-      <c r="P39" s="77">
+      <c r="P39" s="79">
         <f>AVERAGE(P5,P9,P13,P17,P21,P25,P29,P33) * 1.048576</f>
         <v>6.5386577919999995</v>
       </c>
-      <c r="Q39" s="79">
+      <c r="Q39" s="81">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
@@ -16546,8 +16848,8 @@
       <c r="I40" s="27">
         <v>7</v>
       </c>
-      <c r="L40" s="47" t="s">
-        <v>146</v>
+      <c r="L40" s="94" t="s">
+        <v>178</v>
       </c>
       <c r="M40" s="34">
         <f>AVERAGE(M4,M8,M12,M16,M20,M24,M28,M32)</f>
@@ -16557,15 +16859,15 @@
         <f>AVERAGE(N4,N8,N12,N16,N20,N24,N28,N32)</f>
         <v>11.14</v>
       </c>
-      <c r="O40" s="77">
+      <c r="O40" s="79">
         <f>AVERAGE(O4,O8,O12,O16,O20,O24,O28,O32)</f>
         <v>0.468994140625</v>
       </c>
-      <c r="P40" s="77">
+      <c r="P40" s="79">
         <f>AVERAGE(P4,P8,P12,P16,P20,P24,P28,P32) * 1.048576</f>
         <v>6.5488814080000006</v>
       </c>
-      <c r="Q40" s="79">
+      <c r="Q40" s="81">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
@@ -16598,8 +16900,8 @@
       <c r="I41" s="27">
         <v>6</v>
       </c>
-      <c r="L41" s="48" t="s">
-        <v>147</v>
+      <c r="L41" s="95" t="s">
+        <v>179</v>
       </c>
       <c r="M41" s="36">
         <f>AVERAGE(M7,M11,M15,M19,M23,M27,M31,M35)</f>
@@ -16609,15 +16911,15 @@
         <f>AVERAGE(N7,N11,N15,N19,N23,N27,N31,N35)</f>
         <v>13.91</v>
       </c>
-      <c r="O41" s="78">
+      <c r="O41" s="80">
         <f>AVERAGE(O7,O11,O15,O19,O23,O27,O31,O35)</f>
         <v>35.5625</v>
       </c>
-      <c r="P41" s="78">
+      <c r="P41" s="80">
         <f>AVERAGE(P7,P11,P15,P19,P23,P27,P31,P35) * 1.048576</f>
         <v>6.3390351360000006</v>
       </c>
-      <c r="Q41" s="80">
+      <c r="Q41" s="82">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
@@ -17482,8 +17784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBFCAC3-55BC-944C-B7B3-C5C9963935EC}">
   <dimension ref="C6:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17491,24 +17793,24 @@
     <row r="6" spans="3:13" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C7" s="5"/>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="48" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="48" t="s">
         <v>43</v>
       </c>
       <c r="K7" s="5"/>
-      <c r="L7" s="49" t="s">
+      <c r="L7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="50" t="s">
+      <c r="M7" s="48" t="s">
         <v>43</v>
       </c>
     </row>
@@ -17602,21 +17904,21 @@
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="3:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="49" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="21">
         <v>24.971222649755209</v>
       </c>
       <c r="E12" s="22"/>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="49" t="s">
         <v>57</v>
       </c>
       <c r="H12" s="21">
         <v>494.64248697497646</v>
       </c>
       <c r="I12" s="22"/>
-      <c r="K12" s="51" t="s">
+      <c r="K12" s="49" t="s">
         <v>57</v>
       </c>
       <c r="L12" s="21">
@@ -17626,151 +17928,151 @@
     </row>
     <row r="18" spans="3:11" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="3:11" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="66" t="s">
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="66"/>
     </row>
     <row r="20" spans="3:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="61" t="s">
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="60" t="s">
+      <c r="J20" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="62" t="s">
+      <c r="K20" s="60" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C21" s="55">
+      <c r="C21" s="53">
         <f>D8</f>
         <v>515.10566666666671</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="51">
         <f>D9</f>
         <v>666.00411489645933</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="51">
         <f>D10</f>
         <v>670.74682096041306</v>
       </c>
-      <c r="F21" s="56">
+      <c r="F21" s="54">
         <f>D12</f>
         <v>24.971222649755209</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="55">
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="53">
         <f>E9</f>
         <v>1040.9225054652568</v>
       </c>
-      <c r="J21" s="53">
+      <c r="J21" s="51">
         <f>E10</f>
         <v>796.91455621109969</v>
       </c>
-      <c r="K21" s="56">
+      <c r="K21" s="54">
         <f>D12</f>
         <v>24.971222649755209</v>
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C22" s="55">
+      <c r="C22" s="53">
         <f>H8</f>
         <v>396.65933333333334</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="51">
         <f>H9</f>
         <v>351.40972492843503</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="51">
         <f>H10</f>
         <v>461.67304458513331</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22" s="54">
         <f>H12</f>
         <v>494.64248697497646</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="55">
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="53">
         <f>I9</f>
         <v>530.72116225604634</v>
       </c>
-      <c r="J22" s="54">
+      <c r="J22" s="52">
         <f>I10</f>
         <v>566.46727886794577</v>
       </c>
-      <c r="K22" s="56">
+      <c r="K22" s="54">
         <f>H12</f>
         <v>494.64248697497646</v>
       </c>
     </row>
     <row r="23" spans="3:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="57">
+      <c r="C23" s="55">
         <f>L8</f>
         <v>233.49633333333335</v>
       </c>
-      <c r="D23" s="58">
+      <c r="D23" s="56">
         <f>L9</f>
         <v>249.56134624881869</v>
       </c>
-      <c r="E23" s="58">
+      <c r="E23" s="56">
         <f>L10</f>
         <v>339.96199677938768</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="57">
         <f>L12</f>
         <v>972.59089191969053</v>
       </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="57">
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="55">
         <f>M9</f>
         <v>290.50553667361635</v>
       </c>
-      <c r="J23" s="58">
+      <c r="J23" s="56">
         <f>M10</f>
         <v>387.72318745864965</v>
       </c>
-      <c r="K23" s="59">
+      <c r="K23" s="57">
         <f>L12</f>
         <v>972.59089191969053</v>
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/LOG8430E_redis_results.xlsx
+++ b/LOG8430E_redis_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thierry/Desktop/LOG8430E_TP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BAF993-757B-6446-9070-225DD7097155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0F9E65-7B68-6C40-827C-C0A8CC995163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="500" windowWidth="36920" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1903,6 +1903,581 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Average Latencies of Hyperleger Fagric Obtained With Caliper With a Throughput of 25 (ops/s)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tps-25'!$R$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>READ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tps-25'!$Q$19:$Q$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Workload 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Workload 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Workload 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tps-25'!$R$19:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FDC-0646-9556-3CCDF4535BD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tps-25'!$S$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WRITES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tps-25'!$Q$19:$Q$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Workload 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Workload 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Workload 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tps-25'!$S$20:$S$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4FDC-0646-9556-3CCDF4535BD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="341139216"/>
+        <c:axId val="341141216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="341139216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="341141216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="341141216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Average </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Latency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> (us)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="341139216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -2586,7 +3161,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3309,6 +3884,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3813,6 +4428,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4328,7 +5446,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4882,6 +6000,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79400573-2E20-CCA2-5B7C-78CC1E267428}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5166,7 +6320,7 @@
   <dimension ref="A1:Y285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/LOG8430E_redis_results.xlsx
+++ b/LOG8430E_redis_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thierry/Desktop/LOG8430E_TP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0F9E65-7B68-6C40-827C-C0A8CC995163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCE10B4-E712-A14A-A325-AE2C586AD0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="500" windowWidth="36920" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="186">
   <si>
     <t>##################################################################################</t>
   </si>
@@ -604,11 +604,23 @@
   <si>
     <t>write Maximum (s)</t>
   </si>
+  <si>
+    <t>YCSB results normalised</t>
+  </si>
+  <si>
+    <t>Caliper results noramlised</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -677,7 +689,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -956,12 +968,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1186,6 +1209,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2025,6 +2087,57 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'tps-25'!$T$19:$T$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.1525</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'tps-25'!$T$19:$T$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.1525</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>'tps-25'!$Q$19:$Q$21</c:f>
@@ -2145,6 +2258,51 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'tps-25'!$U$19:$U$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="1">
+                    <c:v>1.5000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.5000000000000001E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'tps-25'!$U$19:$U$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="1">
+                    <c:v>1.5000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.5000000000000001E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>'tps-25'!$Q$19:$Q$21</c:f>
@@ -2164,14 +2322,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tps-25'!$S$20:$S$21</c:f>
+              <c:f>'tps-25'!$S$19:$S$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
                   <c:v>0.48</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.84</c:v>
                 </c:pt>
               </c:numCache>
@@ -2304,7 +2462,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> (us)</a:t>
+                  <a:t> (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2448,6 +2606,1359 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Comparison between Redis and Hyperledger</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Reading Latency with a Throughput of 25 (ops/s)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Redis READ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'tps-25'!$T$27:$T$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.1525</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'tps-25'!$T$27:$T$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.1525</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tps-25'!$K$27:$K$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Workload 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Workload 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Workload 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tps-25'!$L$27:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.1510566666666677E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6600411489645939E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7074682096041307E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9CD7-8B44-BA25-2A4C2B2C7302}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Hyperledger READ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'tps-25'!$N$27:$N$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.5756037494852968E-8</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.2406759739445162E-8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.3996684934322464E-8</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'tps-25'!$N$27:$N$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.5756037494852968E-8</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.2406759739445162E-8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.3996684934322464E-8</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tps-25'!$K$27:$K$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Workload 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Workload 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Workload 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tps-25'!$R$27:$R$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9CD7-8B44-BA25-2A4C2B2C7302}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="342387552"/>
+        <c:axId val="342389280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="342387552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="342389280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="342389280"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Average </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Latency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="342387552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Comparison between Redis and Hyperledger</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Writing Latency with a Throughput of 25 (ops/s)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Redis Write</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'tps-25'!$U$28:$U$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>1.5000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.5000000000000001E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'tps-25'!$U$28:$U$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>1.5000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.5000000000000001E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tps-25'!$K$27:$K$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Workload 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Workload 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Workload 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tps-25'!$M$28:$M$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0409225054652568E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9691455621109979E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E3A-6C4F-A05C-9DD64311FF93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Hyperledger WRITE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'tps-25'!$O$28:$O$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>3.8117252450149768E-8</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.4929229944012967E-8</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'tps-25'!$O$28:$O$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>3.8117252450149768E-8</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.4929229944012967E-8</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tps-25'!$K$27:$K$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Workload 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Workload 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Workload 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tps-25'!$S$28:$S$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E3A-6C4F-A05C-9DD64311FF93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="342387552"/>
+        <c:axId val="342389280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="342387552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="342389280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="342389280"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Average </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Latency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="342387552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3161,7 +4672,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3885,6 +5396,86 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4931,6 +6522,1012 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5446,7 +8043,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5967,15 +8564,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1295400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>1306945</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>811645</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>157018</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6003,15 +8600,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>430645</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>68118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>443345</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>118918</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6031,6 +8628,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1264227</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>94672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>23091</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5002D9A-2E25-1719-2180-32A73FF4C2AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>230909</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>159328</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB703387-F84C-C54D-8D5C-75C344BE6C95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6319,8 +8990,8 @@
   </sheetPr>
   <dimension ref="A1:Y285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView tabSelected="1" topLeftCell="I31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="X66" sqref="X66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6977,7 +9648,7 @@
         <v>0.02</v>
       </c>
       <c r="S19" s="85"/>
-      <c r="T19" s="90">
+      <c r="T19" s="84">
         <f>(W5-W4)/4</f>
         <v>0.1525</v>
       </c>
@@ -7079,7 +9750,7 @@
         <v>25.419999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -7090,7 +9761,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -7100,6 +9771,20 @@
       <c r="C25" s="1">
         <v>1340</v>
       </c>
+      <c r="K25" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="101"/>
+      <c r="Q25" s="102" t="s">
+        <v>185</v>
+      </c>
+      <c r="R25" s="100"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="100"/>
+      <c r="U25" s="101"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
@@ -7111,6 +9796,32 @@
       <c r="C26" s="1">
         <v>1340</v>
       </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="O26" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="S26" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="U26" s="89" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
@@ -7122,10 +9833,104 @@
       <c r="C27" s="1">
         <v>1340</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" s="103">
+        <f>L16*10^(-9)</f>
+        <v>5.1510566666666677E-7</v>
+      </c>
+      <c r="M27" s="105"/>
+      <c r="N27" s="104">
+        <f>N16*10^(-9)</f>
+        <v>3.5756037494852968E-8</v>
+      </c>
+      <c r="O27" s="106"/>
+      <c r="Q27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="R27" s="84">
+        <v>0.02</v>
+      </c>
+      <c r="S27" s="85"/>
+      <c r="T27" s="84">
+        <v>0.1525</v>
+      </c>
+      <c r="U27" s="54"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28" s="103">
+        <f t="shared" ref="L28:M29" si="0">L17*10^(-9)</f>
+        <v>6.6600411489645939E-7</v>
+      </c>
+      <c r="M28" s="109">
+        <f t="shared" si="0"/>
+        <v>1.0409225054652568E-6</v>
+      </c>
+      <c r="N28" s="104">
+        <f t="shared" ref="N28" si="1">N17*10^(-9)</f>
+        <v>1.2406759739445162E-8</v>
+      </c>
+      <c r="O28" s="111">
+        <f>O17*10^(-9)</f>
+        <v>3.8117252450149768E-8</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="R28" s="84">
+        <v>0.01</v>
+      </c>
+      <c r="S28" s="86">
+        <v>0.48</v>
+      </c>
+      <c r="T28" s="90">
+        <v>0.02</v>
+      </c>
+      <c r="U28" s="92">
+        <v>1.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="108">
+        <f t="shared" si="0"/>
+        <v>6.7074682096041307E-7</v>
+      </c>
+      <c r="M29" s="110">
+        <f t="shared" si="0"/>
+        <v>7.9691455621109979E-7</v>
+      </c>
+      <c r="N29" s="107">
+        <f t="shared" ref="N29:O29" si="2">N18*10^(-9)</f>
+        <v>6.3996684934322464E-8</v>
+      </c>
+      <c r="O29" s="112">
+        <f>O18*10^(-9)</f>
+        <v>1.4929229944012967E-8</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="R29" s="87">
+        <v>0.01</v>
+      </c>
+      <c r="S29" s="88">
+        <v>0.84</v>
+      </c>
+      <c r="T29" s="91">
+        <v>0.02</v>
+      </c>
+      <c r="U29" s="93">
+        <v>1.5000000000000001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9778,8 +12583,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="W6:W7"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="K25:O25"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="R2:T2"/>

--- a/LOG8430E_redis_results.xlsx
+++ b/LOG8430E_redis_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thierry/Desktop/LOG8430E_TP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCE10B4-E712-A14A-A325-AE2C586AD0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB670E2-01DC-A94F-89BD-01FCBDFB668B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="500" windowWidth="36920" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tps-25" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="195">
   <si>
     <t>##################################################################################</t>
   </si>
@@ -610,6 +610,38 @@
   <si>
     <t>Caliper results noramlised</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Redis</t>
+  </si>
+  <si>
+    <t>Average
+Traffic In MB</t>
+  </si>
+  <si>
+    <t>Average
+Traffic Out MB</t>
+  </si>
+  <si>
+    <t>∆Average
+Traffic Out MB</t>
+  </si>
+  <si>
+    <t>∆Average
+Traffic In MB</t>
+  </si>
+  <si>
+    <t>∆Average</t>
+  </si>
+  <si>
+    <t>Traffic out
+(MB)</t>
+  </si>
 </sst>
 </file>
 
@@ -689,7 +721,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -979,12 +1011,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1125,10 +1168,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1163,6 +1217,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1170,6 +1230,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1197,6 +1260,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1249,6 +1318,61 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1970,7 +2094,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Average Latencies of Hyperleger Fagric Obtained With Caliper With a Throughput of 25 (ops/s)</a:t>
+              <a:t>Average Latencies of Hyperleger Fabric Obtained With Caliper With a Throughput of 25 (ops/s)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3383,7 +3507,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Redis Write</c:v>
+            <c:v>Redis WRITE</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -3959,6 +4083,561 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Between the Traffic of Redis and Hyperledger</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tps-25'!$X$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hyperledger</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('tps-25'!$Z$17,'tps-25'!$AB$17)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>419.74463903114969</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>447.71953503413789</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('tps-25'!$Z$17,'tps-25'!$AB$17)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>419.74463903114969</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>447.71953503413789</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>('tps-25'!$Y$16,'tps-25'!$AA$16)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average
+Traffic In MB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average
+Traffic Out MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('tps-25'!$Y$17,'tps-25'!$AA$17)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>393.66833333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1180.2333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06BE-A14E-AD2C-889FFE3273DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tps-25'!$X$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('tps-25'!$Z$18,'tps-25'!$AB$18)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>1.3850000000000162</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>17.55141371885631</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('tps-25'!$Z$18,'tps-25'!$AB$18)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>1.3850000000000162</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>17.55141371885631</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>('tps-25'!$Y$16,'tps-25'!$AA$16)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average
+Traffic In MB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average
+Traffic Out MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('tps-25'!$Y$18,'tps-25'!$AA$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>11.8325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.235382080078125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-06BE-A14E-AD2C-889FFE3273DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="388804784"/>
+        <c:axId val="388806512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="388804784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388806512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="388806512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>AverageTraffic</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> MB</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388804784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4672,7 +5351,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5476,6 +6155,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7528,6 +8247,509 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8043,7 +9265,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8707,6 +9929,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>952501</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>83126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>611909</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37F6E56-7E9E-DC81-3E70-AB98B89A449A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8988,10 +10246,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y285"/>
+  <dimension ref="A1:AI285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="X66" sqref="X66"/>
+    <sheetView tabSelected="1" topLeftCell="M28" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9002,11 +10260,12 @@
     <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:25" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9024,21 +10283,31 @@
       <c r="N2" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="83"/>
+      <c r="P2" s="86"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="76" t="s">
+      <c r="R2" s="121" t="s">
         <v>157</v>
       </c>
-      <c r="S2" s="77"/>
-      <c r="T2" s="78"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="76" t="s">
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="103"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="78"/>
-    </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="81"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="81"/>
+      <c r="AH2" s="139"/>
+      <c r="AI2" s="139"/>
+    </row>
+    <row r="3" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -9057,30 +10326,50 @@
       </c>
       <c r="N3" s="7"/>
       <c r="P3" s="67"/>
-      <c r="Q3" s="69" t="s">
+      <c r="Q3" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="R3" s="72" t="s">
+      <c r="R3" s="75" t="s">
         <v>158</v>
       </c>
       <c r="S3" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="T3" s="73" t="s">
+      <c r="T3" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="V3" s="62"/>
-      <c r="W3" s="72" t="s">
+      <c r="U3" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="V3" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="X3" s="58" t="s">
+      <c r="Z3" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="Y3" s="73" t="s">
+      <c r="AA3" s="76" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AD3" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE3" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF3" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG3" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="139"/>
+    </row>
+    <row r="4" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -9108,32 +10397,54 @@
         <v>24.933303413369199</v>
       </c>
       <c r="P4" s="67"/>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="R4" s="74">
+      <c r="R4" s="77">
         <v>0.02</v>
       </c>
-      <c r="S4" s="74">
+      <c r="S4" s="77">
         <v>0.01</v>
       </c>
-      <c r="T4" s="54">
+      <c r="T4" s="77">
         <v>0.01</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="U4" s="87">
+        <f>AVERAGE(R4:T4)</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="V4" s="128">
+        <f>STDEV(R4:T4)</f>
+        <v>5.7735026918962588E-3</v>
+      </c>
+      <c r="X4" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="W4" s="98">
+      <c r="Y4" s="106">
         <v>0.01</v>
       </c>
-      <c r="X4" s="98">
+      <c r="Z4" s="106">
         <v>0.01</v>
       </c>
-      <c r="Y4" s="99">
+      <c r="AA4" s="107">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD4" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE4" s="77">
+        <v>0.02</v>
+      </c>
+      <c r="AF4" s="77">
+        <v>0.01</v>
+      </c>
+      <c r="AG4" s="54">
+        <v>0.01</v>
+      </c>
+      <c r="AH4" s="139"/>
+      <c r="AI4" s="139"/>
+    </row>
+    <row r="5" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -9159,30 +10470,54 @@
         <v>24.983760555638799</v>
       </c>
       <c r="P5" s="67"/>
-      <c r="Q5" s="70" t="s">
+      <c r="Q5" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74">
+      <c r="R5" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="S5" s="77">
         <v>0.48</v>
       </c>
-      <c r="T5" s="54">
+      <c r="T5" s="77">
         <v>0.84</v>
       </c>
-      <c r="V5" s="70" t="s">
+      <c r="U5" s="87">
+        <f>AVERAGE(S5:T5)</f>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="V5" s="128">
+        <f>STDEV(S5:U5)</f>
+        <v>0.18000000000000027</v>
+      </c>
+      <c r="X5" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="W5" s="68">
+      <c r="Y5" s="72">
         <v>0.62</v>
       </c>
-      <c r="X5" s="98">
+      <c r="Z5" s="106">
         <v>0.09</v>
       </c>
-      <c r="Y5" s="99">
+      <c r="AA5" s="107">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD5" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE5" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF5" s="77">
+        <v>0.48</v>
+      </c>
+      <c r="AG5" s="54">
+        <v>0.84</v>
+      </c>
+      <c r="AH5" s="139"/>
+      <c r="AI5" s="139"/>
+    </row>
+    <row r="6" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -9208,30 +10543,52 @@
         <v>24.980015987210201</v>
       </c>
       <c r="P6" s="67"/>
-      <c r="Q6" s="70" t="s">
+      <c r="Q6" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="R6" s="74">
+      <c r="R6" s="77">
         <v>25.4</v>
       </c>
-      <c r="S6" s="74">
+      <c r="S6" s="77">
         <v>25.2</v>
       </c>
-      <c r="T6" s="54">
+      <c r="T6" s="77">
         <v>25.7</v>
       </c>
-      <c r="V6" s="70" t="s">
+      <c r="U6" s="87">
+        <f>AVERAGE(R6:T6)</f>
+        <v>25.433333333333334</v>
+      </c>
+      <c r="V6" s="128">
+        <f>STDEV(R6:U6)</f>
+        <v>0.20548046676563259</v>
+      </c>
+      <c r="X6" s="69" t="s">
         <v>180</v>
       </c>
-      <c r="W6" s="96"/>
-      <c r="X6" s="68">
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="72">
         <v>0.01</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="AA6" s="73">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AD6" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE6" s="77">
+        <v>25.4</v>
+      </c>
+      <c r="AF6" s="77">
+        <v>25.2</v>
+      </c>
+      <c r="AG6" s="54">
+        <v>25.7</v>
+      </c>
+      <c r="AH6" s="139"/>
+      <c r="AI6" s="139"/>
+    </row>
+    <row r="7" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -9253,28 +10610,52 @@
         <v>24.9868818870093</v>
       </c>
       <c r="P7" s="67"/>
-      <c r="Q7" s="70" t="s">
+      <c r="Q7" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74">
+      <c r="R7" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="S7" s="77">
         <v>25.2</v>
       </c>
-      <c r="T7" s="54">
+      <c r="T7" s="77">
         <v>25.6</v>
       </c>
-      <c r="V7" s="71" t="s">
+      <c r="U7" s="87">
+        <f>AVERAGE(S7:T7)</f>
+        <v>25.4</v>
+      </c>
+      <c r="V7" s="128">
+        <f>STDEV(S7:U7)</f>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="X7" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="W7" s="97"/>
-      <c r="X7" s="21">
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="88">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Y7" s="22">
+      <c r="AA7" s="74">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD7" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE7" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF7" s="77">
+        <v>25.2</v>
+      </c>
+      <c r="AG7" s="54">
+        <v>25.6</v>
+      </c>
+      <c r="AH7" s="139"/>
+      <c r="AI7" s="139"/>
+    </row>
+    <row r="8" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -9300,14 +10681,40 @@
         <v>24.975024975024901</v>
       </c>
       <c r="P8" s="67"/>
-      <c r="Q8" s="70" t="s">
+      <c r="Q8" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="54"/>
-    </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R8" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="S8" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="T8" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="U8" s="134" t="s">
+        <v>187</v>
+      </c>
+      <c r="V8" s="136" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD8" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE8" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF8" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG8" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH8" s="139"/>
+      <c r="AI8" s="139"/>
+    </row>
+    <row r="9" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -9333,14 +10740,40 @@
         <v>24.977520231791299</v>
       </c>
       <c r="P9" s="67"/>
-      <c r="Q9" s="70" t="s">
+      <c r="Q9" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="54"/>
-    </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R9" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="S9" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="T9" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="U9" s="134" t="s">
+        <v>187</v>
+      </c>
+      <c r="V9" s="136" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD9" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE9" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF9" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG9" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH9" s="139"/>
+      <c r="AI9" s="139"/>
+    </row>
+    <row r="10" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -9362,20 +10795,42 @@
         <v>24.968165588874101</v>
       </c>
       <c r="P10" s="67"/>
-      <c r="Q10" s="70" t="s">
+      <c r="Q10" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="R10" s="74">
+      <c r="R10" s="77">
         <v>6.64</v>
       </c>
-      <c r="S10" s="74">
+      <c r="S10" s="77">
         <v>6.58</v>
       </c>
-      <c r="T10" s="54">
+      <c r="T10" s="77">
         <v>6.54</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U10" s="87">
+        <f>AVERAGE(R10:T10)</f>
+        <v>6.586666666666666</v>
+      </c>
+      <c r="V10" s="128">
+        <f>STDEV(R10:U10)</f>
+        <v>4.1096093353126355E-2</v>
+      </c>
+      <c r="AD10" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE10" s="77">
+        <v>6.64</v>
+      </c>
+      <c r="AF10" s="77">
+        <v>6.58</v>
+      </c>
+      <c r="AG10" s="54">
+        <v>6.54</v>
+      </c>
+      <c r="AH10" s="139"/>
+      <c r="AI10" s="139"/>
+    </row>
+    <row r="11" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -9401,18 +10856,44 @@
         <v>24.967542195146301</v>
       </c>
       <c r="P11" s="67"/>
-      <c r="Q11" s="70" t="s">
+      <c r="Q11" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74">
+      <c r="R11" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="S11" s="77">
         <v>6.65</v>
       </c>
-      <c r="T11" s="54">
+      <c r="T11" s="77">
         <v>6.67</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="U11" s="87">
+        <f>AVERAGE(S11:T11)</f>
+        <v>6.66</v>
+      </c>
+      <c r="V11" s="128">
+        <f>STDEV(S11:U11)</f>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="86"/>
+      <c r="AD11" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE11" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF11" s="77">
+        <v>6.65</v>
+      </c>
+      <c r="AG11" s="54">
+        <v>6.67</v>
+      </c>
+      <c r="AH11" s="139"/>
+      <c r="AI11" s="139"/>
+    </row>
+    <row r="12" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -9438,20 +10919,44 @@
         <v>24.968789013732799</v>
       </c>
       <c r="P12" s="67"/>
-      <c r="Q12" s="70" t="s">
+      <c r="Q12" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="R12" s="74">
+      <c r="R12" s="77">
         <v>1.67</v>
       </c>
-      <c r="S12" s="74">
+      <c r="S12" s="77">
         <v>974</v>
       </c>
-      <c r="T12" s="54">
+      <c r="T12" s="77">
         <v>201</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U12" s="87">
+        <f>AVERAGE(R12:T12)</f>
+        <v>392.22333333333336</v>
+      </c>
+      <c r="V12" s="128">
+        <f>STDEV(R12:U12)</f>
+        <v>419.34963903114971</v>
+      </c>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="67"/>
+      <c r="AD12" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE12" s="77">
+        <v>1.67</v>
+      </c>
+      <c r="AF12" s="77">
+        <v>974</v>
+      </c>
+      <c r="AG12" s="54">
+        <v>201</v>
+      </c>
+      <c r="AH12" s="139"/>
+      <c r="AI12" s="139"/>
+    </row>
+    <row r="13" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -9462,20 +10967,44 @@
         <v>0</v>
       </c>
       <c r="P13" s="67"/>
-      <c r="Q13" s="70" t="s">
+      <c r="Q13" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="R13" s="74">
+      <c r="R13" s="77">
         <v>687</v>
       </c>
-      <c r="S13" s="74">
+      <c r="S13" s="77">
         <v>442</v>
       </c>
-      <c r="T13" s="54">
+      <c r="T13" s="77">
         <v>94.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="U13" s="87">
+        <f>AVERAGE(R13:T13)</f>
+        <v>407.73333333333335</v>
+      </c>
+      <c r="V13" s="128">
+        <f>STDEV(R13:U13)</f>
+        <v>243.21953503413789</v>
+      </c>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="126"/>
+      <c r="AD13" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE13" s="77">
+        <v>687</v>
+      </c>
+      <c r="AF13" s="77">
+        <v>442</v>
+      </c>
+      <c r="AG13" s="54">
+        <v>94.2</v>
+      </c>
+      <c r="AH13" s="139"/>
+      <c r="AI13" s="139"/>
+    </row>
+    <row r="14" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -9486,18 +11015,44 @@
         <v>0</v>
       </c>
       <c r="P14" s="67"/>
-      <c r="Q14" s="70" t="s">
+      <c r="Q14" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74">
+      <c r="R14" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="S14" s="77">
         <v>1.05</v>
       </c>
-      <c r="T14" s="54">
+      <c r="T14" s="77">
         <v>1.84</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="U14" s="87">
+        <f>AVERAGE(S14:T14)</f>
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="V14" s="128">
+        <f>STDEV(S14:U14)</f>
+        <v>0.39500000000000068</v>
+      </c>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="126"/>
+      <c r="AD14" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE14" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF14" s="77">
+        <v>1.05</v>
+      </c>
+      <c r="AG14" s="54">
+        <v>1.84</v>
+      </c>
+      <c r="AH14" s="139"/>
+      <c r="AI14" s="139"/>
+    </row>
+    <row r="15" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -9517,22 +11072,46 @@
       <c r="N15" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="O15" s="89" t="s">
+      <c r="O15" s="95" t="s">
         <v>175</v>
       </c>
       <c r="P15" s="67"/>
-      <c r="Q15" s="71" t="s">
+      <c r="Q15" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="R15" s="75"/>
-      <c r="S15" s="75">
+      <c r="R15" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="S15" s="78">
         <v>568</v>
       </c>
-      <c r="T15" s="57">
+      <c r="T15" s="56">
         <v>977</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U15" s="135">
+        <f>AVERAGE(S15:T15)</f>
+        <v>772.5</v>
+      </c>
+      <c r="V15" s="129">
+        <f>STDEV(S15:U15)</f>
+        <v>204.5</v>
+      </c>
+      <c r="AD15" s="70" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE15" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF15" s="78">
+        <v>568</v>
+      </c>
+      <c r="AG15" s="57">
+        <v>977</v>
+      </c>
+      <c r="AH15" s="139"/>
+      <c r="AI15" s="139"/>
+    </row>
+    <row r="16" spans="1:35" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -9545,19 +11124,34 @@
       <c r="K16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L16" s="84">
+      <c r="L16" s="89">
         <f>AVERAGE(L4,L7,L10)</f>
         <v>515.10566666666671</v>
       </c>
-      <c r="M16" s="85"/>
-      <c r="N16" s="90">
+      <c r="M16" s="90"/>
+      <c r="N16" s="96">
         <f>STDEV(L4,L7,L10)</f>
         <v>35.756037494852968</v>
       </c>
       <c r="O16" s="54"/>
       <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="X16" s="127"/>
+      <c r="Y16" s="130" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z16" s="137" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA16" s="137" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB16" s="131" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH16" s="139"/>
+      <c r="AI16" s="139"/>
+    </row>
+    <row r="17" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -9570,24 +11164,45 @@
       <c r="K17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="84">
+      <c r="L17" s="89">
         <f>AVERAGE(L5,L8,L11)</f>
         <v>666.00411489645933</v>
       </c>
-      <c r="M17" s="86">
+      <c r="M17" s="91">
         <f>AVERAGE(M5,M8,M11)</f>
         <v>1040.9225054652568</v>
       </c>
-      <c r="N17" s="90">
+      <c r="N17" s="96">
         <f>STDEV(L5,L8,L11)</f>
         <v>12.406759739445162</v>
       </c>
-      <c r="O17" s="92">
+      <c r="O17" s="98">
         <f>STDEV(M5,M8,M11)</f>
         <v>38.117252450149763</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="X17" s="132" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y17" s="90">
+        <f>SUM(U12,U14)</f>
+        <v>393.66833333333335</v>
+      </c>
+      <c r="Z17" s="87">
+        <f>SUM(V12,V14)</f>
+        <v>419.74463903114969</v>
+      </c>
+      <c r="AA17" s="90">
+        <f>SUM(U13,U15)</f>
+        <v>1180.2333333333333</v>
+      </c>
+      <c r="AB17" s="123">
+        <f>SUM(V13,V15)</f>
+        <v>447.71953503413789</v>
+      </c>
+      <c r="AH17" s="86"/>
+      <c r="AI17" s="86"/>
+    </row>
+    <row r="18" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -9600,19 +11215,19 @@
       <c r="K18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L18" s="87">
+      <c r="L18" s="93">
         <f>AVERAGE(L6,L9,L12)</f>
         <v>670.74682096041306</v>
       </c>
-      <c r="M18" s="88">
+      <c r="M18" s="94">
         <f>AVERAGE(M6,M9,M12)</f>
         <v>796.91455621109969</v>
       </c>
-      <c r="N18" s="91">
+      <c r="N18" s="97">
         <f>STDEV(L6,L9,L12)</f>
         <v>63.99668493432246</v>
       </c>
-      <c r="O18" s="93">
+      <c r="O18" s="99">
         <f>STDEV(M6,M9,M12)</f>
         <v>14.929229944012965</v>
       </c>
@@ -9626,11 +11241,30 @@
       <c r="T18" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="U18" s="89" t="s">
+      <c r="U18" s="95" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="X18" s="133" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y18" s="138">
+        <f>AVERAGE('cpu-mem-1000'!N38:N41)</f>
+        <v>11.8325</v>
+      </c>
+      <c r="Z18" s="135">
+        <f>STDEV('cpu-mem-1000'!N38:N41)</f>
+        <v>1.3850000000000162</v>
+      </c>
+      <c r="AA18" s="138">
+        <f>AVERAGE('cpu-mem-1000'!O38:O41)</f>
+        <v>9.235382080078125</v>
+      </c>
+      <c r="AB18" s="124">
+        <f>STDEV('cpu-mem-1000'!O38:O41)</f>
+        <v>17.55141371885631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -9643,18 +11277,18 @@
       <c r="Q19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="R19" s="84">
+      <c r="R19" s="89">
         <f>R4</f>
         <v>0.02</v>
       </c>
-      <c r="S19" s="85"/>
-      <c r="T19" s="84">
-        <f>(W5-W4)/4</f>
+      <c r="S19" s="90"/>
+      <c r="T19" s="89">
+        <f>(Y5-Y4)/4</f>
         <v>0.1525</v>
       </c>
       <c r="U19" s="54"/>
     </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -9674,24 +11308,24 @@
       <c r="Q20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="R20" s="84">
+      <c r="R20" s="89">
         <f>S4</f>
         <v>0.01</v>
       </c>
-      <c r="S20" s="86">
+      <c r="S20" s="91">
         <f>S5</f>
         <v>0.48</v>
       </c>
-      <c r="T20" s="90">
-        <f>(X5-X4)/4</f>
+      <c r="T20" s="96">
+        <f>(Z5-Z4)/4</f>
         <v>0.02</v>
       </c>
-      <c r="U20" s="92">
-        <f>(X7-X6)/4</f>
+      <c r="U20" s="98">
+        <f>(Z7-Z6)/4</f>
         <v>1.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -9704,24 +11338,24 @@
       <c r="Q21" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="R21" s="87">
+      <c r="R21" s="93">
         <f>T4</f>
         <v>0.01</v>
       </c>
-      <c r="S21" s="88">
+      <c r="S21" s="94">
         <f>T5</f>
         <v>0.84</v>
       </c>
-      <c r="T21" s="91">
-        <f>(Y5-Y4)/4</f>
+      <c r="T21" s="97">
+        <f>(AA5-AA4)/4</f>
         <v>0.02</v>
       </c>
-      <c r="U21" s="93">
-        <f>(Y7-Y6)/4</f>
+      <c r="U21" s="99">
+        <f>(AA7-AA6)/4</f>
         <v>1.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -9732,7 +11366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -9750,7 +11384,7 @@
         <v>25.419999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -9761,7 +11395,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -9771,22 +11405,22 @@
       <c r="C25" s="1">
         <v>1340</v>
       </c>
-      <c r="K25" s="102" t="s">
+      <c r="K25" s="110" t="s">
         <v>184</v>
       </c>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="101"/>
-      <c r="Q25" s="102" t="s">
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="109"/>
+      <c r="Q25" s="110" t="s">
         <v>185</v>
       </c>
-      <c r="R25" s="100"/>
-      <c r="S25" s="100"/>
-      <c r="T25" s="100"/>
-      <c r="U25" s="101"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R25" s="108"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="108"/>
+      <c r="U25" s="109"/>
+    </row>
+    <row r="26" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -9806,7 +11440,7 @@
       <c r="N26" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="O26" s="89" t="s">
+      <c r="O26" s="95" t="s">
         <v>175</v>
       </c>
       <c r="Q26" s="5"/>
@@ -9819,11 +11453,11 @@
       <c r="T26" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="U26" s="89" t="s">
+      <c r="U26" s="95" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -9836,109 +11470,109 @@
       <c r="K27" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L27" s="103">
+      <c r="L27" s="111">
         <f>L16*10^(-9)</f>
         <v>5.1510566666666677E-7</v>
       </c>
-      <c r="M27" s="105"/>
-      <c r="N27" s="104">
+      <c r="M27" s="113"/>
+      <c r="N27" s="112">
         <f>N16*10^(-9)</f>
         <v>3.5756037494852968E-8</v>
       </c>
-      <c r="O27" s="106"/>
+      <c r="O27" s="114"/>
       <c r="Q27" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="R27" s="84">
+      <c r="R27" s="89">
         <v>0.02</v>
       </c>
-      <c r="S27" s="85"/>
-      <c r="T27" s="84">
+      <c r="S27" s="90"/>
+      <c r="T27" s="89">
         <v>0.1525</v>
       </c>
       <c r="U27" s="54"/>
     </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="L28" s="103">
+      <c r="L28" s="111">
         <f t="shared" ref="L28:M29" si="0">L17*10^(-9)</f>
         <v>6.6600411489645939E-7</v>
       </c>
-      <c r="M28" s="109">
+      <c r="M28" s="117">
         <f t="shared" si="0"/>
         <v>1.0409225054652568E-6</v>
       </c>
-      <c r="N28" s="104">
+      <c r="N28" s="112">
         <f t="shared" ref="N28" si="1">N17*10^(-9)</f>
         <v>1.2406759739445162E-8</v>
       </c>
-      <c r="O28" s="111">
+      <c r="O28" s="119">
         <f>O17*10^(-9)</f>
         <v>3.8117252450149768E-8</v>
       </c>
       <c r="Q28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="R28" s="84">
+      <c r="R28" s="89">
         <v>0.01</v>
       </c>
-      <c r="S28" s="86">
+      <c r="S28" s="91">
         <v>0.48</v>
       </c>
-      <c r="T28" s="90">
+      <c r="T28" s="96">
         <v>0.02</v>
       </c>
-      <c r="U28" s="92">
+      <c r="U28" s="98">
         <v>1.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L29" s="108">
+      <c r="L29" s="116">
         <f t="shared" si="0"/>
         <v>6.7074682096041307E-7</v>
       </c>
-      <c r="M29" s="110">
+      <c r="M29" s="118">
         <f t="shared" si="0"/>
         <v>7.9691455621109979E-7</v>
       </c>
-      <c r="N29" s="107">
+      <c r="N29" s="115">
         <f t="shared" ref="N29:O29" si="2">N18*10^(-9)</f>
         <v>6.3996684934322464E-8</v>
       </c>
-      <c r="O29" s="112">
+      <c r="O29" s="120">
         <f>O18*10^(-9)</f>
         <v>1.4929229944012967E-8</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="R29" s="87">
+      <c r="R29" s="93">
         <v>0.01</v>
       </c>
-      <c r="S29" s="88">
+      <c r="S29" s="94">
         <v>0.84</v>
       </c>
-      <c r="T29" s="91">
+      <c r="T29" s="97">
         <v>0.02</v>
       </c>
-      <c r="U29" s="93">
+      <c r="U29" s="99">
         <v>1.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -9949,7 +11583,7 @@
         <v>40026</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -12583,15 +14217,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="W6:W7"/>
+  <mergeCells count="9">
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="Y6:Y7"/>
     <mergeCell ref="Q25:U25"/>
     <mergeCell ref="K25:O25"/>
+    <mergeCell ref="R2:V2"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="X2:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18918,7 +20553,7 @@
   <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20667,10 +22302,10 @@
       <c r="N37" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="O37" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="P37" s="43" t="s">
+      <c r="O37" s="125" t="s">
+        <v>194</v>
+      </c>
+      <c r="P37" s="125" t="s">
         <v>153</v>
       </c>
       <c r="Q37" s="44" t="s">
@@ -20705,7 +22340,7 @@
       <c r="I38" s="27">
         <v>7</v>
       </c>
-      <c r="L38" s="94" t="s">
+      <c r="L38" s="100" t="s">
         <v>176</v>
       </c>
       <c r="M38" s="34">
@@ -20716,15 +22351,15 @@
         <f>AVERAGE(N6,N10,N14,N18,N22,N26,N30,N34)</f>
         <v>11.14</v>
       </c>
-      <c r="O38" s="79">
+      <c r="O38" s="82">
         <f>AVERAGE(O6,O10,O14,O18,O22,O26,O30,O34)</f>
         <v>0.4603271484375</v>
       </c>
-      <c r="P38" s="79">
+      <c r="P38" s="82">
         <f>AVERAGE(P6,P10,P14,P18,P22,P26,P30,P34) * 1.048576</f>
         <v>6.5541242879999997</v>
       </c>
-      <c r="Q38" s="81">
+      <c r="Q38" s="84">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
@@ -20757,7 +22392,7 @@
       <c r="I39" s="27">
         <v>7</v>
       </c>
-      <c r="L39" s="94" t="s">
+      <c r="L39" s="100" t="s">
         <v>177</v>
       </c>
       <c r="M39" s="34">
@@ -20768,15 +22403,15 @@
         <f>AVERAGE(N5,N9,N13,N17,N21,N25,N29,N33)</f>
         <v>11.14</v>
       </c>
-      <c r="O39" s="79">
+      <c r="O39" s="82">
         <f>AVERAGE(O5,O9,O13,O17,O21,O25,O29,O33)</f>
         <v>0.44970703125</v>
       </c>
-      <c r="P39" s="79">
+      <c r="P39" s="82">
         <f>AVERAGE(P5,P9,P13,P17,P21,P25,P29,P33) * 1.048576</f>
         <v>6.5386577919999995</v>
       </c>
-      <c r="Q39" s="81">
+      <c r="Q39" s="84">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
@@ -20809,7 +22444,7 @@
       <c r="I40" s="27">
         <v>7</v>
       </c>
-      <c r="L40" s="94" t="s">
+      <c r="L40" s="100" t="s">
         <v>178</v>
       </c>
       <c r="M40" s="34">
@@ -20820,15 +22455,15 @@
         <f>AVERAGE(N4,N8,N12,N16,N20,N24,N28,N32)</f>
         <v>11.14</v>
       </c>
-      <c r="O40" s="79">
+      <c r="O40" s="82">
         <f>AVERAGE(O4,O8,O12,O16,O20,O24,O28,O32)</f>
         <v>0.468994140625</v>
       </c>
-      <c r="P40" s="79">
+      <c r="P40" s="82">
         <f>AVERAGE(P4,P8,P12,P16,P20,P24,P28,P32) * 1.048576</f>
         <v>6.5488814080000006</v>
       </c>
-      <c r="Q40" s="81">
+      <c r="Q40" s="84">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>
@@ -20861,7 +22496,7 @@
       <c r="I41" s="27">
         <v>6</v>
       </c>
-      <c r="L41" s="95" t="s">
+      <c r="L41" s="101" t="s">
         <v>179</v>
       </c>
       <c r="M41" s="36">
@@ -20872,15 +22507,15 @@
         <f>AVERAGE(N7,N11,N15,N19,N23,N27,N31,N35)</f>
         <v>13.91</v>
       </c>
-      <c r="O41" s="80">
+      <c r="O41" s="83">
         <f>AVERAGE(O7,O11,O15,O19,O23,O27,O31,O35)</f>
         <v>35.5625</v>
       </c>
-      <c r="P41" s="80">
+      <c r="P41" s="83">
         <f>AVERAGE(P7,P11,P15,P19,P23,P27,P31,P35) * 1.048576</f>
         <v>6.3390351360000006</v>
       </c>
-      <c r="Q41" s="82">
+      <c r="Q41" s="85">
         <f xml:space="preserve"> 15.55 * 1.073741824</f>
         <v>16.6966853632</v>
       </c>

--- a/LOG8430E_redis_results.xlsx
+++ b/LOG8430E_redis_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thierry/Desktop/LOG8430E_TP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB670E2-01DC-A94F-89BD-01FCBDFB668B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76222221-246A-9649-9C81-622D2774ED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2893,36 +2893,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'tps-25'!$T$27:$T$29</c:f>
+                <c:f>'tps-25'!$N$27:$N$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.1525</c:v>
+                    <c:v>3.5756037494852968E-8</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.02</c:v>
+                    <c:v>1.2406759739445162E-8</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.02</c:v>
+                    <c:v>6.3996684934322464E-8</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'tps-25'!$T$27:$T$29</c:f>
+                <c:f>'tps-25'!$N$27:$N$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.1525</c:v>
+                    <c:v>3.5756037494852968E-8</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.02</c:v>
+                    <c:v>1.2406759739445162E-8</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.02</c:v>
+                    <c:v>6.3996684934322464E-8</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3056,48 +3056,45 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'tps-25'!$N$27:$N$29</c:f>
+                <c:f>'tps-25'!$T$27:$T$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.5756037494852968E-8</c:v>
+                    <c:v>0.1525</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.2406759739445162E-8</c:v>
+                    <c:v>0.02</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.3996684934322464E-8</c:v>
+                    <c:v>0.02</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'tps-25'!$N$27:$N$29</c:f>
+                <c:f>'tps-25'!$T$27:$T$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.5756037494852968E-8</c:v>
+                    <c:v>0.1525</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.2406759739445162E-8</c:v>
+                    <c:v>0.02</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.3996684934322464E-8</c:v>
+                    <c:v>0.02</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -3580,30 +3577,30 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'tps-25'!$U$28:$U$29</c:f>
+                <c:f>'tps-25'!$O$28:$O$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>1.5000000000000001E-2</c:v>
+                    <c:v>3.8117252450149768E-8</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.5000000000000001E-2</c:v>
+                    <c:v>1.4929229944012967E-8</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'tps-25'!$U$28:$U$29</c:f>
+                <c:f>'tps-25'!$O$28:$O$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>1.5000000000000001E-2</c:v>
+                    <c:v>3.8117252450149768E-8</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.5000000000000001E-2</c:v>
+                    <c:v>1.4929229944012967E-8</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3734,30 +3731,30 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'tps-25'!$O$28:$O$29</c:f>
+                <c:f>'tps-25'!$U$28:$U$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>3.8117252450149768E-8</c:v>
+                    <c:v>1.5000000000000001E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.4929229944012967E-8</c:v>
+                    <c:v>1.5000000000000001E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'tps-25'!$O$28:$O$29</c:f>
+                <c:f>'tps-25'!$U$28:$U$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>3.8117252450149768E-8</c:v>
+                    <c:v>1.5000000000000001E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.4929229944012967E-8</c:v>
+                    <c:v>1.5000000000000001E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -10248,8 +10245,8 @@
   </sheetPr>
   <dimension ref="A1:AI285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M28" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" topLeftCell="G45" zoomScale="88" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O90" sqref="O90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
